--- a/Anotacija-viktor.xlsx
+++ b/Anotacija-viktor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FFCEA20-C8CC-4321-9B56-5086C9B4478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C1DAFF-ABF3-418B-8AB2-381998AB0D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B7F65A3-2C39-4D5B-ABEE-5E3D6ECBD3D1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="3073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="3073">
   <si>
     <t>Ni moja djevojka nije bila baš oduševljena jer je film imao element jednog od njezinih najvećih strahova, morskih pasa.</t>
   </si>
@@ -9646,8 +9646,8 @@
   <dimension ref="A1:E3064"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A827" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D861" sqref="D861"/>
+      <pane ySplit="1" topLeftCell="A845" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D871" sqref="D871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17959,7 +17959,9 @@
       </c>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
-      <c r="D861" s="4"/>
+      <c r="D861" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E861" s="4"/>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
@@ -17968,7 +17970,9 @@
       </c>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
-      <c r="D862" s="4"/>
+      <c r="D862" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E862" s="4"/>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
@@ -17977,7 +17981,9 @@
       </c>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
-      <c r="D863" s="4"/>
+      <c r="D863" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E863" s="4"/>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
@@ -17986,7 +17992,9 @@
       </c>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
-      <c r="D864" s="4"/>
+      <c r="D864" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E864" s="4"/>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
@@ -17995,7 +18003,9 @@
       </c>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
-      <c r="D865" s="4"/>
+      <c r="D865" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E865" s="4"/>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
@@ -18004,7 +18014,9 @@
       </c>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
-      <c r="D866" s="4"/>
+      <c r="D866" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E866" s="4"/>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
@@ -18013,7 +18025,9 @@
       </c>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
-      <c r="D867" s="4"/>
+      <c r="D867" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E867" s="4"/>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
@@ -18022,7 +18036,9 @@
       </c>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
-      <c r="D868" s="4"/>
+      <c r="D868" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E868" s="4"/>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
@@ -18031,7 +18047,9 @@
       </c>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
-      <c r="D869" s="4"/>
+      <c r="D869" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E869" s="4"/>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
@@ -18040,7 +18058,9 @@
       </c>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
-      <c r="D870" s="4"/>
+      <c r="D870" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E870" s="4"/>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">

--- a/Anotacija-viktor.xlsx
+++ b/Anotacija-viktor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C1DAFF-ABF3-418B-8AB2-381998AB0D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC47996-00DF-4BD0-83B8-29C4096B8F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B7F65A3-2C39-4D5B-ABEE-5E3D6ECBD3D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B7F65A3-2C39-4D5B-ABEE-5E3D6ECBD3D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="3073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="3075">
   <si>
     <t>Ni moja djevojka nije bila baš oduševljena jer je film imao element jednog od njezinih najvećih strahova, morskih pasa.</t>
   </si>
@@ -9253,6 +9253,12 @@
   </si>
   <si>
     <t>pot</t>
+  </si>
+  <si>
+    <t>Neg</t>
+  </si>
+  <si>
+    <t>nuet</t>
   </si>
 </sst>
 </file>
@@ -9646,8 +9652,8 @@
   <dimension ref="A1:E3064"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A845" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D871" sqref="D871"/>
+      <pane ySplit="1" topLeftCell="A1153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1181" sqref="D1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11988,7 +11994,9 @@
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
+      <c r="D212" s="9" t="s">
+        <v>3073</v>
+      </c>
       <c r="E212" s="4"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -11997,7 +12005,9 @@
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
+      <c r="D213" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E213" s="4"/>
     </row>
     <row r="214" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12006,7 +12016,9 @@
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
+      <c r="D214" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E214" s="4"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -12015,7 +12027,9 @@
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="D215" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E215" s="4"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -12024,7 +12038,9 @@
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
+      <c r="D216" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E216" s="4"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -12055,7 +12071,9 @@
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
+      <c r="D219" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E219" s="4"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -12086,7 +12104,9 @@
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
+      <c r="D222" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E222" s="4"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -12095,7 +12115,9 @@
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
+      <c r="D223" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E223" s="4"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -12104,7 +12126,9 @@
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
+      <c r="D224" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E224" s="4"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -12113,7 +12137,9 @@
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
+      <c r="D225" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E225" s="4"/>
     </row>
     <row r="226" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12122,7 +12148,9 @@
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
+      <c r="D226" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E226" s="4"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -12131,7 +12159,9 @@
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="D227" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E227" s="4"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -12140,7 +12170,9 @@
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
+      <c r="D228" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E228" s="4"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -12149,7 +12181,9 @@
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
+      <c r="D229" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E229" s="4"/>
     </row>
     <row r="230" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12158,7 +12192,9 @@
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
+      <c r="D230" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E230" s="4"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -12167,7 +12203,9 @@
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
+      <c r="D231" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E231" s="4"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -12176,7 +12214,9 @@
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
+      <c r="D232" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E232" s="4"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -12185,7 +12225,9 @@
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
+      <c r="D233" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E233" s="4"/>
     </row>
     <row r="234" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12194,7 +12236,9 @@
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
+      <c r="D234" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E234" s="4"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -12203,7 +12247,9 @@
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
+      <c r="D235" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E235" s="4"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -12212,7 +12258,9 @@
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
+      <c r="D236" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E236" s="4"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -12221,7 +12269,9 @@
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
+      <c r="D237" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E237" s="4"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -12230,7 +12280,9 @@
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
+      <c r="D238" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E238" s="4"/>
     </row>
     <row r="239" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12239,7 +12291,9 @@
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
+      <c r="D239" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E239" s="4"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -12248,7 +12302,9 @@
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
+      <c r="D240" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E240" s="4"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -12257,7 +12313,9 @@
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
+      <c r="D241" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E241" s="4"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -12266,7 +12324,9 @@
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
+      <c r="D242" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E242" s="4"/>
     </row>
     <row r="243" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12275,7 +12335,9 @@
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
+      <c r="D243" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E243" s="4"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -12284,7 +12346,9 @@
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
+      <c r="D244" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E244" s="4"/>
     </row>
     <row r="245" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12293,7 +12357,9 @@
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
+      <c r="D245" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E245" s="4"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -12302,7 +12368,9 @@
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
+      <c r="D246" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E246" s="4"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -12311,7 +12379,9 @@
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
+      <c r="D247" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E247" s="4"/>
     </row>
     <row r="248" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12320,7 +12390,9 @@
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
+      <c r="D248" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E248" s="4"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -12329,7 +12401,9 @@
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
+      <c r="D249" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E249" s="4"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -12338,7 +12412,9 @@
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
+      <c r="D250" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E250" s="4"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -12347,7 +12423,9 @@
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
+      <c r="D251" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E251" s="4"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -12356,7 +12434,9 @@
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
+      <c r="D252" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E252" s="4"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -12365,7 +12445,9 @@
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
+      <c r="D253" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E253" s="4"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -12374,7 +12456,9 @@
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
+      <c r="D254" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E254" s="4"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -12383,7 +12467,9 @@
       </c>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
+      <c r="D255" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E255" s="4"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -12392,7 +12478,9 @@
       </c>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
+      <c r="D256" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E256" s="4"/>
     </row>
     <row r="257" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12401,7 +12489,9 @@
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+      <c r="D257" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E257" s="4"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -12410,7 +12500,9 @@
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
+      <c r="D258" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E258" s="4"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -12419,7 +12511,9 @@
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
+      <c r="D259" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E259" s="4"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -12428,7 +12522,9 @@
       </c>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
+      <c r="D260" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E260" s="4"/>
     </row>
     <row r="261" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12437,7 +12533,9 @@
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
+      <c r="D261" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E261" s="4"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -12446,7 +12544,9 @@
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
+      <c r="D262" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E262" s="4"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -12455,7 +12555,9 @@
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
+      <c r="D263" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E263" s="4"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -12464,7 +12566,9 @@
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
+      <c r="D264" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E264" s="4"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -12473,7 +12577,9 @@
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
+      <c r="D265" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E265" s="4"/>
     </row>
     <row r="266" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12482,7 +12588,9 @@
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
+      <c r="D266" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E266" s="4"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -12491,7 +12599,9 @@
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
+      <c r="D267" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E267" s="4"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -12500,7 +12610,9 @@
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
+      <c r="D268" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E268" s="4"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -12509,7 +12621,9 @@
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
+      <c r="D269" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E269" s="4"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -12518,7 +12632,9 @@
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
+      <c r="D270" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E270" s="4"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -12527,7 +12643,9 @@
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
+      <c r="D271" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E271" s="4"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -12536,7 +12654,9 @@
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
+      <c r="D272" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E272" s="4"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -12545,7 +12665,9 @@
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
+      <c r="D273" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E273" s="4"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -12554,7 +12676,9 @@
       </c>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
+      <c r="D274" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E274" s="4"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -12563,7 +12687,9 @@
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
+      <c r="D275" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E275" s="4"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -12572,7 +12698,9 @@
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
+      <c r="D276" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E276" s="4"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -12581,7 +12709,9 @@
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
+      <c r="D277" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E277" s="4"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -12590,7 +12720,9 @@
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
+      <c r="D278" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E278" s="4"/>
     </row>
     <row r="279" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12599,7 +12731,9 @@
       </c>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
+      <c r="D279" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E279" s="4"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -12608,7 +12742,9 @@
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
+      <c r="D280" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E280" s="4"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -12617,7 +12753,9 @@
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
+      <c r="D281" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E281" s="4"/>
     </row>
     <row r="282" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12626,7 +12764,9 @@
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
+      <c r="D282" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E282" s="4"/>
     </row>
     <row r="283" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12635,7 +12775,9 @@
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
+      <c r="D283" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E283" s="4"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -12644,7 +12786,9 @@
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
-      <c r="D284" s="4"/>
+      <c r="D284" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E284" s="4"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -12653,7 +12797,9 @@
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
+      <c r="D285" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E285" s="4"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -12662,7 +12808,9 @@
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
+      <c r="D286" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E286" s="4"/>
     </row>
     <row r="287" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12671,7 +12819,9 @@
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
+      <c r="D287" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E287" s="4"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -12680,7 +12830,9 @@
       </c>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
+      <c r="D288" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E288" s="4"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -12689,7 +12841,9 @@
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
+      <c r="D289" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E289" s="4"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -12698,7 +12852,9 @@
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
+      <c r="D290" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E290" s="4"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -12707,7 +12863,9 @@
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
+      <c r="D291" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E291" s="4"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -12716,7 +12874,9 @@
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
+      <c r="D292" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E292" s="4"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -12725,7 +12885,9 @@
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
+      <c r="D293" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E293" s="4"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -12734,7 +12896,9 @@
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
+      <c r="D294" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E294" s="4"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -12743,7 +12907,9 @@
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
-      <c r="D295" s="4"/>
+      <c r="D295" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E295" s="4"/>
     </row>
     <row r="296" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12752,7 +12918,9 @@
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
+      <c r="D296" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E296" s="4"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -12761,7 +12929,9 @@
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
+      <c r="D297" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E297" s="4"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -12770,7 +12940,9 @@
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
+      <c r="D298" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E298" s="4"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -12779,7 +12951,9 @@
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
+      <c r="D299" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E299" s="4"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -12788,7 +12962,9 @@
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
+      <c r="D300" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E300" s="4"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -12797,7 +12973,9 @@
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
+      <c r="D301" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E301" s="4"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -12806,7 +12984,9 @@
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
+      <c r="D302" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E302" s="4"/>
     </row>
     <row r="303" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12815,7 +12995,9 @@
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
+      <c r="D303" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E303" s="4"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -12824,7 +13006,9 @@
       </c>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
+      <c r="D304" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E304" s="4"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -12833,7 +13017,9 @@
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
+      <c r="D305" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E305" s="4"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -12842,7 +13028,9 @@
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
+      <c r="D306" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E306" s="4"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -12851,7 +13039,9 @@
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
+      <c r="D307" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E307" s="4"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -12860,7 +13050,9 @@
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
+      <c r="D308" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E308" s="4"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -12869,7 +13061,9 @@
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
+      <c r="D309" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E309" s="4"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -12878,7 +13072,9 @@
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
+      <c r="D310" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E310" s="4"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -12887,7 +13083,9 @@
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
+      <c r="D311" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E311" s="4"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -12896,7 +13094,9 @@
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
+      <c r="D312" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E312" s="4"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -12905,7 +13105,9 @@
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
+      <c r="D313" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E313" s="4"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -12914,7 +13116,9 @@
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
+      <c r="D314" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E314" s="4"/>
     </row>
     <row r="315" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12923,7 +13127,9 @@
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
+      <c r="D315" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E315" s="4"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -12932,7 +13138,9 @@
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
+      <c r="D316" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E316" s="4"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -12941,7 +13149,9 @@
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
+      <c r="D317" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E317" s="4"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -12950,7 +13160,9 @@
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
+      <c r="D318" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E318" s="4"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -12959,7 +13171,9 @@
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
+      <c r="D319" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E319" s="4"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -12968,7 +13182,9 @@
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
+      <c r="D320" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E320" s="4"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -12977,7 +13193,9 @@
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
+      <c r="D321" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E321" s="4"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -12986,7 +13204,9 @@
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
+      <c r="D322" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E322" s="4"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -12995,7 +13215,9 @@
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
+      <c r="D323" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E323" s="4"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -13004,7 +13226,9 @@
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
-      <c r="D324" s="4"/>
+      <c r="D324" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E324" s="4"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -13013,7 +13237,9 @@
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
-      <c r="D325" s="4"/>
+      <c r="D325" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E325" s="4"/>
     </row>
     <row r="326" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13022,7 +13248,9 @@
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
-      <c r="D326" s="4"/>
+      <c r="D326" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E326" s="4"/>
     </row>
     <row r="327" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13031,7 +13259,9 @@
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
+      <c r="D327" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E327" s="4"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -13040,7 +13270,9 @@
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
-      <c r="D328" s="4"/>
+      <c r="D328" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E328" s="4"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -13049,7 +13281,9 @@
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
+      <c r="D329" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E329" s="4"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -13058,7 +13292,9 @@
       </c>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
+      <c r="D330" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E330" s="4"/>
     </row>
     <row r="331" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13067,7 +13303,9 @@
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
+      <c r="D331" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E331" s="4"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -13076,7 +13314,9 @@
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
-      <c r="D332" s="4"/>
+      <c r="D332" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E332" s="4"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -13085,7 +13325,9 @@
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
-      <c r="D333" s="4"/>
+      <c r="D333" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E333" s="4"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -13094,7 +13336,9 @@
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
+      <c r="D334" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E334" s="4"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -13103,7 +13347,9 @@
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
-      <c r="D335" s="4"/>
+      <c r="D335" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E335" s="4"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -13112,7 +13358,9 @@
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
-      <c r="D336" s="4"/>
+      <c r="D336" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E336" s="4"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -13121,7 +13369,9 @@
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
-      <c r="D337" s="4"/>
+      <c r="D337" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E337" s="4"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -13130,7 +13380,9 @@
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
-      <c r="D338" s="4"/>
+      <c r="D338" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E338" s="4"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -13139,7 +13391,9 @@
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
-      <c r="D339" s="4"/>
+      <c r="D339" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E339" s="4"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -13148,7 +13402,9 @@
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
-      <c r="D340" s="4"/>
+      <c r="D340" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E340" s="4"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -13157,7 +13413,9 @@
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
+      <c r="D341" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E341" s="4"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -13166,7 +13424,9 @@
       </c>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
+      <c r="D342" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E342" s="4"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -13175,7 +13435,9 @@
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
+      <c r="D343" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E343" s="4"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -13184,7 +13446,9 @@
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
-      <c r="D344" s="4"/>
+      <c r="D344" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E344" s="4"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -13193,7 +13457,9 @@
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
+      <c r="D345" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E345" s="4"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -13202,7 +13468,9 @@
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
+      <c r="D346" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E346" s="4"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -13211,7 +13479,9 @@
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
-      <c r="D347" s="4"/>
+      <c r="D347" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E347" s="4"/>
     </row>
     <row r="348" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13220,7 +13490,9 @@
       </c>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
+      <c r="D348" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E348" s="4"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -13229,7 +13501,9 @@
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
+      <c r="D349" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E349" s="4"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -13238,7 +13512,9 @@
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
-      <c r="D350" s="4"/>
+      <c r="D350" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E350" s="4"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -13247,7 +13523,9 @@
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
-      <c r="D351" s="4"/>
+      <c r="D351" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E351" s="4"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -13256,7 +13534,9 @@
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
-      <c r="D352" s="4"/>
+      <c r="D352" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E352" s="4"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -13265,7 +13545,9 @@
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
-      <c r="D353" s="4"/>
+      <c r="D353" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E353" s="4"/>
     </row>
     <row r="354" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13274,7 +13556,9 @@
       </c>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
-      <c r="D354" s="4"/>
+      <c r="D354" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E354" s="4"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -13283,7 +13567,9 @@
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
-      <c r="D355" s="4"/>
+      <c r="D355" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E355" s="4"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -13292,7 +13578,9 @@
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
-      <c r="D356" s="4"/>
+      <c r="D356" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E356" s="4"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -13301,7 +13589,9 @@
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
+      <c r="D357" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E357" s="4"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -13310,7 +13600,9 @@
       </c>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
+      <c r="D358" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E358" s="4"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -13319,7 +13611,9 @@
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
+      <c r="D359" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E359" s="4"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -13328,7 +13622,9 @@
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
-      <c r="D360" s="4"/>
+      <c r="D360" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E360" s="4"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -13337,7 +13633,9 @@
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
-      <c r="D361" s="4"/>
+      <c r="D361" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E361" s="4"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -13346,7 +13644,9 @@
       </c>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
-      <c r="D362" s="4"/>
+      <c r="D362" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E362" s="4"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -13355,7 +13655,9 @@
       </c>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
-      <c r="D363" s="4"/>
+      <c r="D363" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E363" s="4"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -13364,7 +13666,9 @@
       </c>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
+      <c r="D364" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E364" s="4"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -13373,7 +13677,9 @@
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
+      <c r="D365" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E365" s="4"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -13382,7 +13688,9 @@
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
-      <c r="D366" s="4"/>
+      <c r="D366" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E366" s="4"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -13391,7 +13699,9 @@
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
-      <c r="D367" s="4"/>
+      <c r="D367" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E367" s="4"/>
     </row>
     <row r="368" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13400,7 +13710,9 @@
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
-      <c r="D368" s="4"/>
+      <c r="D368" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E368" s="4"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -13409,7 +13721,9 @@
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
-      <c r="D369" s="4"/>
+      <c r="D369" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E369" s="4"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -13418,7 +13732,9 @@
       </c>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
+      <c r="D370" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E370" s="4"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -13427,7 +13743,9 @@
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
-      <c r="D371" s="4"/>
+      <c r="D371" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E371" s="4"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -13436,7 +13754,9 @@
       </c>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
-      <c r="D372" s="4"/>
+      <c r="D372" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E372" s="4"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -13445,7 +13765,9 @@
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
-      <c r="D373" s="4"/>
+      <c r="D373" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E373" s="4"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -13454,7 +13776,9 @@
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
-      <c r="D374" s="4"/>
+      <c r="D374" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E374" s="4"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -13463,7 +13787,9 @@
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
+      <c r="D375" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E375" s="4"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -13472,7 +13798,9 @@
       </c>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
-      <c r="D376" s="4"/>
+      <c r="D376" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E376" s="4"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -13481,7 +13809,9 @@
       </c>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
-      <c r="D377" s="4"/>
+      <c r="D377" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E377" s="4"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -13490,7 +13820,9 @@
       </c>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
-      <c r="D378" s="4"/>
+      <c r="D378" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E378" s="4"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -13499,7 +13831,9 @@
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
-      <c r="D379" s="4"/>
+      <c r="D379" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E379" s="4"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -13508,7 +13842,9 @@
       </c>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
+      <c r="D380" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E380" s="4"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -13517,7 +13853,9 @@
       </c>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
-      <c r="D381" s="4"/>
+      <c r="D381" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E381" s="4"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -13526,7 +13864,9 @@
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
-      <c r="D382" s="4"/>
+      <c r="D382" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E382" s="4"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -13535,7 +13875,9 @@
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
-      <c r="D383" s="4"/>
+      <c r="D383" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E383" s="4"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -13544,7 +13886,9 @@
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
-      <c r="D384" s="4"/>
+      <c r="D384" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E384" s="4"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -13553,7 +13897,9 @@
       </c>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
-      <c r="D385" s="4"/>
+      <c r="D385" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E385" s="4"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -13562,7 +13908,9 @@
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
+      <c r="D386" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E386" s="4"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -13571,7 +13919,9 @@
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
-      <c r="D387" s="4"/>
+      <c r="D387" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E387" s="4"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -13580,7 +13930,9 @@
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
-      <c r="D388" s="4"/>
+      <c r="D388" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E388" s="4"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -13589,7 +13941,9 @@
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
-      <c r="D389" s="4"/>
+      <c r="D389" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E389" s="4"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -13598,7 +13952,9 @@
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
-      <c r="D390" s="4"/>
+      <c r="D390" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E390" s="4"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -13607,7 +13963,9 @@
       </c>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
+      <c r="D391" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E391" s="4"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -13616,7 +13974,9 @@
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
+      <c r="D392" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E392" s="4"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -13625,7 +13985,9 @@
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
-      <c r="D393" s="4"/>
+      <c r="D393" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E393" s="4"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -13634,7 +13996,9 @@
       </c>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
-      <c r="D394" s="4"/>
+      <c r="D394" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E394" s="4"/>
     </row>
     <row r="395" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13643,7 +14007,9 @@
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
-      <c r="D395" s="4"/>
+      <c r="D395" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E395" s="4"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -13652,7 +14018,9 @@
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
-      <c r="D396" s="4"/>
+      <c r="D396" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E396" s="4"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -13661,7 +14029,9 @@
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
-      <c r="D397" s="4"/>
+      <c r="D397" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E397" s="4"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -13670,7 +14040,9 @@
       </c>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
-      <c r="D398" s="4"/>
+      <c r="D398" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E398" s="4"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -13679,7 +14051,9 @@
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
-      <c r="D399" s="4"/>
+      <c r="D399" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E399" s="4"/>
     </row>
     <row r="400" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13688,7 +14062,9 @@
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
-      <c r="D400" s="4"/>
+      <c r="D400" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E400" s="4"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -13697,7 +14073,9 @@
       </c>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
-      <c r="D401" s="4"/>
+      <c r="D401" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E401" s="4"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -13706,7 +14084,9 @@
       </c>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
-      <c r="D402" s="4"/>
+      <c r="D402" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E402" s="4"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -13715,7 +14095,9 @@
       </c>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
+      <c r="D403" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E403" s="4"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -13724,7 +14106,9 @@
       </c>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
-      <c r="D404" s="4"/>
+      <c r="D404" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E404" s="4"/>
     </row>
     <row r="405" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13733,7 +14117,9 @@
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
-      <c r="D405" s="4"/>
+      <c r="D405" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E405" s="4"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -13742,7 +14128,9 @@
       </c>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
+      <c r="D406" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E406" s="4"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -13751,7 +14139,9 @@
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
-      <c r="D407" s="4"/>
+      <c r="D407" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E407" s="4"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -13760,7 +14150,9 @@
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
-      <c r="D408" s="4"/>
+      <c r="D408" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E408" s="4"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -13769,7 +14161,9 @@
       </c>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
-      <c r="D409" s="4"/>
+      <c r="D409" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E409" s="4"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -13778,7 +14172,9 @@
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
-      <c r="D410" s="4"/>
+      <c r="D410" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E410" s="4"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -13787,7 +14183,9 @@
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
-      <c r="D411" s="4"/>
+      <c r="D411" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E411" s="4"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -13796,7 +14194,9 @@
       </c>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
-      <c r="D412" s="4"/>
+      <c r="D412" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E412" s="4"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -13805,7 +14205,9 @@
       </c>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
-      <c r="D413" s="4"/>
+      <c r="D413" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E413" s="4"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -13814,7 +14216,9 @@
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
-      <c r="D414" s="4"/>
+      <c r="D414" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E414" s="4"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -13823,7 +14227,9 @@
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
-      <c r="D415" s="4"/>
+      <c r="D415" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E415" s="4"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -13832,7 +14238,9 @@
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
-      <c r="D416" s="4"/>
+      <c r="D416" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E416" s="4"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -13841,7 +14249,9 @@
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
-      <c r="D417" s="4"/>
+      <c r="D417" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E417" s="4"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -13850,7 +14260,9 @@
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
-      <c r="D418" s="4"/>
+      <c r="D418" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E418" s="4"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -13859,7 +14271,9 @@
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
+      <c r="D419" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E419" s="4"/>
     </row>
     <row r="420" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13868,7 +14282,9 @@
       </c>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
+      <c r="D420" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E420" s="4"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -13877,7 +14293,9 @@
       </c>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
+      <c r="D421" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E421" s="4"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -13886,7 +14304,9 @@
       </c>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
+      <c r="D422" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E422" s="4"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -13895,7 +14315,9 @@
       </c>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
+      <c r="D423" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E423" s="4"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -13904,7 +14326,9 @@
       </c>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
+      <c r="D424" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E424" s="4"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -13913,7 +14337,9 @@
       </c>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
+      <c r="D425" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E425" s="4"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -13922,7 +14348,9 @@
       </c>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
+      <c r="D426" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E426" s="4"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -13931,7 +14359,9 @@
       </c>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
+      <c r="D427" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E427" s="4"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -13940,7 +14370,9 @@
       </c>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
+      <c r="D428" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E428" s="4"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -13949,7 +14381,9 @@
       </c>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
+      <c r="D429" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E429" s="4"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -13958,7 +14392,9 @@
       </c>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
+      <c r="D430" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E430" s="4"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -13967,7 +14403,9 @@
       </c>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
+      <c r="D431" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E431" s="4"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -13976,7 +14414,9 @@
       </c>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
+      <c r="D432" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E432" s="4"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -13985,7 +14425,9 @@
       </c>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
+      <c r="D433" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E433" s="4"/>
     </row>
     <row r="434" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13994,7 +14436,9 @@
       </c>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
+      <c r="D434" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E434" s="4"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -14003,7 +14447,9 @@
       </c>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
+      <c r="D435" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E435" s="4"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -14012,7 +14458,9 @@
       </c>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
+      <c r="D436" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E436" s="4"/>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -14021,7 +14469,9 @@
       </c>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
+      <c r="D437" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E437" s="4"/>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -14030,7 +14480,9 @@
       </c>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
+      <c r="D438" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E438" s="4"/>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -14039,7 +14491,9 @@
       </c>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
+      <c r="D439" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E439" s="4"/>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -14048,7 +14502,9 @@
       </c>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
-      <c r="D440" s="4"/>
+      <c r="D440" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E440" s="4"/>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -14057,7 +14513,9 @@
       </c>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
-      <c r="D441" s="4"/>
+      <c r="D441" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E441" s="4"/>
     </row>
     <row r="442" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14066,7 +14524,9 @@
       </c>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
+      <c r="D442" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E442" s="4"/>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -14075,7 +14535,9 @@
       </c>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
+      <c r="D443" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E443" s="4"/>
     </row>
     <row r="444" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14084,7 +14546,9 @@
       </c>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
+      <c r="D444" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E444" s="4"/>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -14093,7 +14557,9 @@
       </c>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
+      <c r="D445" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E445" s="4"/>
     </row>
     <row r="446" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14102,7 +14568,9 @@
       </c>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
+      <c r="D446" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E446" s="4"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -14111,7 +14579,9 @@
       </c>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
+      <c r="D447" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E447" s="4"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -14120,7 +14590,9 @@
       </c>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
+      <c r="D448" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E448" s="4"/>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -14129,7 +14601,9 @@
       </c>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
+      <c r="D449" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E449" s="4"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -14138,7 +14612,9 @@
       </c>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
-      <c r="D450" s="4"/>
+      <c r="D450" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E450" s="4"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -14147,7 +14623,9 @@
       </c>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
-      <c r="D451" s="4"/>
+      <c r="D451" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E451" s="4"/>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -14156,7 +14634,9 @@
       </c>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
-      <c r="D452" s="4"/>
+      <c r="D452" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E452" s="4"/>
     </row>
     <row r="453" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14165,7 +14645,9 @@
       </c>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
+      <c r="D453" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E453" s="4"/>
     </row>
     <row r="454" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14174,7 +14656,9 @@
       </c>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
-      <c r="D454" s="4"/>
+      <c r="D454" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E454" s="4"/>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -14183,7 +14667,9 @@
       </c>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
+      <c r="D455" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E455" s="4"/>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -14192,7 +14678,9 @@
       </c>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
+      <c r="D456" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E456" s="4"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -14201,7 +14689,9 @@
       </c>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
-      <c r="D457" s="4"/>
+      <c r="D457" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E457" s="4"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -14210,7 +14700,9 @@
       </c>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
+      <c r="D458" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E458" s="4"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -14219,7 +14711,9 @@
       </c>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
+      <c r="D459" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E459" s="4"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -14228,7 +14722,9 @@
       </c>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
+      <c r="D460" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E460" s="4"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -14237,7 +14733,9 @@
       </c>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
-      <c r="D461" s="4"/>
+      <c r="D461" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E461" s="4"/>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -14246,7 +14744,9 @@
       </c>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
+      <c r="D462" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E462" s="4"/>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -14255,7 +14755,9 @@
       </c>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
+      <c r="D463" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E463" s="4"/>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -14264,7 +14766,9 @@
       </c>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
-      <c r="D464" s="4"/>
+      <c r="D464" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E464" s="4"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -14273,7 +14777,9 @@
       </c>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
+      <c r="D465" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E465" s="4"/>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -14282,7 +14788,9 @@
       </c>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
-      <c r="D466" s="4"/>
+      <c r="D466" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E466" s="4"/>
     </row>
     <row r="467" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14291,7 +14799,9 @@
       </c>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
-      <c r="D467" s="4"/>
+      <c r="D467" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E467" s="4"/>
     </row>
     <row r="468" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14300,7 +14810,9 @@
       </c>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
-      <c r="D468" s="4"/>
+      <c r="D468" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E468" s="4"/>
     </row>
     <row r="469" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14309,7 +14821,9 @@
       </c>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
-      <c r="D469" s="4"/>
+      <c r="D469" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E469" s="4"/>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -14318,7 +14832,9 @@
       </c>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
-      <c r="D470" s="4"/>
+      <c r="D470" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E470" s="4"/>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -14327,7 +14843,9 @@
       </c>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
-      <c r="D471" s="4"/>
+      <c r="D471" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E471" s="4"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -14336,7 +14854,9 @@
       </c>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
-      <c r="D472" s="4"/>
+      <c r="D472" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E472" s="4"/>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -14345,7 +14865,9 @@
       </c>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
-      <c r="D473" s="4"/>
+      <c r="D473" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E473" s="4"/>
     </row>
     <row r="474" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14354,7 +14876,9 @@
       </c>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
-      <c r="D474" s="4"/>
+      <c r="D474" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E474" s="4"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -14363,7 +14887,9 @@
       </c>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
-      <c r="D475" s="4"/>
+      <c r="D475" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E475" s="4"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -14372,7 +14898,9 @@
       </c>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
-      <c r="D476" s="4"/>
+      <c r="D476" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E476" s="4"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -14381,7 +14909,9 @@
       </c>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
-      <c r="D477" s="4"/>
+      <c r="D477" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E477" s="4"/>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -14390,7 +14920,9 @@
       </c>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
-      <c r="D478" s="4"/>
+      <c r="D478" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E478" s="4"/>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -14399,7 +14931,9 @@
       </c>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
-      <c r="D479" s="4"/>
+      <c r="D479" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E479" s="4"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -14408,7 +14942,9 @@
       </c>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
-      <c r="D480" s="4"/>
+      <c r="D480" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E480" s="4"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -14417,7 +14953,9 @@
       </c>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
-      <c r="D481" s="4"/>
+      <c r="D481" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E481" s="4"/>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -14426,7 +14964,9 @@
       </c>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
-      <c r="D482" s="4"/>
+      <c r="D482" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E482" s="4"/>
     </row>
     <row r="483" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14435,7 +14975,9 @@
       </c>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
-      <c r="D483" s="4"/>
+      <c r="D483" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E483" s="4"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -14444,7 +14986,9 @@
       </c>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
-      <c r="D484" s="4"/>
+      <c r="D484" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E484" s="4"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -14453,7 +14997,9 @@
       </c>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
-      <c r="D485" s="4"/>
+      <c r="D485" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E485" s="4"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -14462,7 +15008,9 @@
       </c>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
-      <c r="D486" s="4"/>
+      <c r="D486" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E486" s="4"/>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -14471,7 +15019,9 @@
       </c>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
-      <c r="D487" s="4"/>
+      <c r="D487" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E487" s="4"/>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -14480,7 +15030,9 @@
       </c>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
-      <c r="D488" s="4"/>
+      <c r="D488" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E488" s="4"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -14489,7 +15041,9 @@
       </c>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
-      <c r="D489" s="4"/>
+      <c r="D489" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E489" s="4"/>
     </row>
     <row r="490" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14498,7 +15052,9 @@
       </c>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
-      <c r="D490" s="4"/>
+      <c r="D490" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E490" s="4"/>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -14507,7 +15063,9 @@
       </c>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
-      <c r="D491" s="4"/>
+      <c r="D491" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E491" s="4"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -14516,7 +15074,9 @@
       </c>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
-      <c r="D492" s="4"/>
+      <c r="D492" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E492" s="4"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -14525,7 +15085,9 @@
       </c>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
-      <c r="D493" s="4"/>
+      <c r="D493" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E493" s="4"/>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -14534,7 +15096,9 @@
       </c>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
-      <c r="D494" s="4"/>
+      <c r="D494" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E494" s="4"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -14543,7 +15107,9 @@
       </c>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
-      <c r="D495" s="4"/>
+      <c r="D495" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E495" s="4"/>
     </row>
     <row r="496" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14552,7 +15118,9 @@
       </c>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
-      <c r="D496" s="4"/>
+      <c r="D496" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E496" s="4"/>
     </row>
     <row r="497" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14561,7 +15129,9 @@
       </c>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
-      <c r="D497" s="4"/>
+      <c r="D497" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E497" s="4"/>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -14570,7 +15140,9 @@
       </c>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
-      <c r="D498" s="4"/>
+      <c r="D498" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E498" s="4"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -14579,7 +15151,9 @@
       </c>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
-      <c r="D499" s="4"/>
+      <c r="D499" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E499" s="4"/>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -14588,7 +15162,9 @@
       </c>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
-      <c r="D500" s="4"/>
+      <c r="D500" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E500" s="4"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -14597,7 +15173,9 @@
       </c>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
-      <c r="D501" s="4"/>
+      <c r="D501" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E501" s="4"/>
     </row>
     <row r="502" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14606,7 +15184,9 @@
       </c>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
-      <c r="D502" s="4"/>
+      <c r="D502" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E502" s="4"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -14615,7 +15195,9 @@
       </c>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
-      <c r="D503" s="4"/>
+      <c r="D503" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E503" s="4"/>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -14624,7 +15206,9 @@
       </c>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
-      <c r="D504" s="4"/>
+      <c r="D504" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E504" s="4"/>
     </row>
     <row r="505" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14633,7 +15217,9 @@
       </c>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
-      <c r="D505" s="4"/>
+      <c r="D505" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E505" s="4"/>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -14642,7 +15228,9 @@
       </c>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
-      <c r="D506" s="4"/>
+      <c r="D506" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E506" s="4"/>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -14651,7 +15239,9 @@
       </c>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
-      <c r="D507" s="4"/>
+      <c r="D507" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E507" s="4"/>
     </row>
     <row r="508" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14660,7 +15250,9 @@
       </c>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
-      <c r="D508" s="4"/>
+      <c r="D508" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E508" s="4"/>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -14669,7 +15261,9 @@
       </c>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
-      <c r="D509" s="4"/>
+      <c r="D509" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E509" s="4"/>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -14678,7 +15272,9 @@
       </c>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
-      <c r="D510" s="4"/>
+      <c r="D510" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E510" s="4"/>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -14687,7 +15283,9 @@
       </c>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
-      <c r="D511" s="4"/>
+      <c r="D511" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E511" s="4"/>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -14696,7 +15294,9 @@
       </c>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
-      <c r="D512" s="4"/>
+      <c r="D512" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E512" s="4"/>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -14705,7 +15305,9 @@
       </c>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
-      <c r="D513" s="4"/>
+      <c r="D513" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E513" s="4"/>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -14714,7 +15316,9 @@
       </c>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
-      <c r="D514" s="4"/>
+      <c r="D514" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E514" s="4"/>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -14723,7 +15327,9 @@
       </c>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
-      <c r="D515" s="4"/>
+      <c r="D515" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E515" s="4"/>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -14732,7 +15338,9 @@
       </c>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
-      <c r="D516" s="4"/>
+      <c r="D516" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E516" s="4"/>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -14741,7 +15349,9 @@
       </c>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
-      <c r="D517" s="4"/>
+      <c r="D517" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E517" s="4"/>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -14750,7 +15360,9 @@
       </c>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
-      <c r="D518" s="4"/>
+      <c r="D518" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E518" s="4"/>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -14759,7 +15371,9 @@
       </c>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
-      <c r="D519" s="4"/>
+      <c r="D519" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E519" s="4"/>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -14768,7 +15382,9 @@
       </c>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
-      <c r="D520" s="4"/>
+      <c r="D520" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E520" s="4"/>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -14777,7 +15393,9 @@
       </c>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
-      <c r="D521" s="4"/>
+      <c r="D521" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E521" s="4"/>
     </row>
     <row r="522" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14786,7 +15404,9 @@
       </c>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
-      <c r="D522" s="4"/>
+      <c r="D522" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E522" s="4"/>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
@@ -14795,7 +15415,9 @@
       </c>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
-      <c r="D523" s="4"/>
+      <c r="D523" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E523" s="4"/>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -14804,7 +15426,9 @@
       </c>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
-      <c r="D524" s="4"/>
+      <c r="D524" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E524" s="4"/>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -14813,7 +15437,9 @@
       </c>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
-      <c r="D525" s="4"/>
+      <c r="D525" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E525" s="4"/>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -14822,7 +15448,9 @@
       </c>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
-      <c r="D526" s="4"/>
+      <c r="D526" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E526" s="4"/>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -14831,7 +15459,9 @@
       </c>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
-      <c r="D527" s="4"/>
+      <c r="D527" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E527" s="4"/>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -14840,7 +15470,9 @@
       </c>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
-      <c r="D528" s="4"/>
+      <c r="D528" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E528" s="4"/>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -14849,7 +15481,9 @@
       </c>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
-      <c r="D529" s="4"/>
+      <c r="D529" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E529" s="4"/>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -14858,7 +15492,9 @@
       </c>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
-      <c r="D530" s="4"/>
+      <c r="D530" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E530" s="4"/>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -14867,7 +15503,9 @@
       </c>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
-      <c r="D531" s="4"/>
+      <c r="D531" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E531" s="4"/>
     </row>
     <row r="532" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14876,7 +15514,9 @@
       </c>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
-      <c r="D532" s="4"/>
+      <c r="D532" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E532" s="4"/>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -14885,7 +15525,9 @@
       </c>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
-      <c r="D533" s="4"/>
+      <c r="D533" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E533" s="4"/>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -14894,7 +15536,9 @@
       </c>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
-      <c r="D534" s="4"/>
+      <c r="D534" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E534" s="4"/>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -14903,7 +15547,9 @@
       </c>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
-      <c r="D535" s="4"/>
+      <c r="D535" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E535" s="4"/>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -14912,7 +15558,9 @@
       </c>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
-      <c r="D536" s="4"/>
+      <c r="D536" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E536" s="4"/>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
@@ -14921,7 +15569,9 @@
       </c>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
-      <c r="D537" s="4"/>
+      <c r="D537" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E537" s="4"/>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -14930,7 +15580,9 @@
       </c>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
-      <c r="D538" s="4"/>
+      <c r="D538" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E538" s="4"/>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -14939,7 +15591,9 @@
       </c>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
-      <c r="D539" s="4"/>
+      <c r="D539" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E539" s="4"/>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -14948,7 +15602,9 @@
       </c>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
-      <c r="D540" s="4"/>
+      <c r="D540" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E540" s="4"/>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -14957,7 +15613,9 @@
       </c>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
-      <c r="D541" s="4"/>
+      <c r="D541" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E541" s="4"/>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -14966,7 +15624,9 @@
       </c>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
-      <c r="D542" s="4"/>
+      <c r="D542" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E542" s="4"/>
     </row>
     <row r="543" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14975,7 +15635,9 @@
       </c>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
-      <c r="D543" s="4"/>
+      <c r="D543" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E543" s="4"/>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -14984,7 +15646,9 @@
       </c>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
-      <c r="D544" s="4"/>
+      <c r="D544" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E544" s="4"/>
     </row>
     <row r="545" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14993,7 +15657,9 @@
       </c>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
-      <c r="D545" s="4"/>
+      <c r="D545" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E545" s="4"/>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
@@ -15002,7 +15668,9 @@
       </c>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
-      <c r="D546" s="4"/>
+      <c r="D546" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E546" s="4"/>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -15011,7 +15679,9 @@
       </c>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
-      <c r="D547" s="4"/>
+      <c r="D547" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E547" s="4"/>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
@@ -15020,7 +15690,9 @@
       </c>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
-      <c r="D548" s="4"/>
+      <c r="D548" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E548" s="4"/>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -15029,7 +15701,9 @@
       </c>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
-      <c r="D549" s="4"/>
+      <c r="D549" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E549" s="4"/>
     </row>
     <row r="550" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15038,7 +15712,9 @@
       </c>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
-      <c r="D550" s="4"/>
+      <c r="D550" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E550" s="4"/>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -15047,7 +15723,9 @@
       </c>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
-      <c r="D551" s="4"/>
+      <c r="D551" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E551" s="4"/>
     </row>
     <row r="552" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15056,7 +15734,9 @@
       </c>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
-      <c r="D552" s="4"/>
+      <c r="D552" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E552" s="4"/>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -15065,7 +15745,9 @@
       </c>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
-      <c r="D553" s="4"/>
+      <c r="D553" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E553" s="4"/>
     </row>
     <row r="554" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15074,7 +15756,9 @@
       </c>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
-      <c r="D554" s="4"/>
+      <c r="D554" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E554" s="4"/>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -15083,7 +15767,9 @@
       </c>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
-      <c r="D555" s="4"/>
+      <c r="D555" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E555" s="4"/>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
@@ -15092,7 +15778,9 @@
       </c>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
-      <c r="D556" s="4"/>
+      <c r="D556" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E556" s="4"/>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
@@ -15101,7 +15789,9 @@
       </c>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
-      <c r="D557" s="4"/>
+      <c r="D557" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E557" s="4"/>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
@@ -15110,7 +15800,9 @@
       </c>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
-      <c r="D558" s="4"/>
+      <c r="D558" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E558" s="4"/>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -15119,7 +15811,9 @@
       </c>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
-      <c r="D559" s="4"/>
+      <c r="D559" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E559" s="4"/>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -15128,7 +15822,9 @@
       </c>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
-      <c r="D560" s="4"/>
+      <c r="D560" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E560" s="4"/>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
@@ -15137,7 +15833,9 @@
       </c>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
-      <c r="D561" s="4"/>
+      <c r="D561" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E561" s="4"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
@@ -15146,7 +15844,9 @@
       </c>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
-      <c r="D562" s="4"/>
+      <c r="D562" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E562" s="4"/>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
@@ -15155,7 +15855,9 @@
       </c>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
-      <c r="D563" s="4"/>
+      <c r="D563" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E563" s="4"/>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
@@ -15164,7 +15866,9 @@
       </c>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
-      <c r="D564" s="4"/>
+      <c r="D564" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E564" s="4"/>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -15173,7 +15877,9 @@
       </c>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
-      <c r="D565" s="4"/>
+      <c r="D565" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E565" s="4"/>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -15182,7 +15888,9 @@
       </c>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
-      <c r="D566" s="4"/>
+      <c r="D566" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E566" s="4"/>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -15191,7 +15899,9 @@
       </c>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
-      <c r="D567" s="4"/>
+      <c r="D567" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E567" s="4"/>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
@@ -15200,7 +15910,9 @@
       </c>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
-      <c r="D568" s="4"/>
+      <c r="D568" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E568" s="4"/>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -15209,7 +15921,9 @@
       </c>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
-      <c r="D569" s="4"/>
+      <c r="D569" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E569" s="4"/>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -15218,7 +15932,9 @@
       </c>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
-      <c r="D570" s="4"/>
+      <c r="D570" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E570" s="4"/>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -15227,7 +15943,9 @@
       </c>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
-      <c r="D571" s="4"/>
+      <c r="D571" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E571" s="4"/>
     </row>
     <row r="572" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15236,7 +15954,9 @@
       </c>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
-      <c r="D572" s="4"/>
+      <c r="D572" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E572" s="4"/>
     </row>
     <row r="573" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15245,7 +15965,9 @@
       </c>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
-      <c r="D573" s="4"/>
+      <c r="D573" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E573" s="4"/>
     </row>
     <row r="574" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15254,7 +15976,9 @@
       </c>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
-      <c r="D574" s="4"/>
+      <c r="D574" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E574" s="4"/>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -15263,7 +15987,9 @@
       </c>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
-      <c r="D575" s="4"/>
+      <c r="D575" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E575" s="4"/>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -15272,7 +15998,9 @@
       </c>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
-      <c r="D576" s="4"/>
+      <c r="D576" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E576" s="4"/>
     </row>
     <row r="577" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15281,7 +16009,9 @@
       </c>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
-      <c r="D577" s="4"/>
+      <c r="D577" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E577" s="4"/>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -15290,7 +16020,9 @@
       </c>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
-      <c r="D578" s="4"/>
+      <c r="D578" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E578" s="4"/>
     </row>
     <row r="579" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15299,7 +16031,9 @@
       </c>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
-      <c r="D579" s="4"/>
+      <c r="D579" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E579" s="4"/>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -15308,7 +16042,9 @@
       </c>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
-      <c r="D580" s="4"/>
+      <c r="D580" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E580" s="4"/>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -15317,7 +16053,9 @@
       </c>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
-      <c r="D581" s="4"/>
+      <c r="D581" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E581" s="4"/>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
@@ -15326,7 +16064,9 @@
       </c>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
-      <c r="D582" s="4"/>
+      <c r="D582" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E582" s="4"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
@@ -15335,7 +16075,9 @@
       </c>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
-      <c r="D583" s="4"/>
+      <c r="D583" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E583" s="4"/>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -15344,7 +16086,9 @@
       </c>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
-      <c r="D584" s="4"/>
+      <c r="D584" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E584" s="4"/>
     </row>
     <row r="585" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15353,7 +16097,9 @@
       </c>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
-      <c r="D585" s="4"/>
+      <c r="D585" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E585" s="4"/>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
@@ -15362,7 +16108,9 @@
       </c>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
-      <c r="D586" s="4"/>
+      <c r="D586" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E586" s="4"/>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -15371,7 +16119,9 @@
       </c>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
-      <c r="D587" s="4"/>
+      <c r="D587" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E587" s="4"/>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -15380,7 +16130,9 @@
       </c>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
-      <c r="D588" s="4"/>
+      <c r="D588" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E588" s="4"/>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -15389,7 +16141,9 @@
       </c>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
-      <c r="D589" s="4"/>
+      <c r="D589" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E589" s="4"/>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -15398,7 +16152,9 @@
       </c>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
-      <c r="D590" s="4"/>
+      <c r="D590" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E590" s="4"/>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -15407,7 +16163,9 @@
       </c>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
-      <c r="D591" s="4"/>
+      <c r="D591" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E591" s="4"/>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -15416,7 +16174,9 @@
       </c>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
-      <c r="D592" s="4"/>
+      <c r="D592" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E592" s="4"/>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -15425,7 +16185,9 @@
       </c>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
-      <c r="D593" s="4"/>
+      <c r="D593" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E593" s="4"/>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -15434,7 +16196,9 @@
       </c>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
-      <c r="D594" s="4"/>
+      <c r="D594" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E594" s="4"/>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -15443,7 +16207,9 @@
       </c>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
-      <c r="D595" s="4"/>
+      <c r="D595" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E595" s="4"/>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
@@ -15452,7 +16218,9 @@
       </c>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
-      <c r="D596" s="4"/>
+      <c r="D596" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E596" s="4"/>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -15461,7 +16229,9 @@
       </c>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
-      <c r="D597" s="4"/>
+      <c r="D597" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E597" s="4"/>
     </row>
     <row r="598" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15470,7 +16240,9 @@
       </c>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
-      <c r="D598" s="4"/>
+      <c r="D598" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E598" s="4"/>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -15479,7 +16251,9 @@
       </c>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
-      <c r="D599" s="4"/>
+      <c r="D599" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E599" s="4"/>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -15488,7 +16262,9 @@
       </c>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
-      <c r="D600" s="4"/>
+      <c r="D600" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E600" s="4"/>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -15497,7 +16273,9 @@
       </c>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
-      <c r="D601" s="4"/>
+      <c r="D601" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E601" s="4"/>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -15506,7 +16284,9 @@
       </c>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
-      <c r="D602" s="4"/>
+      <c r="D602" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E602" s="4"/>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -15515,7 +16295,9 @@
       </c>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
-      <c r="D603" s="4"/>
+      <c r="D603" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E603" s="4"/>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -15524,7 +16306,9 @@
       </c>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
-      <c r="D604" s="4"/>
+      <c r="D604" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E604" s="4"/>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -15533,7 +16317,9 @@
       </c>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
-      <c r="D605" s="4"/>
+      <c r="D605" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E605" s="4"/>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -15542,7 +16328,9 @@
       </c>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
-      <c r="D606" s="4"/>
+      <c r="D606" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E606" s="4"/>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -15551,7 +16339,9 @@
       </c>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
-      <c r="D607" s="4"/>
+      <c r="D607" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E607" s="4"/>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -15560,7 +16350,9 @@
       </c>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
-      <c r="D608" s="4"/>
+      <c r="D608" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E608" s="4"/>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -15569,7 +16361,9 @@
       </c>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
-      <c r="D609" s="4"/>
+      <c r="D609" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E609" s="4"/>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
@@ -15578,7 +16372,9 @@
       </c>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
-      <c r="D610" s="4"/>
+      <c r="D610" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E610" s="4"/>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -15587,7 +16383,9 @@
       </c>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
-      <c r="D611" s="4"/>
+      <c r="D611" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E611" s="4"/>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -15596,7 +16394,9 @@
       </c>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
-      <c r="D612" s="4"/>
+      <c r="D612" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E612" s="4"/>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -15605,7 +16405,9 @@
       </c>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
-      <c r="D613" s="4"/>
+      <c r="D613" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E613" s="4"/>
     </row>
     <row r="614" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15614,7 +16416,9 @@
       </c>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
-      <c r="D614" s="4"/>
+      <c r="D614" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E614" s="4"/>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -15623,7 +16427,9 @@
       </c>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
-      <c r="D615" s="4"/>
+      <c r="D615" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E615" s="4"/>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
@@ -15632,7 +16438,9 @@
       </c>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
-      <c r="D616" s="4"/>
+      <c r="D616" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E616" s="4"/>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -15641,7 +16449,9 @@
       </c>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
-      <c r="D617" s="4"/>
+      <c r="D617" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E617" s="4"/>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -15650,7 +16460,9 @@
       </c>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
-      <c r="D618" s="4"/>
+      <c r="D618" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E618" s="4"/>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -15659,7 +16471,9 @@
       </c>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
-      <c r="D619" s="4"/>
+      <c r="D619" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E619" s="4"/>
     </row>
     <row r="620" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15668,7 +16482,9 @@
       </c>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
-      <c r="D620" s="4"/>
+      <c r="D620" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E620" s="4"/>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
@@ -15677,7 +16493,9 @@
       </c>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
-      <c r="D621" s="4"/>
+      <c r="D621" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E621" s="4"/>
     </row>
     <row r="622" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15686,7 +16504,9 @@
       </c>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
-      <c r="D622" s="4"/>
+      <c r="D622" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E622" s="4"/>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -15695,7 +16515,9 @@
       </c>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
-      <c r="D623" s="4"/>
+      <c r="D623" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E623" s="4"/>
     </row>
     <row r="624" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15704,7 +16526,9 @@
       </c>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
-      <c r="D624" s="4"/>
+      <c r="D624" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E624" s="4"/>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -15713,7 +16537,9 @@
       </c>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
-      <c r="D625" s="4"/>
+      <c r="D625" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E625" s="4"/>
     </row>
     <row r="626" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15722,7 +16548,9 @@
       </c>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
-      <c r="D626" s="4"/>
+      <c r="D626" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E626" s="4"/>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -15731,7 +16559,9 @@
       </c>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
-      <c r="D627" s="4"/>
+      <c r="D627" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E627" s="4"/>
     </row>
     <row r="628" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15740,7 +16570,9 @@
       </c>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
-      <c r="D628" s="4"/>
+      <c r="D628" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E628" s="4"/>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -15749,7 +16581,9 @@
       </c>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
-      <c r="D629" s="4"/>
+      <c r="D629" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E629" s="4"/>
     </row>
     <row r="630" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15758,7 +16592,9 @@
       </c>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
-      <c r="D630" s="4"/>
+      <c r="D630" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E630" s="4"/>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -15767,7 +16603,9 @@
       </c>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
-      <c r="D631" s="4"/>
+      <c r="D631" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E631" s="4"/>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -15776,7 +16614,9 @@
       </c>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
-      <c r="D632" s="4"/>
+      <c r="D632" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E632" s="4"/>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -15785,7 +16625,9 @@
       </c>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
-      <c r="D633" s="4"/>
+      <c r="D633" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E633" s="4"/>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
@@ -15794,7 +16636,9 @@
       </c>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
-      <c r="D634" s="4"/>
+      <c r="D634" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E634" s="4"/>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -15803,7 +16647,9 @@
       </c>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
-      <c r="D635" s="4"/>
+      <c r="D635" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E635" s="4"/>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
@@ -15812,7 +16658,9 @@
       </c>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
-      <c r="D636" s="4"/>
+      <c r="D636" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E636" s="4"/>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
@@ -15821,7 +16669,9 @@
       </c>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
-      <c r="D637" s="4"/>
+      <c r="D637" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E637" s="4"/>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -15830,7 +16680,9 @@
       </c>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
-      <c r="D638" s="4"/>
+      <c r="D638" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E638" s="4"/>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -15839,7 +16691,9 @@
       </c>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
-      <c r="D639" s="4"/>
+      <c r="D639" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E639" s="4"/>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -15848,7 +16702,9 @@
       </c>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
-      <c r="D640" s="4"/>
+      <c r="D640" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E640" s="4"/>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -15857,7 +16713,9 @@
       </c>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
-      <c r="D641" s="4"/>
+      <c r="D641" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E641" s="4"/>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
@@ -15866,7 +16724,9 @@
       </c>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
-      <c r="D642" s="4"/>
+      <c r="D642" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E642" s="4"/>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
@@ -15875,7 +16735,9 @@
       </c>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
-      <c r="D643" s="4"/>
+      <c r="D643" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E643" s="4"/>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
@@ -15884,7 +16746,9 @@
       </c>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
-      <c r="D644" s="4"/>
+      <c r="D644" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E644" s="4"/>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
@@ -15893,7 +16757,9 @@
       </c>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
-      <c r="D645" s="4"/>
+      <c r="D645" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E645" s="4"/>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -15902,7 +16768,9 @@
       </c>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
-      <c r="D646" s="4"/>
+      <c r="D646" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E646" s="4"/>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
@@ -15911,7 +16779,9 @@
       </c>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
-      <c r="D647" s="4"/>
+      <c r="D647" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E647" s="4"/>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -15920,7 +16790,9 @@
       </c>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
-      <c r="D648" s="4"/>
+      <c r="D648" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E648" s="4"/>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
@@ -15929,7 +16801,9 @@
       </c>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
-      <c r="D649" s="4"/>
+      <c r="D649" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E649" s="4"/>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
@@ -15938,7 +16812,9 @@
       </c>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
-      <c r="D650" s="4"/>
+      <c r="D650" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E650" s="4"/>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
@@ -15947,7 +16823,9 @@
       </c>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
-      <c r="D651" s="4"/>
+      <c r="D651" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E651" s="4"/>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
@@ -15956,7 +16834,9 @@
       </c>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
-      <c r="D652" s="4"/>
+      <c r="D652" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E652" s="4"/>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
@@ -15965,7 +16845,9 @@
       </c>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
-      <c r="D653" s="4"/>
+      <c r="D653" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E653" s="4"/>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -15974,7 +16856,9 @@
       </c>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
-      <c r="D654" s="4"/>
+      <c r="D654" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E654" s="4"/>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -15983,7 +16867,9 @@
       </c>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
-      <c r="D655" s="4"/>
+      <c r="D655" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E655" s="4"/>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
@@ -15992,7 +16878,9 @@
       </c>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
-      <c r="D656" s="4"/>
+      <c r="D656" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E656" s="4"/>
     </row>
     <row r="657" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16001,7 +16889,9 @@
       </c>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
-      <c r="D657" s="4"/>
+      <c r="D657" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E657" s="4"/>
     </row>
     <row r="658" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16010,7 +16900,9 @@
       </c>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
-      <c r="D658" s="4"/>
+      <c r="D658" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E658" s="4"/>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
@@ -16019,7 +16911,9 @@
       </c>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
-      <c r="D659" s="4"/>
+      <c r="D659" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E659" s="4"/>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -16028,7 +16922,9 @@
       </c>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
-      <c r="D660" s="4"/>
+      <c r="D660" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E660" s="4"/>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
@@ -16037,7 +16933,9 @@
       </c>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
-      <c r="D661" s="4"/>
+      <c r="D661" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E661" s="4"/>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
@@ -16046,7 +16944,9 @@
       </c>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
-      <c r="D662" s="4"/>
+      <c r="D662" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E662" s="4"/>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
@@ -16055,7 +16955,9 @@
       </c>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
-      <c r="D663" s="4"/>
+      <c r="D663" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E663" s="4"/>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
@@ -16064,7 +16966,9 @@
       </c>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
-      <c r="D664" s="4"/>
+      <c r="D664" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E664" s="4"/>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -16073,7 +16977,9 @@
       </c>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
-      <c r="D665" s="4"/>
+      <c r="D665" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E665" s="4"/>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
@@ -16082,7 +16988,9 @@
       </c>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
-      <c r="D666" s="4"/>
+      <c r="D666" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E666" s="4"/>
     </row>
     <row r="667" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16091,7 +16999,9 @@
       </c>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
-      <c r="D667" s="4"/>
+      <c r="D667" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E667" s="4"/>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
@@ -16100,7 +17010,9 @@
       </c>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
-      <c r="D668" s="4"/>
+      <c r="D668" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E668" s="4"/>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
@@ -16109,7 +17021,9 @@
       </c>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
-      <c r="D669" s="4"/>
+      <c r="D669" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E669" s="4"/>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
@@ -16118,7 +17032,9 @@
       </c>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
-      <c r="D670" s="4"/>
+      <c r="D670" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E670" s="4"/>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
@@ -16127,7 +17043,9 @@
       </c>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
-      <c r="D671" s="4"/>
+      <c r="D671" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E671" s="4"/>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -16136,7 +17054,9 @@
       </c>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
-      <c r="D672" s="4"/>
+      <c r="D672" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E672" s="4"/>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -16145,7 +17065,9 @@
       </c>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
-      <c r="D673" s="4"/>
+      <c r="D673" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E673" s="4"/>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
@@ -16154,7 +17076,9 @@
       </c>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
-      <c r="D674" s="4"/>
+      <c r="D674" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E674" s="4"/>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
@@ -16163,7 +17087,9 @@
       </c>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
-      <c r="D675" s="4"/>
+      <c r="D675" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E675" s="4"/>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
@@ -16172,7 +17098,9 @@
       </c>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
-      <c r="D676" s="4"/>
+      <c r="D676" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E676" s="4"/>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
@@ -16181,7 +17109,9 @@
       </c>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
-      <c r="D677" s="4"/>
+      <c r="D677" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E677" s="4"/>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
@@ -16190,7 +17120,9 @@
       </c>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
-      <c r="D678" s="4"/>
+      <c r="D678" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E678" s="4"/>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
@@ -16199,7 +17131,9 @@
       </c>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
-      <c r="D679" s="4"/>
+      <c r="D679" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E679" s="4"/>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
@@ -16208,7 +17142,9 @@
       </c>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
-      <c r="D680" s="4"/>
+      <c r="D680" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E680" s="4"/>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
@@ -16217,7 +17153,9 @@
       </c>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
-      <c r="D681" s="4"/>
+      <c r="D681" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E681" s="4"/>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
@@ -16226,7 +17164,9 @@
       </c>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
-      <c r="D682" s="4"/>
+      <c r="D682" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E682" s="4"/>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
@@ -16235,7 +17175,9 @@
       </c>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
-      <c r="D683" s="4"/>
+      <c r="D683" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E683" s="4"/>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
@@ -16244,7 +17186,9 @@
       </c>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
-      <c r="D684" s="4"/>
+      <c r="D684" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E684" s="4"/>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
@@ -16253,7 +17197,9 @@
       </c>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
-      <c r="D685" s="4"/>
+      <c r="D685" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E685" s="4"/>
     </row>
     <row r="686" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16262,7 +17208,9 @@
       </c>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
-      <c r="D686" s="4"/>
+      <c r="D686" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E686" s="4"/>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
@@ -16271,7 +17219,9 @@
       </c>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
-      <c r="D687" s="4"/>
+      <c r="D687" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E687" s="4"/>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
@@ -16280,7 +17230,9 @@
       </c>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
-      <c r="D688" s="4"/>
+      <c r="D688" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E688" s="4"/>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
@@ -16289,7 +17241,9 @@
       </c>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
-      <c r="D689" s="4"/>
+      <c r="D689" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E689" s="4"/>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
@@ -16298,7 +17252,9 @@
       </c>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
-      <c r="D690" s="4"/>
+      <c r="D690" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E690" s="4"/>
     </row>
     <row r="691" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16307,7 +17263,9 @@
       </c>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
-      <c r="D691" s="4"/>
+      <c r="D691" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E691" s="4"/>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
@@ -16316,7 +17274,9 @@
       </c>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
-      <c r="D692" s="4"/>
+      <c r="D692" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E692" s="4"/>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
@@ -16325,7 +17285,9 @@
       </c>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
-      <c r="D693" s="4"/>
+      <c r="D693" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E693" s="4"/>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
@@ -16334,7 +17296,9 @@
       </c>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
-      <c r="D694" s="4"/>
+      <c r="D694" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E694" s="4"/>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
@@ -16343,7 +17307,9 @@
       </c>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
-      <c r="D695" s="4"/>
+      <c r="D695" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E695" s="4"/>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
@@ -16352,7 +17318,9 @@
       </c>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
-      <c r="D696" s="4"/>
+      <c r="D696" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E696" s="4"/>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
@@ -16361,7 +17329,9 @@
       </c>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
-      <c r="D697" s="4"/>
+      <c r="D697" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E697" s="4"/>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
@@ -16370,7 +17340,9 @@
       </c>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
-      <c r="D698" s="4"/>
+      <c r="D698" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E698" s="4"/>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
@@ -16379,7 +17351,9 @@
       </c>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
-      <c r="D699" s="4"/>
+      <c r="D699" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E699" s="4"/>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
@@ -16388,7 +17362,9 @@
       </c>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
-      <c r="D700" s="4"/>
+      <c r="D700" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E700" s="4"/>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
@@ -16397,7 +17373,9 @@
       </c>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
-      <c r="D701" s="4"/>
+      <c r="D701" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E701" s="4"/>
     </row>
     <row r="702" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16406,7 +17384,9 @@
       </c>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
-      <c r="D702" s="4"/>
+      <c r="D702" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E702" s="4"/>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
@@ -16415,7 +17395,9 @@
       </c>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
-      <c r="D703" s="4"/>
+      <c r="D703" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E703" s="4"/>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
@@ -16424,7 +17406,9 @@
       </c>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
-      <c r="D704" s="4"/>
+      <c r="D704" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E704" s="4"/>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
@@ -16433,7 +17417,9 @@
       </c>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
-      <c r="D705" s="4"/>
+      <c r="D705" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E705" s="4"/>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
@@ -16442,7 +17428,9 @@
       </c>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
-      <c r="D706" s="4"/>
+      <c r="D706" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E706" s="4"/>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
@@ -16451,7 +17439,9 @@
       </c>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
-      <c r="D707" s="4"/>
+      <c r="D707" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E707" s="4"/>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
@@ -16460,7 +17450,9 @@
       </c>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
-      <c r="D708" s="4"/>
+      <c r="D708" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E708" s="4"/>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
@@ -16469,7 +17461,9 @@
       </c>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
-      <c r="D709" s="4"/>
+      <c r="D709" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E709" s="4"/>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
@@ -16478,7 +17472,9 @@
       </c>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
-      <c r="D710" s="4"/>
+      <c r="D710" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E710" s="4"/>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
@@ -16487,7 +17483,9 @@
       </c>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
-      <c r="D711" s="4"/>
+      <c r="D711" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E711" s="4"/>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
@@ -16496,7 +17494,9 @@
       </c>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
-      <c r="D712" s="4"/>
+      <c r="D712" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E712" s="4"/>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
@@ -16505,7 +17505,9 @@
       </c>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
-      <c r="D713" s="4"/>
+      <c r="D713" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E713" s="4"/>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
@@ -16514,7 +17516,9 @@
       </c>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
-      <c r="D714" s="4"/>
+      <c r="D714" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E714" s="4"/>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
@@ -16523,7 +17527,9 @@
       </c>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
-      <c r="D715" s="4"/>
+      <c r="D715" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E715" s="4"/>
     </row>
     <row r="716" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16532,7 +17538,9 @@
       </c>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
-      <c r="D716" s="4"/>
+      <c r="D716" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E716" s="4"/>
     </row>
     <row r="717" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16541,7 +17549,9 @@
       </c>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
-      <c r="D717" s="4"/>
+      <c r="D717" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E717" s="4"/>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
@@ -16550,7 +17560,9 @@
       </c>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
-      <c r="D718" s="4"/>
+      <c r="D718" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E718" s="4"/>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
@@ -16559,7 +17571,9 @@
       </c>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
-      <c r="D719" s="4"/>
+      <c r="D719" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E719" s="4"/>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
@@ -16568,7 +17582,9 @@
       </c>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
-      <c r="D720" s="4"/>
+      <c r="D720" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E720" s="4"/>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
@@ -16577,7 +17593,9 @@
       </c>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
-      <c r="D721" s="4"/>
+      <c r="D721" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E721" s="4"/>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
@@ -16586,7 +17604,9 @@
       </c>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
-      <c r="D722" s="4"/>
+      <c r="D722" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E722" s="4"/>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
@@ -16595,7 +17615,9 @@
       </c>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
-      <c r="D723" s="4"/>
+      <c r="D723" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E723" s="4"/>
     </row>
     <row r="724" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16604,7 +17626,9 @@
       </c>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
-      <c r="D724" s="4"/>
+      <c r="D724" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E724" s="4"/>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
@@ -16613,7 +17637,9 @@
       </c>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
-      <c r="D725" s="4"/>
+      <c r="D725" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E725" s="4"/>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
@@ -16622,7 +17648,9 @@
       </c>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
-      <c r="D726" s="4"/>
+      <c r="D726" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E726" s="4"/>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
@@ -16631,7 +17659,9 @@
       </c>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
-      <c r="D727" s="4"/>
+      <c r="D727" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E727" s="4"/>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
@@ -16640,7 +17670,9 @@
       </c>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
-      <c r="D728" s="4"/>
+      <c r="D728" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E728" s="4"/>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
@@ -16649,7 +17681,9 @@
       </c>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
-      <c r="D729" s="4"/>
+      <c r="D729" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E729" s="4"/>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
@@ -16658,7 +17692,9 @@
       </c>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
-      <c r="D730" s="4"/>
+      <c r="D730" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E730" s="4"/>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
@@ -16667,7 +17703,9 @@
       </c>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
-      <c r="D731" s="4"/>
+      <c r="D731" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E731" s="4"/>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
@@ -16676,7 +17714,9 @@
       </c>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
-      <c r="D732" s="4"/>
+      <c r="D732" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E732" s="4"/>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
@@ -16685,7 +17725,9 @@
       </c>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
-      <c r="D733" s="4"/>
+      <c r="D733" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E733" s="4"/>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
@@ -16694,7 +17736,9 @@
       </c>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
-      <c r="D734" s="4"/>
+      <c r="D734" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E734" s="4"/>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
@@ -16703,7 +17747,9 @@
       </c>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
-      <c r="D735" s="4"/>
+      <c r="D735" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E735" s="4"/>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
@@ -16712,7 +17758,9 @@
       </c>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
-      <c r="D736" s="4"/>
+      <c r="D736" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E736" s="4"/>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
@@ -16721,7 +17769,9 @@
       </c>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
-      <c r="D737" s="4"/>
+      <c r="D737" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E737" s="4"/>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
@@ -16730,7 +17780,9 @@
       </c>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
-      <c r="D738" s="4"/>
+      <c r="D738" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E738" s="4"/>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
@@ -16739,7 +17791,9 @@
       </c>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
-      <c r="D739" s="4"/>
+      <c r="D739" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E739" s="4"/>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
@@ -16748,7 +17802,9 @@
       </c>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
-      <c r="D740" s="4"/>
+      <c r="D740" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E740" s="4"/>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
@@ -16757,7 +17813,9 @@
       </c>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
-      <c r="D741" s="4"/>
+      <c r="D741" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E741" s="4"/>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
@@ -16766,7 +17824,9 @@
       </c>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
-      <c r="D742" s="4"/>
+      <c r="D742" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E742" s="4"/>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
@@ -16775,7 +17835,9 @@
       </c>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
-      <c r="D743" s="4"/>
+      <c r="D743" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E743" s="4"/>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
@@ -16784,7 +17846,9 @@
       </c>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
-      <c r="D744" s="4"/>
+      <c r="D744" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E744" s="4"/>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
@@ -16793,7 +17857,9 @@
       </c>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
-      <c r="D745" s="4"/>
+      <c r="D745" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E745" s="4"/>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
@@ -16802,7 +17868,9 @@
       </c>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
-      <c r="D746" s="4"/>
+      <c r="D746" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E746" s="4"/>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
@@ -16811,7 +17879,9 @@
       </c>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
-      <c r="D747" s="4"/>
+      <c r="D747" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E747" s="4"/>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
@@ -16820,7 +17890,9 @@
       </c>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
-      <c r="D748" s="4"/>
+      <c r="D748" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E748" s="4"/>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
@@ -16829,7 +17901,9 @@
       </c>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
-      <c r="D749" s="4"/>
+      <c r="D749" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E749" s="4"/>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
@@ -16838,7 +17912,9 @@
       </c>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
-      <c r="D750" s="4"/>
+      <c r="D750" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E750" s="4"/>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
@@ -16847,7 +17923,9 @@
       </c>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
-      <c r="D751" s="4"/>
+      <c r="D751" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E751" s="4"/>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
@@ -16856,7 +17934,9 @@
       </c>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
-      <c r="D752" s="4"/>
+      <c r="D752" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E752" s="4"/>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
@@ -16865,7 +17945,9 @@
       </c>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
-      <c r="D753" s="4"/>
+      <c r="D753" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E753" s="4"/>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
@@ -16874,7 +17956,9 @@
       </c>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
-      <c r="D754" s="4"/>
+      <c r="D754" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E754" s="4"/>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
@@ -16883,7 +17967,9 @@
       </c>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
-      <c r="D755" s="4"/>
+      <c r="D755" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E755" s="4"/>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
@@ -16892,7 +17978,9 @@
       </c>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
-      <c r="D756" s="4"/>
+      <c r="D756" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E756" s="4"/>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
@@ -16901,7 +17989,9 @@
       </c>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
-      <c r="D757" s="4"/>
+      <c r="D757" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E757" s="4"/>
     </row>
     <row r="758" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16910,7 +18000,9 @@
       </c>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
-      <c r="D758" s="4"/>
+      <c r="D758" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E758" s="4"/>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
@@ -16919,7 +18011,9 @@
       </c>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
-      <c r="D759" s="4"/>
+      <c r="D759" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E759" s="4"/>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
@@ -16928,7 +18022,9 @@
       </c>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
-      <c r="D760" s="4"/>
+      <c r="D760" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E760" s="4"/>
     </row>
     <row r="761" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16937,7 +18033,9 @@
       </c>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
-      <c r="D761" s="4"/>
+      <c r="D761" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E761" s="4"/>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
@@ -16946,7 +18044,9 @@
       </c>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
-      <c r="D762" s="4"/>
+      <c r="D762" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E762" s="4"/>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
@@ -16955,7 +18055,9 @@
       </c>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
-      <c r="D763" s="4"/>
+      <c r="D763" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E763" s="4"/>
     </row>
     <row r="764" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16964,7 +18066,9 @@
       </c>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
-      <c r="D764" s="4"/>
+      <c r="D764" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E764" s="4"/>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
@@ -16973,7 +18077,9 @@
       </c>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
-      <c r="D765" s="4"/>
+      <c r="D765" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E765" s="4"/>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
@@ -16982,7 +18088,9 @@
       </c>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
-      <c r="D766" s="4"/>
+      <c r="D766" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E766" s="4"/>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
@@ -16991,7 +18099,9 @@
       </c>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
-      <c r="D767" s="4"/>
+      <c r="D767" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E767" s="4"/>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
@@ -17000,7 +18110,9 @@
       </c>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
-      <c r="D768" s="4"/>
+      <c r="D768" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E768" s="4"/>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
@@ -17009,7 +18121,9 @@
       </c>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
-      <c r="D769" s="4"/>
+      <c r="D769" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E769" s="4"/>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
@@ -17018,7 +18132,9 @@
       </c>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
-      <c r="D770" s="4"/>
+      <c r="D770" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E770" s="4"/>
     </row>
     <row r="771" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17027,7 +18143,9 @@
       </c>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
-      <c r="D771" s="4"/>
+      <c r="D771" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E771" s="4"/>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
@@ -17036,7 +18154,9 @@
       </c>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
-      <c r="D772" s="4"/>
+      <c r="D772" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E772" s="4"/>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
@@ -17045,7 +18165,9 @@
       </c>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
-      <c r="D773" s="4"/>
+      <c r="D773" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E773" s="4"/>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
@@ -17054,7 +18176,9 @@
       </c>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
-      <c r="D774" s="4"/>
+      <c r="D774" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E774" s="4"/>
     </row>
     <row r="775" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17063,7 +18187,9 @@
       </c>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
-      <c r="D775" s="4"/>
+      <c r="D775" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E775" s="4"/>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
@@ -17072,7 +18198,9 @@
       </c>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
-      <c r="D776" s="4"/>
+      <c r="D776" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E776" s="4"/>
     </row>
     <row r="777" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17081,7 +18209,9 @@
       </c>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
-      <c r="D777" s="4"/>
+      <c r="D777" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E777" s="4"/>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
@@ -17090,7 +18220,9 @@
       </c>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
-      <c r="D778" s="4"/>
+      <c r="D778" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E778" s="4"/>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
@@ -17099,7 +18231,9 @@
       </c>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
-      <c r="D779" s="4"/>
+      <c r="D779" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E779" s="4"/>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
@@ -17108,7 +18242,9 @@
       </c>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
-      <c r="D780" s="4"/>
+      <c r="D780" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E780" s="4"/>
     </row>
     <row r="781" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17117,7 +18253,9 @@
       </c>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
-      <c r="D781" s="4"/>
+      <c r="D781" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E781" s="4"/>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
@@ -17126,7 +18264,9 @@
       </c>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
-      <c r="D782" s="4"/>
+      <c r="D782" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E782" s="4"/>
     </row>
     <row r="783" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17135,7 +18275,9 @@
       </c>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
-      <c r="D783" s="4"/>
+      <c r="D783" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E783" s="4"/>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
@@ -17144,7 +18286,9 @@
       </c>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
-      <c r="D784" s="4"/>
+      <c r="D784" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E784" s="4"/>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
@@ -17153,7 +18297,9 @@
       </c>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
-      <c r="D785" s="4"/>
+      <c r="D785" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E785" s="4"/>
     </row>
     <row r="786" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17162,7 +18308,9 @@
       </c>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
-      <c r="D786" s="4"/>
+      <c r="D786" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E786" s="4"/>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
@@ -17171,7 +18319,9 @@
       </c>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
-      <c r="D787" s="4"/>
+      <c r="D787" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E787" s="4"/>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
@@ -17180,7 +18330,9 @@
       </c>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
-      <c r="D788" s="4"/>
+      <c r="D788" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E788" s="4"/>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
@@ -17189,7 +18341,9 @@
       </c>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
-      <c r="D789" s="4"/>
+      <c r="D789" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E789" s="4"/>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
@@ -17198,7 +18352,9 @@
       </c>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
-      <c r="D790" s="4"/>
+      <c r="D790" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E790" s="4"/>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
@@ -17207,7 +18363,9 @@
       </c>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
-      <c r="D791" s="4"/>
+      <c r="D791" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E791" s="4"/>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
@@ -17216,7 +18374,9 @@
       </c>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
-      <c r="D792" s="4"/>
+      <c r="D792" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E792" s="4"/>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
@@ -17225,7 +18385,9 @@
       </c>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
-      <c r="D793" s="4"/>
+      <c r="D793" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E793" s="4"/>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
@@ -17234,7 +18396,9 @@
       </c>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
-      <c r="D794" s="4"/>
+      <c r="D794" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E794" s="4"/>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
@@ -17243,7 +18407,9 @@
       </c>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
-      <c r="D795" s="4"/>
+      <c r="D795" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E795" s="4"/>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
@@ -17252,7 +18418,9 @@
       </c>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
-      <c r="D796" s="4"/>
+      <c r="D796" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E796" s="4"/>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
@@ -17261,7 +18429,9 @@
       </c>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
-      <c r="D797" s="4"/>
+      <c r="D797" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E797" s="4"/>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
@@ -17270,7 +18440,9 @@
       </c>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
-      <c r="D798" s="4"/>
+      <c r="D798" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E798" s="4"/>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
@@ -17279,7 +18451,9 @@
       </c>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
-      <c r="D799" s="4"/>
+      <c r="D799" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E799" s="4"/>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
@@ -18069,7 +19243,9 @@
       </c>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
-      <c r="D871" s="4"/>
+      <c r="D871" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E871" s="4"/>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
@@ -18078,7 +19254,9 @@
       </c>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
-      <c r="D872" s="4"/>
+      <c r="D872" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E872" s="4"/>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
@@ -18087,7 +19265,9 @@
       </c>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
-      <c r="D873" s="4"/>
+      <c r="D873" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E873" s="4"/>
     </row>
     <row r="874" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18096,7 +19276,9 @@
       </c>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
-      <c r="D874" s="4"/>
+      <c r="D874" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E874" s="4"/>
     </row>
     <row r="875" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18105,7 +19287,9 @@
       </c>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
-      <c r="D875" s="4"/>
+      <c r="D875" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E875" s="4"/>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
@@ -18114,7 +19298,9 @@
       </c>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
-      <c r="D876" s="4"/>
+      <c r="D876" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E876" s="4"/>
     </row>
     <row r="877" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18123,7 +19309,9 @@
       </c>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
-      <c r="D877" s="4"/>
+      <c r="D877" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E877" s="4"/>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
@@ -18132,7 +19320,9 @@
       </c>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
-      <c r="D878" s="4"/>
+      <c r="D878" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E878" s="4"/>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
@@ -18141,7 +19331,9 @@
       </c>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
-      <c r="D879" s="4"/>
+      <c r="D879" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E879" s="4"/>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
@@ -18150,7 +19342,9 @@
       </c>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
-      <c r="D880" s="4"/>
+      <c r="D880" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E880" s="4"/>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
@@ -18159,7 +19353,9 @@
       </c>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
-      <c r="D881" s="4"/>
+      <c r="D881" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E881" s="4"/>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
@@ -18168,7 +19364,9 @@
       </c>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
-      <c r="D882" s="4"/>
+      <c r="D882" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E882" s="4"/>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
@@ -18177,7 +19375,9 @@
       </c>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
-      <c r="D883" s="4"/>
+      <c r="D883" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E883" s="4"/>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
@@ -18186,7 +19386,9 @@
       </c>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
-      <c r="D884" s="4"/>
+      <c r="D884" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E884" s="4"/>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
@@ -18195,7 +19397,9 @@
       </c>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
-      <c r="D885" s="4"/>
+      <c r="D885" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E885" s="4"/>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
@@ -18204,7 +19408,9 @@
       </c>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
-      <c r="D886" s="4"/>
+      <c r="D886" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E886" s="4"/>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
@@ -18213,7 +19419,9 @@
       </c>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
-      <c r="D887" s="4"/>
+      <c r="D887" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E887" s="4"/>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
@@ -18222,7 +19430,9 @@
       </c>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
-      <c r="D888" s="4"/>
+      <c r="D888" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E888" s="4"/>
     </row>
     <row r="889" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18231,7 +19441,9 @@
       </c>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
-      <c r="D889" s="4"/>
+      <c r="D889" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E889" s="4"/>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
@@ -18240,7 +19452,9 @@
       </c>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
-      <c r="D890" s="4"/>
+      <c r="D890" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E890" s="4"/>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
@@ -18249,7 +19463,9 @@
       </c>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
-      <c r="D891" s="4"/>
+      <c r="D891" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E891" s="4"/>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.25">
@@ -18258,7 +19474,9 @@
       </c>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
-      <c r="D892" s="4"/>
+      <c r="D892" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E892" s="4"/>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
@@ -18267,7 +19485,9 @@
       </c>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
-      <c r="D893" s="4"/>
+      <c r="D893" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E893" s="4"/>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
@@ -18276,7 +19496,9 @@
       </c>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
-      <c r="D894" s="4"/>
+      <c r="D894" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E894" s="4"/>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
@@ -18285,7 +19507,9 @@
       </c>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
-      <c r="D895" s="4"/>
+      <c r="D895" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E895" s="4"/>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
@@ -18294,7 +19518,9 @@
       </c>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
-      <c r="D896" s="4"/>
+      <c r="D896" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E896" s="4"/>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
@@ -18303,7 +19529,9 @@
       </c>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
-      <c r="D897" s="4"/>
+      <c r="D897" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E897" s="4"/>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
@@ -18312,7 +19540,9 @@
       </c>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
-      <c r="D898" s="4"/>
+      <c r="D898" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E898" s="4"/>
     </row>
     <row r="899" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18321,7 +19551,9 @@
       </c>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
-      <c r="D899" s="4"/>
+      <c r="D899" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E899" s="4"/>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
@@ -18330,7 +19562,9 @@
       </c>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
-      <c r="D900" s="4"/>
+      <c r="D900" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E900" s="4"/>
     </row>
     <row r="901" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18339,7 +19573,9 @@
       </c>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
-      <c r="D901" s="4"/>
+      <c r="D901" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E901" s="4"/>
     </row>
     <row r="902" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18348,7 +19584,9 @@
       </c>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
-      <c r="D902" s="4"/>
+      <c r="D902" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E902" s="4"/>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
@@ -18357,7 +19595,9 @@
       </c>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
-      <c r="D903" s="4"/>
+      <c r="D903" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E903" s="4"/>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
@@ -18366,7 +19606,9 @@
       </c>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
-      <c r="D904" s="4"/>
+      <c r="D904" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E904" s="4"/>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
@@ -18375,7 +19617,9 @@
       </c>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
-      <c r="D905" s="4"/>
+      <c r="D905" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E905" s="4"/>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
@@ -18384,7 +19628,9 @@
       </c>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
-      <c r="D906" s="4"/>
+      <c r="D906" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E906" s="4"/>
     </row>
     <row r="907" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18393,7 +19639,9 @@
       </c>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
-      <c r="D907" s="4"/>
+      <c r="D907" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E907" s="4"/>
     </row>
     <row r="908" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18402,7 +19650,9 @@
       </c>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
-      <c r="D908" s="4"/>
+      <c r="D908" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E908" s="4"/>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
@@ -18411,7 +19661,9 @@
       </c>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
-      <c r="D909" s="4"/>
+      <c r="D909" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E909" s="4"/>
     </row>
     <row r="910" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18420,7 +19672,9 @@
       </c>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
-      <c r="D910" s="4"/>
+      <c r="D910" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E910" s="4"/>
     </row>
     <row r="911" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18429,7 +19683,9 @@
       </c>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
-      <c r="D911" s="4"/>
+      <c r="D911" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E911" s="4"/>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
@@ -18438,7 +19694,9 @@
       </c>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
-      <c r="D912" s="4"/>
+      <c r="D912" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E912" s="4"/>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
@@ -18447,7 +19705,9 @@
       </c>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
-      <c r="D913" s="4"/>
+      <c r="D913" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E913" s="4"/>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
@@ -18456,7 +19716,9 @@
       </c>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
-      <c r="D914" s="4"/>
+      <c r="D914" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E914" s="4"/>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
@@ -18465,7 +19727,9 @@
       </c>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
-      <c r="D915" s="4"/>
+      <c r="D915" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E915" s="4"/>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
@@ -18474,7 +19738,9 @@
       </c>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
-      <c r="D916" s="4"/>
+      <c r="D916" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E916" s="4"/>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
@@ -18483,7 +19749,9 @@
       </c>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
-      <c r="D917" s="4"/>
+      <c r="D917" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E917" s="4"/>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
@@ -18492,7 +19760,9 @@
       </c>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
-      <c r="D918" s="4"/>
+      <c r="D918" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E918" s="4"/>
     </row>
     <row r="919" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18501,7 +19771,9 @@
       </c>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
-      <c r="D919" s="4"/>
+      <c r="D919" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E919" s="4"/>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
@@ -18510,7 +19782,9 @@
       </c>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
-      <c r="D920" s="4"/>
+      <c r="D920" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E920" s="4"/>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
@@ -18519,7 +19793,9 @@
       </c>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
-      <c r="D921" s="4"/>
+      <c r="D921" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E921" s="4"/>
     </row>
     <row r="922" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18528,7 +19804,9 @@
       </c>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
-      <c r="D922" s="4"/>
+      <c r="D922" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E922" s="4"/>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
@@ -18537,7 +19815,9 @@
       </c>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
-      <c r="D923" s="4"/>
+      <c r="D923" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E923" s="4"/>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
@@ -18546,7 +19826,9 @@
       </c>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
-      <c r="D924" s="4"/>
+      <c r="D924" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E924" s="4"/>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
@@ -18555,7 +19837,9 @@
       </c>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
-      <c r="D925" s="4"/>
+      <c r="D925" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E925" s="4"/>
     </row>
     <row r="926" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18564,7 +19848,9 @@
       </c>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
-      <c r="D926" s="4"/>
+      <c r="D926" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E926" s="4"/>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
@@ -18573,7 +19859,9 @@
       </c>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
-      <c r="D927" s="4"/>
+      <c r="D927" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E927" s="4"/>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.25">
@@ -18582,7 +19870,9 @@
       </c>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
-      <c r="D928" s="4"/>
+      <c r="D928" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E928" s="4"/>
     </row>
     <row r="929" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18591,7 +19881,9 @@
       </c>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
-      <c r="D929" s="4"/>
+      <c r="D929" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E929" s="4"/>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
@@ -18600,7 +19892,9 @@
       </c>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
-      <c r="D930" s="4"/>
+      <c r="D930" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E930" s="4"/>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
@@ -18609,7 +19903,9 @@
       </c>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
-      <c r="D931" s="4"/>
+      <c r="D931" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E931" s="4"/>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
@@ -18618,7 +19914,9 @@
       </c>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
-      <c r="D932" s="4"/>
+      <c r="D932" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E932" s="4"/>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
@@ -18627,7 +19925,9 @@
       </c>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
-      <c r="D933" s="4"/>
+      <c r="D933" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E933" s="4"/>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
@@ -18636,7 +19936,9 @@
       </c>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
-      <c r="D934" s="4"/>
+      <c r="D934" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E934" s="4"/>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
@@ -18645,7 +19947,9 @@
       </c>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
-      <c r="D935" s="4"/>
+      <c r="D935" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E935" s="4"/>
     </row>
     <row r="936" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -18654,7 +19958,9 @@
       </c>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
-      <c r="D936" s="4"/>
+      <c r="D936" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E936" s="4"/>
     </row>
     <row r="937" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18663,7 +19969,9 @@
       </c>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
-      <c r="D937" s="4"/>
+      <c r="D937" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E937" s="4"/>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
@@ -18672,7 +19980,9 @@
       </c>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
-      <c r="D938" s="4"/>
+      <c r="D938" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E938" s="4"/>
     </row>
     <row r="939" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18681,7 +19991,9 @@
       </c>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
-      <c r="D939" s="4"/>
+      <c r="D939" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E939" s="4"/>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
@@ -18690,7 +20002,9 @@
       </c>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
-      <c r="D940" s="4"/>
+      <c r="D940" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E940" s="4"/>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
@@ -18699,7 +20013,9 @@
       </c>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
-      <c r="D941" s="4"/>
+      <c r="D941" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E941" s="4"/>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
@@ -18708,7 +20024,9 @@
       </c>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
-      <c r="D942" s="4"/>
+      <c r="D942" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E942" s="4"/>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
@@ -18717,7 +20035,9 @@
       </c>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
-      <c r="D943" s="4"/>
+      <c r="D943" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E943" s="4"/>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
@@ -18726,7 +20046,9 @@
       </c>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
-      <c r="D944" s="4"/>
+      <c r="D944" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E944" s="4"/>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
@@ -18735,7 +20057,9 @@
       </c>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
-      <c r="D945" s="4"/>
+      <c r="D945" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E945" s="4"/>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
@@ -18744,7 +20068,9 @@
       </c>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
-      <c r="D946" s="4"/>
+      <c r="D946" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E946" s="4"/>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
@@ -18753,7 +20079,9 @@
       </c>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
-      <c r="D947" s="4"/>
+      <c r="D947" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E947" s="4"/>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
@@ -18762,7 +20090,9 @@
       </c>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
-      <c r="D948" s="4"/>
+      <c r="D948" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E948" s="4"/>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
@@ -18771,7 +20101,9 @@
       </c>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
-      <c r="D949" s="4"/>
+      <c r="D949" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E949" s="4"/>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
@@ -18780,7 +20112,9 @@
       </c>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
-      <c r="D950" s="4"/>
+      <c r="D950" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E950" s="4"/>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
@@ -18789,7 +20123,9 @@
       </c>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
-      <c r="D951" s="4"/>
+      <c r="D951" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E951" s="4"/>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
@@ -18798,7 +20134,9 @@
       </c>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
-      <c r="D952" s="4"/>
+      <c r="D952" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E952" s="4"/>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
@@ -18807,7 +20145,9 @@
       </c>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
-      <c r="D953" s="4"/>
+      <c r="D953" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E953" s="4"/>
     </row>
     <row r="954" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18816,7 +20156,9 @@
       </c>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
-      <c r="D954" s="4"/>
+      <c r="D954" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E954" s="4"/>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
@@ -18825,7 +20167,9 @@
       </c>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
-      <c r="D955" s="4"/>
+      <c r="D955" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E955" s="4"/>
     </row>
     <row r="956" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -18834,7 +20178,9 @@
       </c>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
-      <c r="D956" s="4"/>
+      <c r="D956" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E956" s="4"/>
     </row>
     <row r="957" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18843,7 +20189,9 @@
       </c>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
-      <c r="D957" s="4"/>
+      <c r="D957" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E957" s="4"/>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.25">
@@ -18852,7 +20200,9 @@
       </c>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
-      <c r="D958" s="4"/>
+      <c r="D958" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E958" s="4"/>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.25">
@@ -18861,7 +20211,9 @@
       </c>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
-      <c r="D959" s="4"/>
+      <c r="D959" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E959" s="4"/>
     </row>
     <row r="960" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18870,7 +20222,9 @@
       </c>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
-      <c r="D960" s="4"/>
+      <c r="D960" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E960" s="4"/>
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.25">
@@ -18879,7 +20233,9 @@
       </c>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
-      <c r="D961" s="4"/>
+      <c r="D961" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E961" s="4"/>
     </row>
     <row r="962" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18888,7 +20244,9 @@
       </c>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
-      <c r="D962" s="4"/>
+      <c r="D962" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E962" s="4"/>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
@@ -18897,7 +20255,9 @@
       </c>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
-      <c r="D963" s="4"/>
+      <c r="D963" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E963" s="4"/>
     </row>
     <row r="964" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18906,7 +20266,9 @@
       </c>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
-      <c r="D964" s="4"/>
+      <c r="D964" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E964" s="4"/>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
@@ -18915,7 +20277,9 @@
       </c>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
-      <c r="D965" s="4"/>
+      <c r="D965" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E965" s="4"/>
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.25">
@@ -18924,7 +20288,9 @@
       </c>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
-      <c r="D966" s="4"/>
+      <c r="D966" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E966" s="4"/>
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.25">
@@ -18933,7 +20299,9 @@
       </c>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
-      <c r="D967" s="4"/>
+      <c r="D967" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E967" s="4"/>
     </row>
     <row r="968" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18942,7 +20310,9 @@
       </c>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
-      <c r="D968" s="4"/>
+      <c r="D968" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E968" s="4"/>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.25">
@@ -18951,7 +20321,9 @@
       </c>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
-      <c r="D969" s="4"/>
+      <c r="D969" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E969" s="4"/>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
@@ -18960,7 +20332,9 @@
       </c>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
-      <c r="D970" s="4"/>
+      <c r="D970" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E970" s="4"/>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
@@ -18969,7 +20343,9 @@
       </c>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
-      <c r="D971" s="4"/>
+      <c r="D971" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E971" s="4"/>
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.25">
@@ -18978,7 +20354,9 @@
       </c>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
-      <c r="D972" s="4"/>
+      <c r="D972" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E972" s="4"/>
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.25">
@@ -18987,7 +20365,9 @@
       </c>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
-      <c r="D973" s="4"/>
+      <c r="D973" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E973" s="4"/>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
@@ -18996,7 +20376,9 @@
       </c>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
-      <c r="D974" s="4"/>
+      <c r="D974" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E974" s="4"/>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
@@ -19005,7 +20387,9 @@
       </c>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
-      <c r="D975" s="4"/>
+      <c r="D975" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E975" s="4"/>
     </row>
     <row r="976" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19014,7 +20398,9 @@
       </c>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
-      <c r="D976" s="4"/>
+      <c r="D976" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E976" s="4"/>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
@@ -19023,7 +20409,9 @@
       </c>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
-      <c r="D977" s="4"/>
+      <c r="D977" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E977" s="4"/>
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
@@ -19032,7 +20420,9 @@
       </c>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
-      <c r="D978" s="4"/>
+      <c r="D978" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E978" s="4"/>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
@@ -19041,7 +20431,9 @@
       </c>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
-      <c r="D979" s="4"/>
+      <c r="D979" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E979" s="4"/>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
@@ -19050,7 +20442,9 @@
       </c>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
-      <c r="D980" s="4"/>
+      <c r="D980" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E980" s="4"/>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
@@ -19059,7 +20453,9 @@
       </c>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
-      <c r="D981" s="4"/>
+      <c r="D981" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E981" s="4"/>
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
@@ -19068,7 +20464,9 @@
       </c>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
-      <c r="D982" s="4"/>
+      <c r="D982" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E982" s="4"/>
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
@@ -19077,7 +20475,9 @@
       </c>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
-      <c r="D983" s="4"/>
+      <c r="D983" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E983" s="4"/>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
@@ -19086,7 +20486,9 @@
       </c>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
-      <c r="D984" s="4"/>
+      <c r="D984" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E984" s="4"/>
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
@@ -19095,7 +20497,9 @@
       </c>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
-      <c r="D985" s="4"/>
+      <c r="D985" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E985" s="4"/>
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
@@ -19104,7 +20508,9 @@
       </c>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
-      <c r="D986" s="4"/>
+      <c r="D986" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E986" s="4"/>
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
@@ -19113,7 +20519,9 @@
       </c>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
-      <c r="D987" s="4"/>
+      <c r="D987" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E987" s="4"/>
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
@@ -19122,7 +20530,9 @@
       </c>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
-      <c r="D988" s="4"/>
+      <c r="D988" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E988" s="4"/>
     </row>
     <row r="989" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19131,7 +20541,9 @@
       </c>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
-      <c r="D989" s="4"/>
+      <c r="D989" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E989" s="4"/>
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
@@ -19140,7 +20552,9 @@
       </c>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
-      <c r="D990" s="4"/>
+      <c r="D990" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E990" s="4"/>
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
@@ -19149,7 +20563,9 @@
       </c>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
-      <c r="D991" s="4"/>
+      <c r="D991" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E991" s="4"/>
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
@@ -19158,7 +20574,9 @@
       </c>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
-      <c r="D992" s="4"/>
+      <c r="D992" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E992" s="4"/>
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
@@ -19167,7 +20585,9 @@
       </c>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
-      <c r="D993" s="4"/>
+      <c r="D993" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E993" s="4"/>
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
@@ -19176,7 +20596,9 @@
       </c>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
-      <c r="D994" s="4"/>
+      <c r="D994" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E994" s="4"/>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
@@ -19185,7 +20607,9 @@
       </c>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
-      <c r="D995" s="4"/>
+      <c r="D995" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E995" s="4"/>
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
@@ -19194,7 +20618,9 @@
       </c>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
-      <c r="D996" s="4"/>
+      <c r="D996" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E996" s="4"/>
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
@@ -19203,7 +20629,9 @@
       </c>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
+      <c r="D997" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E997" s="4"/>
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
@@ -19212,7 +20640,9 @@
       </c>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
+      <c r="D998" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E998" s="4"/>
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.25">
@@ -19221,7 +20651,9 @@
       </c>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
-      <c r="D999" s="4"/>
+      <c r="D999" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E999" s="4"/>
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
@@ -19230,7 +20662,9 @@
       </c>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
+      <c r="D1000" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1000" s="4"/>
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
@@ -19239,7 +20673,9 @@
       </c>
       <c r="B1001" s="4"/>
       <c r="C1001" s="4"/>
-      <c r="D1001" s="4"/>
+      <c r="D1001" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1001" s="4"/>
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
@@ -19248,7 +20684,9 @@
       </c>
       <c r="B1002" s="4"/>
       <c r="C1002" s="4"/>
-      <c r="D1002" s="4"/>
+      <c r="D1002" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1002" s="4"/>
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
@@ -19257,7 +20695,9 @@
       </c>
       <c r="B1003" s="4"/>
       <c r="C1003" s="4"/>
-      <c r="D1003" s="4"/>
+      <c r="D1003" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1003" s="4"/>
     </row>
     <row r="1004" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19266,7 +20706,9 @@
       </c>
       <c r="B1004" s="4"/>
       <c r="C1004" s="4"/>
-      <c r="D1004" s="4"/>
+      <c r="D1004" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1004" s="4"/>
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
@@ -19275,7 +20717,9 @@
       </c>
       <c r="B1005" s="4"/>
       <c r="C1005" s="4"/>
-      <c r="D1005" s="4"/>
+      <c r="D1005" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1005" s="4"/>
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
@@ -19284,7 +20728,9 @@
       </c>
       <c r="B1006" s="4"/>
       <c r="C1006" s="4"/>
-      <c r="D1006" s="4"/>
+      <c r="D1006" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E1006" s="4"/>
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
@@ -19293,7 +20739,9 @@
       </c>
       <c r="B1007" s="4"/>
       <c r="C1007" s="4"/>
-      <c r="D1007" s="4"/>
+      <c r="D1007" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1007" s="4"/>
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
@@ -19302,7 +20750,9 @@
       </c>
       <c r="B1008" s="4"/>
       <c r="C1008" s="4"/>
-      <c r="D1008" s="4"/>
+      <c r="D1008" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1008" s="4"/>
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
@@ -19311,7 +20761,9 @@
       </c>
       <c r="B1009" s="4"/>
       <c r="C1009" s="4"/>
-      <c r="D1009" s="4"/>
+      <c r="D1009" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1009" s="4"/>
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
@@ -19320,7 +20772,9 @@
       </c>
       <c r="B1010" s="4"/>
       <c r="C1010" s="4"/>
-      <c r="D1010" s="4"/>
+      <c r="D1010" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1010" s="4"/>
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
@@ -19329,7 +20783,9 @@
       </c>
       <c r="B1011" s="4"/>
       <c r="C1011" s="4"/>
-      <c r="D1011" s="4"/>
+      <c r="D1011" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1011" s="4"/>
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
@@ -19338,7 +20794,9 @@
       </c>
       <c r="B1012" s="4"/>
       <c r="C1012" s="4"/>
-      <c r="D1012" s="4"/>
+      <c r="D1012" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1012" s="4"/>
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
@@ -19347,7 +20805,9 @@
       </c>
       <c r="B1013" s="4"/>
       <c r="C1013" s="4"/>
-      <c r="D1013" s="4"/>
+      <c r="D1013" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1013" s="4"/>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
@@ -19356,7 +20816,9 @@
       </c>
       <c r="B1014" s="4"/>
       <c r="C1014" s="4"/>
-      <c r="D1014" s="4"/>
+      <c r="D1014" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1014" s="4"/>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
@@ -19365,7 +20827,9 @@
       </c>
       <c r="B1015" s="4"/>
       <c r="C1015" s="4"/>
-      <c r="D1015" s="4"/>
+      <c r="D1015" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E1015" s="4"/>
     </row>
     <row r="1016" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19374,7 +20838,9 @@
       </c>
       <c r="B1016" s="4"/>
       <c r="C1016" s="4"/>
-      <c r="D1016" s="4"/>
+      <c r="D1016" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1016" s="4"/>
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
@@ -19383,7 +20849,9 @@
       </c>
       <c r="B1017" s="4"/>
       <c r="C1017" s="4"/>
-      <c r="D1017" s="4"/>
+      <c r="D1017" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1017" s="4"/>
     </row>
     <row r="1018" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19392,7 +20860,9 @@
       </c>
       <c r="B1018" s="4"/>
       <c r="C1018" s="4"/>
-      <c r="D1018" s="4"/>
+      <c r="D1018" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1018" s="4"/>
     </row>
     <row r="1019" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19401,7 +20871,9 @@
       </c>
       <c r="B1019" s="4"/>
       <c r="C1019" s="4"/>
-      <c r="D1019" s="4"/>
+      <c r="D1019" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1019" s="4"/>
     </row>
     <row r="1020" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19410,7 +20882,9 @@
       </c>
       <c r="B1020" s="4"/>
       <c r="C1020" s="4"/>
-      <c r="D1020" s="4"/>
+      <c r="D1020" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1020" s="4"/>
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
@@ -19419,7 +20893,9 @@
       </c>
       <c r="B1021" s="4"/>
       <c r="C1021" s="4"/>
-      <c r="D1021" s="4"/>
+      <c r="D1021" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1021" s="4"/>
     </row>
     <row r="1022" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19428,7 +20904,9 @@
       </c>
       <c r="B1022" s="4"/>
       <c r="C1022" s="4"/>
-      <c r="D1022" s="4"/>
+      <c r="D1022" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1022" s="4"/>
     </row>
     <row r="1023" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19437,7 +20915,9 @@
       </c>
       <c r="B1023" s="4"/>
       <c r="C1023" s="4"/>
-      <c r="D1023" s="4"/>
+      <c r="D1023" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1023" s="4"/>
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
@@ -19446,7 +20926,9 @@
       </c>
       <c r="B1024" s="4"/>
       <c r="C1024" s="4"/>
-      <c r="D1024" s="4"/>
+      <c r="D1024" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1024" s="4"/>
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
@@ -19455,7 +20937,9 @@
       </c>
       <c r="B1025" s="4"/>
       <c r="C1025" s="4"/>
-      <c r="D1025" s="4"/>
+      <c r="D1025" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1025" s="4"/>
     </row>
     <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
@@ -19464,7 +20948,9 @@
       </c>
       <c r="B1026" s="4"/>
       <c r="C1026" s="4"/>
-      <c r="D1026" s="4"/>
+      <c r="D1026" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1026" s="4"/>
     </row>
     <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
@@ -19473,7 +20959,9 @@
       </c>
       <c r="B1027" s="4"/>
       <c r="C1027" s="4"/>
-      <c r="D1027" s="4"/>
+      <c r="D1027" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E1027" s="4"/>
     </row>
     <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
@@ -19482,7 +20970,9 @@
       </c>
       <c r="B1028" s="4"/>
       <c r="C1028" s="4"/>
-      <c r="D1028" s="4"/>
+      <c r="D1028" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1028" s="4"/>
     </row>
     <row r="1029" spans="1:5" x14ac:dyDescent="0.25">
@@ -19491,7 +20981,9 @@
       </c>
       <c r="B1029" s="4"/>
       <c r="C1029" s="4"/>
-      <c r="D1029" s="4"/>
+      <c r="D1029" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1029" s="4"/>
     </row>
     <row r="1030" spans="1:5" x14ac:dyDescent="0.25">
@@ -19500,7 +20992,9 @@
       </c>
       <c r="B1030" s="4"/>
       <c r="C1030" s="4"/>
-      <c r="D1030" s="4"/>
+      <c r="D1030" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1030" s="4"/>
     </row>
     <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
@@ -19509,7 +21003,9 @@
       </c>
       <c r="B1031" s="4"/>
       <c r="C1031" s="4"/>
-      <c r="D1031" s="4"/>
+      <c r="D1031" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1031" s="4"/>
     </row>
     <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
@@ -19518,7 +21014,9 @@
       </c>
       <c r="B1032" s="4"/>
       <c r="C1032" s="4"/>
-      <c r="D1032" s="4"/>
+      <c r="D1032" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1032" s="4"/>
     </row>
     <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
@@ -19527,7 +21025,9 @@
       </c>
       <c r="B1033" s="4"/>
       <c r="C1033" s="4"/>
-      <c r="D1033" s="4"/>
+      <c r="D1033" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1033" s="4"/>
     </row>
     <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
@@ -19536,7 +21036,9 @@
       </c>
       <c r="B1034" s="4"/>
       <c r="C1034" s="4"/>
-      <c r="D1034" s="4"/>
+      <c r="D1034" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1034" s="4"/>
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
@@ -19545,7 +21047,9 @@
       </c>
       <c r="B1035" s="4"/>
       <c r="C1035" s="4"/>
-      <c r="D1035" s="4"/>
+      <c r="D1035" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1035" s="4"/>
     </row>
     <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
@@ -19554,7 +21058,9 @@
       </c>
       <c r="B1036" s="4"/>
       <c r="C1036" s="4"/>
-      <c r="D1036" s="4"/>
+      <c r="D1036" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1036" s="4"/>
     </row>
     <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
@@ -19563,7 +21069,9 @@
       </c>
       <c r="B1037" s="4"/>
       <c r="C1037" s="4"/>
-      <c r="D1037" s="4"/>
+      <c r="D1037" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1037" s="4"/>
     </row>
     <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
@@ -19572,7 +21080,9 @@
       </c>
       <c r="B1038" s="4"/>
       <c r="C1038" s="4"/>
-      <c r="D1038" s="4"/>
+      <c r="D1038" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1038" s="4"/>
     </row>
     <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
@@ -19581,7 +21091,9 @@
       </c>
       <c r="B1039" s="4"/>
       <c r="C1039" s="4"/>
-      <c r="D1039" s="4"/>
+      <c r="D1039" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1039" s="4"/>
     </row>
     <row r="1040" spans="1:5" x14ac:dyDescent="0.25">
@@ -19590,7 +21102,9 @@
       </c>
       <c r="B1040" s="4"/>
       <c r="C1040" s="4"/>
-      <c r="D1040" s="4"/>
+      <c r="D1040" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1040" s="4"/>
     </row>
     <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
@@ -19599,7 +21113,9 @@
       </c>
       <c r="B1041" s="4"/>
       <c r="C1041" s="4"/>
-      <c r="D1041" s="4"/>
+      <c r="D1041" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1041" s="4"/>
     </row>
     <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
@@ -19608,7 +21124,9 @@
       </c>
       <c r="B1042" s="4"/>
       <c r="C1042" s="4"/>
-      <c r="D1042" s="4"/>
+      <c r="D1042" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1042" s="4"/>
     </row>
     <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
@@ -19617,7 +21135,9 @@
       </c>
       <c r="B1043" s="4"/>
       <c r="C1043" s="4"/>
-      <c r="D1043" s="4"/>
+      <c r="D1043" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1043" s="4"/>
     </row>
     <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
@@ -19626,7 +21146,9 @@
       </c>
       <c r="B1044" s="4"/>
       <c r="C1044" s="4"/>
-      <c r="D1044" s="4"/>
+      <c r="D1044" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1044" s="4"/>
     </row>
     <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
@@ -19635,7 +21157,9 @@
       </c>
       <c r="B1045" s="4"/>
       <c r="C1045" s="4"/>
-      <c r="D1045" s="4"/>
+      <c r="D1045" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1045" s="4"/>
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
@@ -19644,7 +21168,9 @@
       </c>
       <c r="B1046" s="4"/>
       <c r="C1046" s="4"/>
-      <c r="D1046" s="4"/>
+      <c r="D1046" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1046" s="4"/>
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
@@ -19653,7 +21179,9 @@
       </c>
       <c r="B1047" s="4"/>
       <c r="C1047" s="4"/>
-      <c r="D1047" s="4"/>
+      <c r="D1047" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1047" s="4"/>
     </row>
     <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
@@ -19662,7 +21190,9 @@
       </c>
       <c r="B1048" s="4"/>
       <c r="C1048" s="4"/>
-      <c r="D1048" s="4"/>
+      <c r="D1048" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1048" s="4"/>
     </row>
     <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
@@ -19671,7 +21201,9 @@
       </c>
       <c r="B1049" s="4"/>
       <c r="C1049" s="4"/>
-      <c r="D1049" s="4"/>
+      <c r="D1049" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1049" s="4"/>
     </row>
     <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
@@ -19680,7 +21212,9 @@
       </c>
       <c r="B1050" s="4"/>
       <c r="C1050" s="4"/>
-      <c r="D1050" s="4"/>
+      <c r="D1050" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1050" s="4"/>
     </row>
     <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
@@ -19689,7 +21223,9 @@
       </c>
       <c r="B1051" s="4"/>
       <c r="C1051" s="4"/>
-      <c r="D1051" s="4"/>
+      <c r="D1051" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1051" s="4"/>
     </row>
     <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
@@ -19698,7 +21234,9 @@
       </c>
       <c r="B1052" s="4"/>
       <c r="C1052" s="4"/>
-      <c r="D1052" s="4"/>
+      <c r="D1052" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E1052" s="4"/>
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
@@ -19707,7 +21245,9 @@
       </c>
       <c r="B1053" s="4"/>
       <c r="C1053" s="4"/>
-      <c r="D1053" s="4"/>
+      <c r="D1053" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1053" s="4"/>
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
@@ -19716,7 +21256,9 @@
       </c>
       <c r="B1054" s="4"/>
       <c r="C1054" s="4"/>
-      <c r="D1054" s="4"/>
+      <c r="D1054" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1054" s="4"/>
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
@@ -19725,7 +21267,9 @@
       </c>
       <c r="B1055" s="4"/>
       <c r="C1055" s="4"/>
-      <c r="D1055" s="4"/>
+      <c r="D1055" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1055" s="4"/>
     </row>
     <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
@@ -19734,7 +21278,9 @@
       </c>
       <c r="B1056" s="4"/>
       <c r="C1056" s="4"/>
-      <c r="D1056" s="4"/>
+      <c r="D1056" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1056" s="4"/>
     </row>
     <row r="1057" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19743,7 +21289,9 @@
       </c>
       <c r="B1057" s="4"/>
       <c r="C1057" s="4"/>
-      <c r="D1057" s="4"/>
+      <c r="D1057" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1057" s="4"/>
     </row>
     <row r="1058" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19752,7 +21300,9 @@
       </c>
       <c r="B1058" s="4"/>
       <c r="C1058" s="4"/>
-      <c r="D1058" s="4"/>
+      <c r="D1058" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1058" s="4"/>
     </row>
     <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
@@ -19761,7 +21311,9 @@
       </c>
       <c r="B1059" s="4"/>
       <c r="C1059" s="4"/>
-      <c r="D1059" s="4"/>
+      <c r="D1059" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1059" s="4"/>
     </row>
     <row r="1060" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19770,7 +21322,9 @@
       </c>
       <c r="B1060" s="4"/>
       <c r="C1060" s="4"/>
-      <c r="D1060" s="4"/>
+      <c r="D1060" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1060" s="4"/>
     </row>
     <row r="1061" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19779,7 +21333,9 @@
       </c>
       <c r="B1061" s="4"/>
       <c r="C1061" s="4"/>
-      <c r="D1061" s="4"/>
+      <c r="D1061" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1061" s="4"/>
     </row>
     <row r="1062" spans="1:5" x14ac:dyDescent="0.25">
@@ -19788,7 +21344,9 @@
       </c>
       <c r="B1062" s="4"/>
       <c r="C1062" s="4"/>
-      <c r="D1062" s="4"/>
+      <c r="D1062" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1062" s="4"/>
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
@@ -19797,7 +21355,9 @@
       </c>
       <c r="B1063" s="4"/>
       <c r="C1063" s="4"/>
-      <c r="D1063" s="4"/>
+      <c r="D1063" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1063" s="4"/>
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
@@ -19806,7 +21366,9 @@
       </c>
       <c r="B1064" s="4"/>
       <c r="C1064" s="4"/>
-      <c r="D1064" s="4"/>
+      <c r="D1064" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1064" s="4"/>
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
@@ -19815,7 +21377,9 @@
       </c>
       <c r="B1065" s="4"/>
       <c r="C1065" s="4"/>
-      <c r="D1065" s="4"/>
+      <c r="D1065" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1065" s="4"/>
     </row>
     <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
@@ -19824,7 +21388,9 @@
       </c>
       <c r="B1066" s="4"/>
       <c r="C1066" s="4"/>
-      <c r="D1066" s="4"/>
+      <c r="D1066" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1066" s="4"/>
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
@@ -19833,7 +21399,9 @@
       </c>
       <c r="B1067" s="4"/>
       <c r="C1067" s="4"/>
-      <c r="D1067" s="4"/>
+      <c r="D1067" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1067" s="4"/>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
@@ -19842,7 +21410,9 @@
       </c>
       <c r="B1068" s="4"/>
       <c r="C1068" s="4"/>
-      <c r="D1068" s="4"/>
+      <c r="D1068" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1068" s="4"/>
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
@@ -19851,7 +21421,9 @@
       </c>
       <c r="B1069" s="4"/>
       <c r="C1069" s="4"/>
-      <c r="D1069" s="4"/>
+      <c r="D1069" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1069" s="4"/>
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
@@ -19860,7 +21432,9 @@
       </c>
       <c r="B1070" s="4"/>
       <c r="C1070" s="4"/>
-      <c r="D1070" s="4"/>
+      <c r="D1070" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1070" s="4"/>
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
@@ -19869,7 +21443,9 @@
       </c>
       <c r="B1071" s="4"/>
       <c r="C1071" s="4"/>
-      <c r="D1071" s="4"/>
+      <c r="D1071" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1071" s="4"/>
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
@@ -19878,7 +21454,9 @@
       </c>
       <c r="B1072" s="4"/>
       <c r="C1072" s="4"/>
-      <c r="D1072" s="4"/>
+      <c r="D1072" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1072" s="4"/>
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
@@ -19887,7 +21465,9 @@
       </c>
       <c r="B1073" s="4"/>
       <c r="C1073" s="4"/>
-      <c r="D1073" s="4"/>
+      <c r="D1073" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1073" s="4"/>
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
@@ -19896,7 +21476,9 @@
       </c>
       <c r="B1074" s="4"/>
       <c r="C1074" s="4"/>
-      <c r="D1074" s="4"/>
+      <c r="D1074" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1074" s="4"/>
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
@@ -19905,7 +21487,9 @@
       </c>
       <c r="B1075" s="4"/>
       <c r="C1075" s="4"/>
-      <c r="D1075" s="4"/>
+      <c r="D1075" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1075" s="4"/>
     </row>
     <row r="1076" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19914,7 +21498,9 @@
       </c>
       <c r="B1076" s="4"/>
       <c r="C1076" s="4"/>
-      <c r="D1076" s="4"/>
+      <c r="D1076" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1076" s="4"/>
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
@@ -19923,7 +21509,9 @@
       </c>
       <c r="B1077" s="4"/>
       <c r="C1077" s="4"/>
-      <c r="D1077" s="4"/>
+      <c r="D1077" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1077" s="4"/>
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
@@ -19932,7 +21520,9 @@
       </c>
       <c r="B1078" s="4"/>
       <c r="C1078" s="4"/>
-      <c r="D1078" s="4"/>
+      <c r="D1078" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1078" s="4"/>
     </row>
     <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
@@ -19941,7 +21531,9 @@
       </c>
       <c r="B1079" s="4"/>
       <c r="C1079" s="4"/>
-      <c r="D1079" s="4"/>
+      <c r="D1079" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1079" s="4"/>
     </row>
     <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
@@ -19950,7 +21542,9 @@
       </c>
       <c r="B1080" s="4"/>
       <c r="C1080" s="4"/>
-      <c r="D1080" s="4"/>
+      <c r="D1080" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1080" s="4"/>
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
@@ -19959,7 +21553,9 @@
       </c>
       <c r="B1081" s="4"/>
       <c r="C1081" s="4"/>
-      <c r="D1081" s="4"/>
+      <c r="D1081" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1081" s="4"/>
     </row>
     <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
@@ -19968,7 +21564,9 @@
       </c>
       <c r="B1082" s="4"/>
       <c r="C1082" s="4"/>
-      <c r="D1082" s="4"/>
+      <c r="D1082" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1082" s="4"/>
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
@@ -19977,7 +21575,9 @@
       </c>
       <c r="B1083" s="4"/>
       <c r="C1083" s="4"/>
-      <c r="D1083" s="4"/>
+      <c r="D1083" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1083" s="4"/>
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
@@ -19986,7 +21586,9 @@
       </c>
       <c r="B1084" s="4"/>
       <c r="C1084" s="4"/>
-      <c r="D1084" s="4"/>
+      <c r="D1084" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1084" s="4"/>
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
@@ -19995,7 +21597,9 @@
       </c>
       <c r="B1085" s="4"/>
       <c r="C1085" s="4"/>
-      <c r="D1085" s="4"/>
+      <c r="D1085" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1085" s="4"/>
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
@@ -20004,7 +21608,9 @@
       </c>
       <c r="B1086" s="4"/>
       <c r="C1086" s="4"/>
-      <c r="D1086" s="4"/>
+      <c r="D1086" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1086" s="4"/>
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
@@ -20013,7 +21619,9 @@
       </c>
       <c r="B1087" s="4"/>
       <c r="C1087" s="4"/>
-      <c r="D1087" s="4"/>
+      <c r="D1087" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1087" s="4"/>
     </row>
     <row r="1088" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20022,7 +21630,9 @@
       </c>
       <c r="B1088" s="4"/>
       <c r="C1088" s="4"/>
-      <c r="D1088" s="4"/>
+      <c r="D1088" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1088" s="4"/>
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
@@ -20031,7 +21641,9 @@
       </c>
       <c r="B1089" s="4"/>
       <c r="C1089" s="4"/>
-      <c r="D1089" s="4"/>
+      <c r="D1089" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1089" s="4"/>
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
@@ -20040,7 +21652,9 @@
       </c>
       <c r="B1090" s="4"/>
       <c r="C1090" s="4"/>
-      <c r="D1090" s="4"/>
+      <c r="D1090" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1090" s="4"/>
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
@@ -20049,7 +21663,9 @@
       </c>
       <c r="B1091" s="4"/>
       <c r="C1091" s="4"/>
-      <c r="D1091" s="4"/>
+      <c r="D1091" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1091" s="4"/>
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.25">
@@ -20058,7 +21674,9 @@
       </c>
       <c r="B1092" s="4"/>
       <c r="C1092" s="4"/>
-      <c r="D1092" s="4"/>
+      <c r="D1092" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1092" s="4"/>
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
@@ -20067,7 +21685,9 @@
       </c>
       <c r="B1093" s="4"/>
       <c r="C1093" s="4"/>
-      <c r="D1093" s="4"/>
+      <c r="D1093" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1093" s="4"/>
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
@@ -20076,7 +21696,9 @@
       </c>
       <c r="B1094" s="4"/>
       <c r="C1094" s="4"/>
-      <c r="D1094" s="4"/>
+      <c r="D1094" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1094" s="4"/>
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
@@ -20085,7 +21707,9 @@
       </c>
       <c r="B1095" s="4"/>
       <c r="C1095" s="4"/>
-      <c r="D1095" s="4"/>
+      <c r="D1095" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1095" s="4"/>
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
@@ -20094,7 +21718,9 @@
       </c>
       <c r="B1096" s="4"/>
       <c r="C1096" s="4"/>
-      <c r="D1096" s="4"/>
+      <c r="D1096" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1096" s="4"/>
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
@@ -20103,7 +21729,9 @@
       </c>
       <c r="B1097" s="4"/>
       <c r="C1097" s="4"/>
-      <c r="D1097" s="4"/>
+      <c r="D1097" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1097" s="4"/>
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
@@ -20112,7 +21740,9 @@
       </c>
       <c r="B1098" s="4"/>
       <c r="C1098" s="4"/>
-      <c r="D1098" s="4"/>
+      <c r="D1098" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1098" s="4"/>
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
@@ -20121,7 +21751,9 @@
       </c>
       <c r="B1099" s="4"/>
       <c r="C1099" s="4"/>
-      <c r="D1099" s="4"/>
+      <c r="D1099" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1099" s="4"/>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
@@ -20130,7 +21762,9 @@
       </c>
       <c r="B1100" s="4"/>
       <c r="C1100" s="4"/>
-      <c r="D1100" s="4"/>
+      <c r="D1100" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1100" s="4"/>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
@@ -20139,7 +21773,9 @@
       </c>
       <c r="B1101" s="4"/>
       <c r="C1101" s="4"/>
-      <c r="D1101" s="4"/>
+      <c r="D1101" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1101" s="4"/>
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
@@ -20148,7 +21784,9 @@
       </c>
       <c r="B1102" s="4"/>
       <c r="C1102" s="4"/>
-      <c r="D1102" s="4"/>
+      <c r="D1102" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1102" s="4"/>
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
@@ -20157,7 +21795,9 @@
       </c>
       <c r="B1103" s="4"/>
       <c r="C1103" s="4"/>
-      <c r="D1103" s="4"/>
+      <c r="D1103" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1103" s="4"/>
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
@@ -20166,7 +21806,9 @@
       </c>
       <c r="B1104" s="4"/>
       <c r="C1104" s="4"/>
-      <c r="D1104" s="4"/>
+      <c r="D1104" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1104" s="4"/>
     </row>
     <row r="1105" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20175,7 +21817,9 @@
       </c>
       <c r="B1105" s="4"/>
       <c r="C1105" s="4"/>
-      <c r="D1105" s="4"/>
+      <c r="D1105" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1105" s="4"/>
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.25">
@@ -20184,7 +21828,9 @@
       </c>
       <c r="B1106" s="4"/>
       <c r="C1106" s="4"/>
-      <c r="D1106" s="4"/>
+      <c r="D1106" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1106" s="4"/>
     </row>
     <row r="1107" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20193,7 +21839,9 @@
       </c>
       <c r="B1107" s="4"/>
       <c r="C1107" s="4"/>
-      <c r="D1107" s="4"/>
+      <c r="D1107" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1107" s="4"/>
     </row>
     <row r="1108" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20202,7 +21850,9 @@
       </c>
       <c r="B1108" s="4"/>
       <c r="C1108" s="4"/>
-      <c r="D1108" s="4"/>
+      <c r="D1108" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1108" s="4"/>
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
@@ -20211,7 +21861,9 @@
       </c>
       <c r="B1109" s="4"/>
       <c r="C1109" s="4"/>
-      <c r="D1109" s="4"/>
+      <c r="D1109" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1109" s="4"/>
     </row>
     <row r="1110" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20220,7 +21872,9 @@
       </c>
       <c r="B1110" s="4"/>
       <c r="C1110" s="4"/>
-      <c r="D1110" s="4"/>
+      <c r="D1110" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1110" s="4"/>
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
@@ -20229,7 +21883,9 @@
       </c>
       <c r="B1111" s="4"/>
       <c r="C1111" s="4"/>
-      <c r="D1111" s="4"/>
+      <c r="D1111" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1111" s="4"/>
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.25">
@@ -20238,7 +21894,9 @@
       </c>
       <c r="B1112" s="4"/>
       <c r="C1112" s="4"/>
-      <c r="D1112" s="4"/>
+      <c r="D1112" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1112" s="4"/>
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.25">
@@ -20247,7 +21905,9 @@
       </c>
       <c r="B1113" s="4"/>
       <c r="C1113" s="4"/>
-      <c r="D1113" s="4"/>
+      <c r="D1113" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1113" s="4"/>
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.25">
@@ -20256,7 +21916,9 @@
       </c>
       <c r="B1114" s="4"/>
       <c r="C1114" s="4"/>
-      <c r="D1114" s="4"/>
+      <c r="D1114" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1114" s="4"/>
     </row>
     <row r="1115" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20265,7 +21927,9 @@
       </c>
       <c r="B1115" s="4"/>
       <c r="C1115" s="4"/>
-      <c r="D1115" s="4"/>
+      <c r="D1115" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1115" s="4"/>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.25">
@@ -20274,7 +21938,9 @@
       </c>
       <c r="B1116" s="4"/>
       <c r="C1116" s="4"/>
-      <c r="D1116" s="4"/>
+      <c r="D1116" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1116" s="4"/>
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.25">
@@ -20283,7 +21949,9 @@
       </c>
       <c r="B1117" s="4"/>
       <c r="C1117" s="4"/>
-      <c r="D1117" s="4"/>
+      <c r="D1117" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1117" s="4"/>
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.25">
@@ -20292,7 +21960,9 @@
       </c>
       <c r="B1118" s="4"/>
       <c r="C1118" s="4"/>
-      <c r="D1118" s="4"/>
+      <c r="D1118" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1118" s="4"/>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.25">
@@ -20301,7 +21971,9 @@
       </c>
       <c r="B1119" s="4"/>
       <c r="C1119" s="4"/>
-      <c r="D1119" s="4"/>
+      <c r="D1119" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1119" s="4"/>
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.25">
@@ -20310,7 +21982,9 @@
       </c>
       <c r="B1120" s="4"/>
       <c r="C1120" s="4"/>
-      <c r="D1120" s="4"/>
+      <c r="D1120" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1120" s="4"/>
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.25">
@@ -20319,7 +21993,9 @@
       </c>
       <c r="B1121" s="4"/>
       <c r="C1121" s="4"/>
-      <c r="D1121" s="4"/>
+      <c r="D1121" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1121" s="4"/>
     </row>
     <row r="1122" spans="1:5" x14ac:dyDescent="0.25">
@@ -20328,7 +22004,9 @@
       </c>
       <c r="B1122" s="4"/>
       <c r="C1122" s="4"/>
-      <c r="D1122" s="4"/>
+      <c r="D1122" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1122" s="4"/>
     </row>
     <row r="1123" spans="1:5" x14ac:dyDescent="0.25">
@@ -20337,7 +22015,9 @@
       </c>
       <c r="B1123" s="4"/>
       <c r="C1123" s="4"/>
-      <c r="D1123" s="4"/>
+      <c r="D1123" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1123" s="4"/>
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.25">
@@ -20346,7 +22026,9 @@
       </c>
       <c r="B1124" s="4"/>
       <c r="C1124" s="4"/>
-      <c r="D1124" s="4"/>
+      <c r="D1124" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1124" s="4"/>
     </row>
     <row r="1125" spans="1:5" x14ac:dyDescent="0.25">
@@ -20355,7 +22037,9 @@
       </c>
       <c r="B1125" s="4"/>
       <c r="C1125" s="4"/>
-      <c r="D1125" s="4"/>
+      <c r="D1125" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1125" s="4"/>
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
@@ -20364,7 +22048,9 @@
       </c>
       <c r="B1126" s="4"/>
       <c r="C1126" s="4"/>
-      <c r="D1126" s="4"/>
+      <c r="D1126" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1126" s="4"/>
     </row>
     <row r="1127" spans="1:5" x14ac:dyDescent="0.25">
@@ -20373,7 +22059,9 @@
       </c>
       <c r="B1127" s="4"/>
       <c r="C1127" s="4"/>
-      <c r="D1127" s="4"/>
+      <c r="D1127" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1127" s="4"/>
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.25">
@@ -20382,7 +22070,9 @@
       </c>
       <c r="B1128" s="4"/>
       <c r="C1128" s="4"/>
-      <c r="D1128" s="4"/>
+      <c r="D1128" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1128" s="4"/>
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
@@ -20391,7 +22081,9 @@
       </c>
       <c r="B1129" s="4"/>
       <c r="C1129" s="4"/>
-      <c r="D1129" s="4"/>
+      <c r="D1129" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1129" s="4"/>
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.25">
@@ -20400,7 +22092,9 @@
       </c>
       <c r="B1130" s="4"/>
       <c r="C1130" s="4"/>
-      <c r="D1130" s="4"/>
+      <c r="D1130" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1130" s="4"/>
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.25">
@@ -20409,7 +22103,9 @@
       </c>
       <c r="B1131" s="4"/>
       <c r="C1131" s="4"/>
-      <c r="D1131" s="4"/>
+      <c r="D1131" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1131" s="4"/>
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.25">
@@ -20418,7 +22114,9 @@
       </c>
       <c r="B1132" s="4"/>
       <c r="C1132" s="4"/>
-      <c r="D1132" s="4"/>
+      <c r="D1132" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1132" s="4"/>
     </row>
     <row r="1133" spans="1:5" x14ac:dyDescent="0.25">
@@ -20427,7 +22125,9 @@
       </c>
       <c r="B1133" s="4"/>
       <c r="C1133" s="4"/>
-      <c r="D1133" s="4"/>
+      <c r="D1133" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1133" s="4"/>
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.25">
@@ -20436,7 +22136,9 @@
       </c>
       <c r="B1134" s="4"/>
       <c r="C1134" s="4"/>
-      <c r="D1134" s="4"/>
+      <c r="D1134" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1134" s="4"/>
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.25">
@@ -20445,7 +22147,9 @@
       </c>
       <c r="B1135" s="4"/>
       <c r="C1135" s="4"/>
-      <c r="D1135" s="4"/>
+      <c r="D1135" s="9" t="s">
+        <v>3074</v>
+      </c>
       <c r="E1135" s="4"/>
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.25">
@@ -20454,7 +22158,9 @@
       </c>
       <c r="B1136" s="4"/>
       <c r="C1136" s="4"/>
-      <c r="D1136" s="4"/>
+      <c r="D1136" s="9" t="s">
+        <v>3074</v>
+      </c>
       <c r="E1136" s="4"/>
     </row>
     <row r="1137" spans="1:5" x14ac:dyDescent="0.25">
@@ -20463,7 +22169,9 @@
       </c>
       <c r="B1137" s="4"/>
       <c r="C1137" s="4"/>
-      <c r="D1137" s="4"/>
+      <c r="D1137" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1137" s="4"/>
     </row>
     <row r="1138" spans="1:5" x14ac:dyDescent="0.25">
@@ -20472,7 +22180,9 @@
       </c>
       <c r="B1138" s="4"/>
       <c r="C1138" s="4"/>
-      <c r="D1138" s="4"/>
+      <c r="D1138" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1138" s="4"/>
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.25">
@@ -20481,7 +22191,9 @@
       </c>
       <c r="B1139" s="4"/>
       <c r="C1139" s="4"/>
-      <c r="D1139" s="4"/>
+      <c r="D1139" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1139" s="4"/>
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.25">
@@ -20490,7 +22202,9 @@
       </c>
       <c r="B1140" s="4"/>
       <c r="C1140" s="4"/>
-      <c r="D1140" s="4"/>
+      <c r="D1140" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1140" s="4"/>
     </row>
     <row r="1141" spans="1:5" x14ac:dyDescent="0.25">
@@ -20499,7 +22213,9 @@
       </c>
       <c r="B1141" s="4"/>
       <c r="C1141" s="4"/>
-      <c r="D1141" s="4"/>
+      <c r="D1141" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1141" s="4"/>
     </row>
     <row r="1142" spans="1:5" x14ac:dyDescent="0.25">
@@ -20508,7 +22224,9 @@
       </c>
       <c r="B1142" s="4"/>
       <c r="C1142" s="4"/>
-      <c r="D1142" s="4"/>
+      <c r="D1142" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1142" s="4"/>
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.25">
@@ -20517,7 +22235,9 @@
       </c>
       <c r="B1143" s="4"/>
       <c r="C1143" s="4"/>
-      <c r="D1143" s="4"/>
+      <c r="D1143" s="9" t="s">
+        <v>3067</v>
+      </c>
       <c r="E1143" s="4"/>
     </row>
     <row r="1144" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20526,7 +22246,9 @@
       </c>
       <c r="B1144" s="4"/>
       <c r="C1144" s="4"/>
-      <c r="D1144" s="4"/>
+      <c r="D1144" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1144" s="4"/>
     </row>
     <row r="1145" spans="1:5" x14ac:dyDescent="0.25">
@@ -20535,7 +22257,9 @@
       </c>
       <c r="B1145" s="4"/>
       <c r="C1145" s="4"/>
-      <c r="D1145" s="4"/>
+      <c r="D1145" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1145" s="4"/>
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.25">
@@ -20544,7 +22268,9 @@
       </c>
       <c r="B1146" s="4"/>
       <c r="C1146" s="4"/>
-      <c r="D1146" s="4"/>
+      <c r="D1146" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1146" s="4"/>
     </row>
     <row r="1147" spans="1:5" x14ac:dyDescent="0.25">
@@ -20553,7 +22279,9 @@
       </c>
       <c r="B1147" s="4"/>
       <c r="C1147" s="4"/>
-      <c r="D1147" s="4"/>
+      <c r="D1147" s="9" t="s">
+        <v>3068</v>
+      </c>
       <c r="E1147" s="4"/>
     </row>
     <row r="1148" spans="1:5" x14ac:dyDescent="0.25">
@@ -20562,7 +22290,9 @@
       </c>
       <c r="B1148" s="4"/>
       <c r="C1148" s="4"/>
-      <c r="D1148" s="4"/>
+      <c r="D1148" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1148" s="4"/>
     </row>
     <row r="1149" spans="1:5" x14ac:dyDescent="0.25">
@@ -20571,7 +22301,9 @@
       </c>
       <c r="B1149" s="4"/>
       <c r="C1149" s="4"/>
-      <c r="D1149" s="4"/>
+      <c r="D1149" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1149" s="4"/>
     </row>
     <row r="1150" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20580,7 +22312,9 @@
       </c>
       <c r="B1150" s="4"/>
       <c r="C1150" s="4"/>
-      <c r="D1150" s="4"/>
+      <c r="D1150" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1150" s="4"/>
     </row>
     <row r="1151" spans="1:5" x14ac:dyDescent="0.25">
@@ -20589,7 +22323,9 @@
       </c>
       <c r="B1151" s="4"/>
       <c r="C1151" s="4"/>
-      <c r="D1151" s="4"/>
+      <c r="D1151" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1151" s="4"/>
     </row>
     <row r="1152" spans="1:5" x14ac:dyDescent="0.25">
@@ -20598,7 +22334,9 @@
       </c>
       <c r="B1152" s="4"/>
       <c r="C1152" s="4"/>
-      <c r="D1152" s="4"/>
+      <c r="D1152" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1152" s="4"/>
     </row>
     <row r="1153" spans="1:5" x14ac:dyDescent="0.25">
@@ -20607,7 +22345,9 @@
       </c>
       <c r="B1153" s="4"/>
       <c r="C1153" s="4"/>
-      <c r="D1153" s="4"/>
+      <c r="D1153" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1153" s="4"/>
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
@@ -20616,7 +22356,9 @@
       </c>
       <c r="B1154" s="4"/>
       <c r="C1154" s="4"/>
-      <c r="D1154" s="4"/>
+      <c r="D1154" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1154" s="4"/>
     </row>
     <row r="1155" spans="1:5" x14ac:dyDescent="0.25">
@@ -20625,7 +22367,9 @@
       </c>
       <c r="B1155" s="4"/>
       <c r="C1155" s="4"/>
-      <c r="D1155" s="4"/>
+      <c r="D1155" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1155" s="4"/>
     </row>
     <row r="1156" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20634,7 +22378,9 @@
       </c>
       <c r="B1156" s="4"/>
       <c r="C1156" s="4"/>
-      <c r="D1156" s="4"/>
+      <c r="D1156" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1156" s="4"/>
     </row>
     <row r="1157" spans="1:5" x14ac:dyDescent="0.25">
@@ -20643,7 +22389,9 @@
       </c>
       <c r="B1157" s="4"/>
       <c r="C1157" s="4"/>
-      <c r="D1157" s="4"/>
+      <c r="D1157" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1157" s="4"/>
     </row>
     <row r="1158" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20652,7 +22400,9 @@
       </c>
       <c r="B1158" s="4"/>
       <c r="C1158" s="4"/>
-      <c r="D1158" s="4"/>
+      <c r="D1158" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1158" s="4"/>
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.25">
@@ -20661,7 +22411,9 @@
       </c>
       <c r="B1159" s="4"/>
       <c r="C1159" s="4"/>
-      <c r="D1159" s="4"/>
+      <c r="D1159" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1159" s="4"/>
     </row>
     <row r="1160" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20670,7 +22422,9 @@
       </c>
       <c r="B1160" s="4"/>
       <c r="C1160" s="4"/>
-      <c r="D1160" s="4"/>
+      <c r="D1160" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1160" s="4"/>
     </row>
     <row r="1161" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20679,7 +22433,9 @@
       </c>
       <c r="B1161" s="4"/>
       <c r="C1161" s="4"/>
-      <c r="D1161" s="4"/>
+      <c r="D1161" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1161" s="4"/>
     </row>
     <row r="1162" spans="1:5" x14ac:dyDescent="0.25">
@@ -20688,7 +22444,9 @@
       </c>
       <c r="B1162" s="4"/>
       <c r="C1162" s="4"/>
-      <c r="D1162" s="4"/>
+      <c r="D1162" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1162" s="4"/>
     </row>
     <row r="1163" spans="1:5" x14ac:dyDescent="0.25">
@@ -20697,7 +22455,9 @@
       </c>
       <c r="B1163" s="4"/>
       <c r="C1163" s="4"/>
-      <c r="D1163" s="4"/>
+      <c r="D1163" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1163" s="4"/>
     </row>
     <row r="1164" spans="1:5" x14ac:dyDescent="0.25">
@@ -20706,7 +22466,9 @@
       </c>
       <c r="B1164" s="4"/>
       <c r="C1164" s="4"/>
-      <c r="D1164" s="4"/>
+      <c r="D1164" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1164" s="4"/>
     </row>
     <row r="1165" spans="1:5" x14ac:dyDescent="0.25">
@@ -20715,7 +22477,9 @@
       </c>
       <c r="B1165" s="4"/>
       <c r="C1165" s="4"/>
-      <c r="D1165" s="4"/>
+      <c r="D1165" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1165" s="4"/>
     </row>
     <row r="1166" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20724,7 +22488,9 @@
       </c>
       <c r="B1166" s="4"/>
       <c r="C1166" s="4"/>
-      <c r="D1166" s="4"/>
+      <c r="D1166" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1166" s="4"/>
     </row>
     <row r="1167" spans="1:5" x14ac:dyDescent="0.25">
@@ -20733,7 +22499,9 @@
       </c>
       <c r="B1167" s="4"/>
       <c r="C1167" s="4"/>
-      <c r="D1167" s="4"/>
+      <c r="D1167" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1167" s="4"/>
     </row>
     <row r="1168" spans="1:5" x14ac:dyDescent="0.25">
@@ -20742,7 +22510,9 @@
       </c>
       <c r="B1168" s="4"/>
       <c r="C1168" s="4"/>
-      <c r="D1168" s="4"/>
+      <c r="D1168" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1168" s="4"/>
     </row>
     <row r="1169" spans="1:5" x14ac:dyDescent="0.25">
@@ -20751,7 +22521,9 @@
       </c>
       <c r="B1169" s="4"/>
       <c r="C1169" s="4"/>
-      <c r="D1169" s="4"/>
+      <c r="D1169" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1169" s="4"/>
     </row>
     <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
@@ -20760,7 +22532,9 @@
       </c>
       <c r="B1170" s="4"/>
       <c r="C1170" s="4"/>
-      <c r="D1170" s="4"/>
+      <c r="D1170" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1170" s="4"/>
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
@@ -20769,7 +22543,9 @@
       </c>
       <c r="B1171" s="4"/>
       <c r="C1171" s="4"/>
-      <c r="D1171" s="4"/>
+      <c r="D1171" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1171" s="4"/>
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.25">
@@ -20778,7 +22554,9 @@
       </c>
       <c r="B1172" s="4"/>
       <c r="C1172" s="4"/>
-      <c r="D1172" s="4"/>
+      <c r="D1172" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1172" s="4"/>
     </row>
     <row r="1173" spans="1:5" x14ac:dyDescent="0.25">
@@ -20787,7 +22565,9 @@
       </c>
       <c r="B1173" s="4"/>
       <c r="C1173" s="4"/>
-      <c r="D1173" s="4"/>
+      <c r="D1173" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1173" s="4"/>
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.25">
@@ -20796,7 +22576,9 @@
       </c>
       <c r="B1174" s="4"/>
       <c r="C1174" s="4"/>
-      <c r="D1174" s="4"/>
+      <c r="D1174" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1174" s="4"/>
     </row>
     <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
@@ -20805,7 +22587,9 @@
       </c>
       <c r="B1175" s="4"/>
       <c r="C1175" s="4"/>
-      <c r="D1175" s="4"/>
+      <c r="D1175" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1175" s="4"/>
     </row>
     <row r="1176" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20814,7 +22598,9 @@
       </c>
       <c r="B1176" s="4"/>
       <c r="C1176" s="4"/>
-      <c r="D1176" s="4"/>
+      <c r="D1176" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1176" s="4"/>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
@@ -20823,7 +22609,9 @@
       </c>
       <c r="B1177" s="4"/>
       <c r="C1177" s="4"/>
-      <c r="D1177" s="4"/>
+      <c r="D1177" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1177" s="4"/>
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
@@ -20832,7 +22620,9 @@
       </c>
       <c r="B1178" s="4"/>
       <c r="C1178" s="4"/>
-      <c r="D1178" s="4"/>
+      <c r="D1178" s="9" t="s">
+        <v>3070</v>
+      </c>
       <c r="E1178" s="4"/>
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
@@ -20841,7 +22631,9 @@
       </c>
       <c r="B1179" s="4"/>
       <c r="C1179" s="4"/>
-      <c r="D1179" s="4"/>
+      <c r="D1179" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1179" s="4"/>
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
@@ -20850,7 +22642,9 @@
       </c>
       <c r="B1180" s="4"/>
       <c r="C1180" s="4"/>
-      <c r="D1180" s="4"/>
+      <c r="D1180" s="9" t="s">
+        <v>3069</v>
+      </c>
       <c r="E1180" s="4"/>
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.25">

--- a/Anotacija-viktor.xlsx
+++ b/Anotacija-viktor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC47996-00DF-4BD0-83B8-29C4096B8F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C1DAFF-ABF3-418B-8AB2-381998AB0D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B7F65A3-2C39-4D5B-ABEE-5E3D6ECBD3D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B7F65A3-2C39-4D5B-ABEE-5E3D6ECBD3D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="3075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="3073">
   <si>
     <t>Ni moja djevojka nije bila baš oduševljena jer je film imao element jednog od njezinih najvećih strahova, morskih pasa.</t>
   </si>
@@ -9253,12 +9253,6 @@
   </si>
   <si>
     <t>pot</t>
-  </si>
-  <si>
-    <t>Neg</t>
-  </si>
-  <si>
-    <t>nuet</t>
   </si>
 </sst>
 </file>
@@ -9652,8 +9646,8 @@
   <dimension ref="A1:E3064"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1181" sqref="D1181"/>
+      <pane ySplit="1" topLeftCell="A845" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D871" sqref="D871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11994,9 +11988,7 @@
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
-      <c r="D212" s="9" t="s">
-        <v>3073</v>
-      </c>
+      <c r="D212" s="4"/>
       <c r="E212" s="4"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -12005,9 +11997,7 @@
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
-      <c r="D213" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D213" s="4"/>
       <c r="E213" s="4"/>
     </row>
     <row r="214" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12016,9 +12006,7 @@
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
-      <c r="D214" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D214" s="4"/>
       <c r="E214" s="4"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -12027,9 +12015,7 @@
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
-      <c r="D215" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D215" s="4"/>
       <c r="E215" s="4"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -12038,9 +12024,7 @@
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
-      <c r="D216" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D216" s="4"/>
       <c r="E216" s="4"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -12071,9 +12055,7 @@
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
-      <c r="D219" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D219" s="4"/>
       <c r="E219" s="4"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -12104,9 +12086,7 @@
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
-      <c r="D222" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D222" s="4"/>
       <c r="E222" s="4"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -12115,9 +12095,7 @@
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
-      <c r="D223" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D223" s="4"/>
       <c r="E223" s="4"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -12126,9 +12104,7 @@
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
-      <c r="D224" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D224" s="4"/>
       <c r="E224" s="4"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -12137,9 +12113,7 @@
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
-      <c r="D225" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D225" s="4"/>
       <c r="E225" s="4"/>
     </row>
     <row r="226" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12148,9 +12122,7 @@
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
-      <c r="D226" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D226" s="4"/>
       <c r="E226" s="4"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -12159,9 +12131,7 @@
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
-      <c r="D227" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D227" s="4"/>
       <c r="E227" s="4"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -12170,9 +12140,7 @@
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
-      <c r="D228" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D228" s="4"/>
       <c r="E228" s="4"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -12181,9 +12149,7 @@
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
-      <c r="D229" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D229" s="4"/>
       <c r="E229" s="4"/>
     </row>
     <row r="230" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12192,9 +12158,7 @@
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
-      <c r="D230" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D230" s="4"/>
       <c r="E230" s="4"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -12203,9 +12167,7 @@
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
-      <c r="D231" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D231" s="4"/>
       <c r="E231" s="4"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -12214,9 +12176,7 @@
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
-      <c r="D232" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D232" s="4"/>
       <c r="E232" s="4"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -12225,9 +12185,7 @@
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
-      <c r="D233" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D233" s="4"/>
       <c r="E233" s="4"/>
     </row>
     <row r="234" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12236,9 +12194,7 @@
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
-      <c r="D234" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D234" s="4"/>
       <c r="E234" s="4"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -12247,9 +12203,7 @@
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
-      <c r="D235" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D235" s="4"/>
       <c r="E235" s="4"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -12258,9 +12212,7 @@
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
-      <c r="D236" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D236" s="4"/>
       <c r="E236" s="4"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -12269,9 +12221,7 @@
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
-      <c r="D237" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D237" s="4"/>
       <c r="E237" s="4"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -12280,9 +12230,7 @@
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
-      <c r="D238" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D238" s="4"/>
       <c r="E238" s="4"/>
     </row>
     <row r="239" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12291,9 +12239,7 @@
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
-      <c r="D239" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D239" s="4"/>
       <c r="E239" s="4"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -12302,9 +12248,7 @@
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
-      <c r="D240" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D240" s="4"/>
       <c r="E240" s="4"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -12313,9 +12257,7 @@
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
-      <c r="D241" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D241" s="4"/>
       <c r="E241" s="4"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -12324,9 +12266,7 @@
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
-      <c r="D242" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D242" s="4"/>
       <c r="E242" s="4"/>
     </row>
     <row r="243" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12335,9 +12275,7 @@
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
-      <c r="D243" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D243" s="4"/>
       <c r="E243" s="4"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -12346,9 +12284,7 @@
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
-      <c r="D244" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D244" s="4"/>
       <c r="E244" s="4"/>
     </row>
     <row r="245" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12357,9 +12293,7 @@
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
-      <c r="D245" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D245" s="4"/>
       <c r="E245" s="4"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -12368,9 +12302,7 @@
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
-      <c r="D246" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D246" s="4"/>
       <c r="E246" s="4"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -12379,9 +12311,7 @@
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
-      <c r="D247" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D247" s="4"/>
       <c r="E247" s="4"/>
     </row>
     <row r="248" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12390,9 +12320,7 @@
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
-      <c r="D248" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D248" s="4"/>
       <c r="E248" s="4"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -12401,9 +12329,7 @@
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
-      <c r="D249" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D249" s="4"/>
       <c r="E249" s="4"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -12412,9 +12338,7 @@
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
-      <c r="D250" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D250" s="4"/>
       <c r="E250" s="4"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -12423,9 +12347,7 @@
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
-      <c r="D251" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D251" s="4"/>
       <c r="E251" s="4"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -12434,9 +12356,7 @@
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
-      <c r="D252" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D252" s="4"/>
       <c r="E252" s="4"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -12445,9 +12365,7 @@
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
-      <c r="D253" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D253" s="4"/>
       <c r="E253" s="4"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -12456,9 +12374,7 @@
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
-      <c r="D254" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D254" s="4"/>
       <c r="E254" s="4"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -12467,9 +12383,7 @@
       </c>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
-      <c r="D255" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D255" s="4"/>
       <c r="E255" s="4"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -12478,9 +12392,7 @@
       </c>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
-      <c r="D256" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D256" s="4"/>
       <c r="E256" s="4"/>
     </row>
     <row r="257" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12489,9 +12401,7 @@
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
-      <c r="D257" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D257" s="4"/>
       <c r="E257" s="4"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -12500,9 +12410,7 @@
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
-      <c r="D258" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D258" s="4"/>
       <c r="E258" s="4"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -12511,9 +12419,7 @@
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
-      <c r="D259" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D259" s="4"/>
       <c r="E259" s="4"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -12522,9 +12428,7 @@
       </c>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
-      <c r="D260" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D260" s="4"/>
       <c r="E260" s="4"/>
     </row>
     <row r="261" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12533,9 +12437,7 @@
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
-      <c r="D261" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D261" s="4"/>
       <c r="E261" s="4"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -12544,9 +12446,7 @@
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
-      <c r="D262" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D262" s="4"/>
       <c r="E262" s="4"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -12555,9 +12455,7 @@
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
-      <c r="D263" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D263" s="4"/>
       <c r="E263" s="4"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -12566,9 +12464,7 @@
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
-      <c r="D264" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D264" s="4"/>
       <c r="E264" s="4"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -12577,9 +12473,7 @@
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
-      <c r="D265" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D265" s="4"/>
       <c r="E265" s="4"/>
     </row>
     <row r="266" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12588,9 +12482,7 @@
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D266" s="4"/>
       <c r="E266" s="4"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -12599,9 +12491,7 @@
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D267" s="4"/>
       <c r="E267" s="4"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -12610,9 +12500,7 @@
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D268" s="4"/>
       <c r="E268" s="4"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -12621,9 +12509,7 @@
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D269" s="4"/>
       <c r="E269" s="4"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -12632,9 +12518,7 @@
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D270" s="4"/>
       <c r="E270" s="4"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -12643,9 +12527,7 @@
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D271" s="4"/>
       <c r="E271" s="4"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -12654,9 +12536,7 @@
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D272" s="4"/>
       <c r="E272" s="4"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -12665,9 +12545,7 @@
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D273" s="4"/>
       <c r="E273" s="4"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -12676,9 +12554,7 @@
       </c>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D274" s="4"/>
       <c r="E274" s="4"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -12687,9 +12563,7 @@
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
-      <c r="D275" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D275" s="4"/>
       <c r="E275" s="4"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -12698,9 +12572,7 @@
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D276" s="4"/>
       <c r="E276" s="4"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -12709,9 +12581,7 @@
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
-      <c r="D277" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D277" s="4"/>
       <c r="E277" s="4"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -12720,9 +12590,7 @@
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
-      <c r="D278" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D278" s="4"/>
       <c r="E278" s="4"/>
     </row>
     <row r="279" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12731,9 +12599,7 @@
       </c>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
-      <c r="D279" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D279" s="4"/>
       <c r="E279" s="4"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -12742,9 +12608,7 @@
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
-      <c r="D280" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D280" s="4"/>
       <c r="E280" s="4"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -12753,9 +12617,7 @@
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
-      <c r="D281" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D281" s="4"/>
       <c r="E281" s="4"/>
     </row>
     <row r="282" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12764,9 +12626,7 @@
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
-      <c r="D282" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D282" s="4"/>
       <c r="E282" s="4"/>
     </row>
     <row r="283" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12775,9 +12635,7 @@
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
-      <c r="D283" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D283" s="4"/>
       <c r="E283" s="4"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -12786,9 +12644,7 @@
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
-      <c r="D284" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D284" s="4"/>
       <c r="E284" s="4"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -12797,9 +12653,7 @@
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
-      <c r="D285" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D285" s="4"/>
       <c r="E285" s="4"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -12808,9 +12662,7 @@
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
-      <c r="D286" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D286" s="4"/>
       <c r="E286" s="4"/>
     </row>
     <row r="287" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12819,9 +12671,7 @@
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
-      <c r="D287" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D287" s="4"/>
       <c r="E287" s="4"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -12830,9 +12680,7 @@
       </c>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
-      <c r="D288" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D288" s="4"/>
       <c r="E288" s="4"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -12841,9 +12689,7 @@
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
-      <c r="D289" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D289" s="4"/>
       <c r="E289" s="4"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -12852,9 +12698,7 @@
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
-      <c r="D290" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D290" s="4"/>
       <c r="E290" s="4"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -12863,9 +12707,7 @@
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
-      <c r="D291" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D291" s="4"/>
       <c r="E291" s="4"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -12874,9 +12716,7 @@
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
-      <c r="D292" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D292" s="4"/>
       <c r="E292" s="4"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -12885,9 +12725,7 @@
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
-      <c r="D293" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D293" s="4"/>
       <c r="E293" s="4"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -12896,9 +12734,7 @@
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
-      <c r="D294" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D294" s="4"/>
       <c r="E294" s="4"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -12907,9 +12743,7 @@
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
-      <c r="D295" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D295" s="4"/>
       <c r="E295" s="4"/>
     </row>
     <row r="296" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12918,9 +12752,7 @@
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
-      <c r="D296" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D296" s="4"/>
       <c r="E296" s="4"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -12929,9 +12761,7 @@
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
-      <c r="D297" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D297" s="4"/>
       <c r="E297" s="4"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -12940,9 +12770,7 @@
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
-      <c r="D298" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D298" s="4"/>
       <c r="E298" s="4"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -12951,9 +12779,7 @@
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
-      <c r="D299" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D299" s="4"/>
       <c r="E299" s="4"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -12962,9 +12788,7 @@
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
-      <c r="D300" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D300" s="4"/>
       <c r="E300" s="4"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -12973,9 +12797,7 @@
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
-      <c r="D301" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D301" s="4"/>
       <c r="E301" s="4"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -12984,9 +12806,7 @@
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
-      <c r="D302" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D302" s="4"/>
       <c r="E302" s="4"/>
     </row>
     <row r="303" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -12995,9 +12815,7 @@
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
-      <c r="D303" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D303" s="4"/>
       <c r="E303" s="4"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -13006,9 +12824,7 @@
       </c>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
-      <c r="D304" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D304" s="4"/>
       <c r="E304" s="4"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -13017,9 +12833,7 @@
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
-      <c r="D305" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D305" s="4"/>
       <c r="E305" s="4"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -13028,9 +12842,7 @@
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
-      <c r="D306" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D306" s="4"/>
       <c r="E306" s="4"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -13039,9 +12851,7 @@
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
-      <c r="D307" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D307" s="4"/>
       <c r="E307" s="4"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -13050,9 +12860,7 @@
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
-      <c r="D308" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D308" s="4"/>
       <c r="E308" s="4"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -13061,9 +12869,7 @@
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
-      <c r="D309" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D309" s="4"/>
       <c r="E309" s="4"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -13072,9 +12878,7 @@
       </c>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
-      <c r="D310" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D310" s="4"/>
       <c r="E310" s="4"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -13083,9 +12887,7 @@
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
-      <c r="D311" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D311" s="4"/>
       <c r="E311" s="4"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -13094,9 +12896,7 @@
       </c>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
-      <c r="D312" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D312" s="4"/>
       <c r="E312" s="4"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -13105,9 +12905,7 @@
       </c>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
-      <c r="D313" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D313" s="4"/>
       <c r="E313" s="4"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -13116,9 +12914,7 @@
       </c>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
-      <c r="D314" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D314" s="4"/>
       <c r="E314" s="4"/>
     </row>
     <row r="315" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13127,9 +12923,7 @@
       </c>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
-      <c r="D315" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D315" s="4"/>
       <c r="E315" s="4"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -13138,9 +12932,7 @@
       </c>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
-      <c r="D316" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D316" s="4"/>
       <c r="E316" s="4"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -13149,9 +12941,7 @@
       </c>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
-      <c r="D317" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D317" s="4"/>
       <c r="E317" s="4"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -13160,9 +12950,7 @@
       </c>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
-      <c r="D318" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D318" s="4"/>
       <c r="E318" s="4"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -13171,9 +12959,7 @@
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
-      <c r="D319" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D319" s="4"/>
       <c r="E319" s="4"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -13182,9 +12968,7 @@
       </c>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
-      <c r="D320" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D320" s="4"/>
       <c r="E320" s="4"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -13193,9 +12977,7 @@
       </c>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
-      <c r="D321" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D321" s="4"/>
       <c r="E321" s="4"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -13204,9 +12986,7 @@
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
-      <c r="D322" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D322" s="4"/>
       <c r="E322" s="4"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -13215,9 +12995,7 @@
       </c>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
-      <c r="D323" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D323" s="4"/>
       <c r="E323" s="4"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -13226,9 +13004,7 @@
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
-      <c r="D324" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D324" s="4"/>
       <c r="E324" s="4"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -13237,9 +13013,7 @@
       </c>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
-      <c r="D325" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D325" s="4"/>
       <c r="E325" s="4"/>
     </row>
     <row r="326" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13248,9 +13022,7 @@
       </c>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
-      <c r="D326" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D326" s="4"/>
       <c r="E326" s="4"/>
     </row>
     <row r="327" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13259,9 +13031,7 @@
       </c>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
-      <c r="D327" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D327" s="4"/>
       <c r="E327" s="4"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -13270,9 +13040,7 @@
       </c>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
-      <c r="D328" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D328" s="4"/>
       <c r="E328" s="4"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -13281,9 +13049,7 @@
       </c>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
-      <c r="D329" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D329" s="4"/>
       <c r="E329" s="4"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -13292,9 +13058,7 @@
       </c>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
-      <c r="D330" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D330" s="4"/>
       <c r="E330" s="4"/>
     </row>
     <row r="331" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13303,9 +13067,7 @@
       </c>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
-      <c r="D331" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D331" s="4"/>
       <c r="E331" s="4"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -13314,9 +13076,7 @@
       </c>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
-      <c r="D332" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D332" s="4"/>
       <c r="E332" s="4"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -13325,9 +13085,7 @@
       </c>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
-      <c r="D333" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D333" s="4"/>
       <c r="E333" s="4"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -13336,9 +13094,7 @@
       </c>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
-      <c r="D334" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D334" s="4"/>
       <c r="E334" s="4"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -13347,9 +13103,7 @@
       </c>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
-      <c r="D335" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D335" s="4"/>
       <c r="E335" s="4"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -13358,9 +13112,7 @@
       </c>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
-      <c r="D336" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D336" s="4"/>
       <c r="E336" s="4"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -13369,9 +13121,7 @@
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
-      <c r="D337" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D337" s="4"/>
       <c r="E337" s="4"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -13380,9 +13130,7 @@
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
-      <c r="D338" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D338" s="4"/>
       <c r="E338" s="4"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -13391,9 +13139,7 @@
       </c>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
-      <c r="D339" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D339" s="4"/>
       <c r="E339" s="4"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -13402,9 +13148,7 @@
       </c>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
-      <c r="D340" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D340" s="4"/>
       <c r="E340" s="4"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -13413,9 +13157,7 @@
       </c>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
-      <c r="D341" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D341" s="4"/>
       <c r="E341" s="4"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -13424,9 +13166,7 @@
       </c>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
-      <c r="D342" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D342" s="4"/>
       <c r="E342" s="4"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -13435,9 +13175,7 @@
       </c>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
-      <c r="D343" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D343" s="4"/>
       <c r="E343" s="4"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -13446,9 +13184,7 @@
       </c>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
-      <c r="D344" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D344" s="4"/>
       <c r="E344" s="4"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -13457,9 +13193,7 @@
       </c>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
-      <c r="D345" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D345" s="4"/>
       <c r="E345" s="4"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -13468,9 +13202,7 @@
       </c>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
-      <c r="D346" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D346" s="4"/>
       <c r="E346" s="4"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -13479,9 +13211,7 @@
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
-      <c r="D347" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D347" s="4"/>
       <c r="E347" s="4"/>
     </row>
     <row r="348" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13490,9 +13220,7 @@
       </c>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
-      <c r="D348" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D348" s="4"/>
       <c r="E348" s="4"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -13501,9 +13229,7 @@
       </c>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
-      <c r="D349" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D349" s="4"/>
       <c r="E349" s="4"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -13512,9 +13238,7 @@
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
-      <c r="D350" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D350" s="4"/>
       <c r="E350" s="4"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -13523,9 +13247,7 @@
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
-      <c r="D351" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D351" s="4"/>
       <c r="E351" s="4"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -13534,9 +13256,7 @@
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
-      <c r="D352" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D352" s="4"/>
       <c r="E352" s="4"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -13545,9 +13265,7 @@
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
-      <c r="D353" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D353" s="4"/>
       <c r="E353" s="4"/>
     </row>
     <row r="354" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13556,9 +13274,7 @@
       </c>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
-      <c r="D354" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D354" s="4"/>
       <c r="E354" s="4"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -13567,9 +13283,7 @@
       </c>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
-      <c r="D355" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D355" s="4"/>
       <c r="E355" s="4"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -13578,9 +13292,7 @@
       </c>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
-      <c r="D356" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D356" s="4"/>
       <c r="E356" s="4"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -13589,9 +13301,7 @@
       </c>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
-      <c r="D357" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D357" s="4"/>
       <c r="E357" s="4"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -13600,9 +13310,7 @@
       </c>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
-      <c r="D358" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D358" s="4"/>
       <c r="E358" s="4"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -13611,9 +13319,7 @@
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
-      <c r="D359" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D359" s="4"/>
       <c r="E359" s="4"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -13622,9 +13328,7 @@
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
-      <c r="D360" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D360" s="4"/>
       <c r="E360" s="4"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -13633,9 +13337,7 @@
       </c>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
-      <c r="D361" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D361" s="4"/>
       <c r="E361" s="4"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -13644,9 +13346,7 @@
       </c>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
-      <c r="D362" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D362" s="4"/>
       <c r="E362" s="4"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -13655,9 +13355,7 @@
       </c>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
-      <c r="D363" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D363" s="4"/>
       <c r="E363" s="4"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -13666,9 +13364,7 @@
       </c>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
-      <c r="D364" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D364" s="4"/>
       <c r="E364" s="4"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -13677,9 +13373,7 @@
       </c>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
-      <c r="D365" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D365" s="4"/>
       <c r="E365" s="4"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -13688,9 +13382,7 @@
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
-      <c r="D366" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D366" s="4"/>
       <c r="E366" s="4"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -13699,9 +13391,7 @@
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
-      <c r="D367" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D367" s="4"/>
       <c r="E367" s="4"/>
     </row>
     <row r="368" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -13710,9 +13400,7 @@
       </c>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
-      <c r="D368" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D368" s="4"/>
       <c r="E368" s="4"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -13721,9 +13409,7 @@
       </c>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
-      <c r="D369" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D369" s="4"/>
       <c r="E369" s="4"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -13732,9 +13418,7 @@
       </c>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
-      <c r="D370" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D370" s="4"/>
       <c r="E370" s="4"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -13743,9 +13427,7 @@
       </c>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
-      <c r="D371" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D371" s="4"/>
       <c r="E371" s="4"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -13754,9 +13436,7 @@
       </c>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
-      <c r="D372" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D372" s="4"/>
       <c r="E372" s="4"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -13765,9 +13445,7 @@
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
-      <c r="D373" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D373" s="4"/>
       <c r="E373" s="4"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -13776,9 +13454,7 @@
       </c>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
-      <c r="D374" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D374" s="4"/>
       <c r="E374" s="4"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -13787,9 +13463,7 @@
       </c>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
-      <c r="D375" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D375" s="4"/>
       <c r="E375" s="4"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -13798,9 +13472,7 @@
       </c>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
-      <c r="D376" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D376" s="4"/>
       <c r="E376" s="4"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -13809,9 +13481,7 @@
       </c>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
-      <c r="D377" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D377" s="4"/>
       <c r="E377" s="4"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -13820,9 +13490,7 @@
       </c>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
-      <c r="D378" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D378" s="4"/>
       <c r="E378" s="4"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -13831,9 +13499,7 @@
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
-      <c r="D379" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D379" s="4"/>
       <c r="E379" s="4"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -13842,9 +13508,7 @@
       </c>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
-      <c r="D380" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D380" s="4"/>
       <c r="E380" s="4"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -13853,9 +13517,7 @@
       </c>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
-      <c r="D381" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D381" s="4"/>
       <c r="E381" s="4"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -13864,9 +13526,7 @@
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
-      <c r="D382" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D382" s="4"/>
       <c r="E382" s="4"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -13875,9 +13535,7 @@
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
-      <c r="D383" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D383" s="4"/>
       <c r="E383" s="4"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -13886,9 +13544,7 @@
       </c>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
-      <c r="D384" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D384" s="4"/>
       <c r="E384" s="4"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -13897,9 +13553,7 @@
       </c>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
-      <c r="D385" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D385" s="4"/>
       <c r="E385" s="4"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -13908,9 +13562,7 @@
       </c>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
-      <c r="D386" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D386" s="4"/>
       <c r="E386" s="4"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -13919,9 +13571,7 @@
       </c>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
-      <c r="D387" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D387" s="4"/>
       <c r="E387" s="4"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -13930,9 +13580,7 @@
       </c>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
-      <c r="D388" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D388" s="4"/>
       <c r="E388" s="4"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -13941,9 +13589,7 @@
       </c>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
-      <c r="D389" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D389" s="4"/>
       <c r="E389" s="4"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -13952,9 +13598,7 @@
       </c>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
-      <c r="D390" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D390" s="4"/>
       <c r="E390" s="4"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -13963,9 +13607,7 @@
       </c>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
-      <c r="D391" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D391" s="4"/>
       <c r="E391" s="4"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -13974,9 +13616,7 @@
       </c>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
-      <c r="D392" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D392" s="4"/>
       <c r="E392" s="4"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -13985,9 +13625,7 @@
       </c>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
-      <c r="D393" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D393" s="4"/>
       <c r="E393" s="4"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -13996,9 +13634,7 @@
       </c>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
-      <c r="D394" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D394" s="4"/>
       <c r="E394" s="4"/>
     </row>
     <row r="395" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14007,9 +13643,7 @@
       </c>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
-      <c r="D395" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D395" s="4"/>
       <c r="E395" s="4"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -14018,9 +13652,7 @@
       </c>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
-      <c r="D396" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D396" s="4"/>
       <c r="E396" s="4"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -14029,9 +13661,7 @@
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
-      <c r="D397" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D397" s="4"/>
       <c r="E397" s="4"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -14040,9 +13670,7 @@
       </c>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
-      <c r="D398" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D398" s="4"/>
       <c r="E398" s="4"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -14051,9 +13679,7 @@
       </c>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
-      <c r="D399" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D399" s="4"/>
       <c r="E399" s="4"/>
     </row>
     <row r="400" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14062,9 +13688,7 @@
       </c>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
-      <c r="D400" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D400" s="4"/>
       <c r="E400" s="4"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -14073,9 +13697,7 @@
       </c>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
-      <c r="D401" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D401" s="4"/>
       <c r="E401" s="4"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -14084,9 +13706,7 @@
       </c>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
-      <c r="D402" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D402" s="4"/>
       <c r="E402" s="4"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -14095,9 +13715,7 @@
       </c>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
-      <c r="D403" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D403" s="4"/>
       <c r="E403" s="4"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -14106,9 +13724,7 @@
       </c>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
-      <c r="D404" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D404" s="4"/>
       <c r="E404" s="4"/>
     </row>
     <row r="405" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14117,9 +13733,7 @@
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
-      <c r="D405" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D405" s="4"/>
       <c r="E405" s="4"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -14128,9 +13742,7 @@
       </c>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
-      <c r="D406" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D406" s="4"/>
       <c r="E406" s="4"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -14139,9 +13751,7 @@
       </c>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
-      <c r="D407" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D407" s="4"/>
       <c r="E407" s="4"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -14150,9 +13760,7 @@
       </c>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
-      <c r="D408" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D408" s="4"/>
       <c r="E408" s="4"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -14161,9 +13769,7 @@
       </c>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
-      <c r="D409" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D409" s="4"/>
       <c r="E409" s="4"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -14172,9 +13778,7 @@
       </c>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
-      <c r="D410" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D410" s="4"/>
       <c r="E410" s="4"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -14183,9 +13787,7 @@
       </c>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
-      <c r="D411" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D411" s="4"/>
       <c r="E411" s="4"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -14194,9 +13796,7 @@
       </c>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
-      <c r="D412" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D412" s="4"/>
       <c r="E412" s="4"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -14205,9 +13805,7 @@
       </c>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
-      <c r="D413" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D413" s="4"/>
       <c r="E413" s="4"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -14216,9 +13814,7 @@
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
-      <c r="D414" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D414" s="4"/>
       <c r="E414" s="4"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -14227,9 +13823,7 @@
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
-      <c r="D415" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D415" s="4"/>
       <c r="E415" s="4"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -14238,9 +13832,7 @@
       </c>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
-      <c r="D416" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D416" s="4"/>
       <c r="E416" s="4"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -14249,9 +13841,7 @@
       </c>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
-      <c r="D417" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D417" s="4"/>
       <c r="E417" s="4"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -14260,9 +13850,7 @@
       </c>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
-      <c r="D418" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D418" s="4"/>
       <c r="E418" s="4"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -14271,9 +13859,7 @@
       </c>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
-      <c r="D419" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D419" s="4"/>
       <c r="E419" s="4"/>
     </row>
     <row r="420" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14282,9 +13868,7 @@
       </c>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
-      <c r="D420" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D420" s="4"/>
       <c r="E420" s="4"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -14293,9 +13877,7 @@
       </c>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
-      <c r="D421" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D421" s="4"/>
       <c r="E421" s="4"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -14304,9 +13886,7 @@
       </c>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
-      <c r="D422" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D422" s="4"/>
       <c r="E422" s="4"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -14315,9 +13895,7 @@
       </c>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
-      <c r="D423" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D423" s="4"/>
       <c r="E423" s="4"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -14326,9 +13904,7 @@
       </c>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
-      <c r="D424" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D424" s="4"/>
       <c r="E424" s="4"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -14337,9 +13913,7 @@
       </c>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
-      <c r="D425" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D425" s="4"/>
       <c r="E425" s="4"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -14348,9 +13922,7 @@
       </c>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
-      <c r="D426" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D426" s="4"/>
       <c r="E426" s="4"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -14359,9 +13931,7 @@
       </c>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
-      <c r="D427" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D427" s="4"/>
       <c r="E427" s="4"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -14370,9 +13940,7 @@
       </c>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
-      <c r="D428" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D428" s="4"/>
       <c r="E428" s="4"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -14381,9 +13949,7 @@
       </c>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
-      <c r="D429" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D429" s="4"/>
       <c r="E429" s="4"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -14392,9 +13958,7 @@
       </c>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
-      <c r="D430" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D430" s="4"/>
       <c r="E430" s="4"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -14403,9 +13967,7 @@
       </c>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
-      <c r="D431" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D431" s="4"/>
       <c r="E431" s="4"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -14414,9 +13976,7 @@
       </c>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
-      <c r="D432" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D432" s="4"/>
       <c r="E432" s="4"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -14425,9 +13985,7 @@
       </c>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
-      <c r="D433" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D433" s="4"/>
       <c r="E433" s="4"/>
     </row>
     <row r="434" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14436,9 +13994,7 @@
       </c>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
-      <c r="D434" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D434" s="4"/>
       <c r="E434" s="4"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -14447,9 +14003,7 @@
       </c>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
-      <c r="D435" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D435" s="4"/>
       <c r="E435" s="4"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -14458,9 +14012,7 @@
       </c>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
-      <c r="D436" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D436" s="4"/>
       <c r="E436" s="4"/>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -14469,9 +14021,7 @@
       </c>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
-      <c r="D437" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D437" s="4"/>
       <c r="E437" s="4"/>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -14480,9 +14030,7 @@
       </c>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
-      <c r="D438" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D438" s="4"/>
       <c r="E438" s="4"/>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -14491,9 +14039,7 @@
       </c>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
-      <c r="D439" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D439" s="4"/>
       <c r="E439" s="4"/>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -14502,9 +14048,7 @@
       </c>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
-      <c r="D440" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D440" s="4"/>
       <c r="E440" s="4"/>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -14513,9 +14057,7 @@
       </c>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
-      <c r="D441" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D441" s="4"/>
       <c r="E441" s="4"/>
     </row>
     <row r="442" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14524,9 +14066,7 @@
       </c>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
-      <c r="D442" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D442" s="4"/>
       <c r="E442" s="4"/>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -14535,9 +14075,7 @@
       </c>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
-      <c r="D443" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D443" s="4"/>
       <c r="E443" s="4"/>
     </row>
     <row r="444" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14546,9 +14084,7 @@
       </c>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
-      <c r="D444" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D444" s="4"/>
       <c r="E444" s="4"/>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -14557,9 +14093,7 @@
       </c>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
-      <c r="D445" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D445" s="4"/>
       <c r="E445" s="4"/>
     </row>
     <row r="446" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14568,9 +14102,7 @@
       </c>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
-      <c r="D446" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D446" s="4"/>
       <c r="E446" s="4"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -14579,9 +14111,7 @@
       </c>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
-      <c r="D447" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D447" s="4"/>
       <c r="E447" s="4"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -14590,9 +14120,7 @@
       </c>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
-      <c r="D448" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D448" s="4"/>
       <c r="E448" s="4"/>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -14601,9 +14129,7 @@
       </c>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
-      <c r="D449" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D449" s="4"/>
       <c r="E449" s="4"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -14612,9 +14138,7 @@
       </c>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
-      <c r="D450" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D450" s="4"/>
       <c r="E450" s="4"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -14623,9 +14147,7 @@
       </c>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
-      <c r="D451" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D451" s="4"/>
       <c r="E451" s="4"/>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -14634,9 +14156,7 @@
       </c>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
-      <c r="D452" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D452" s="4"/>
       <c r="E452" s="4"/>
     </row>
     <row r="453" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14645,9 +14165,7 @@
       </c>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
-      <c r="D453" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D453" s="4"/>
       <c r="E453" s="4"/>
     </row>
     <row r="454" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14656,9 +14174,7 @@
       </c>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
-      <c r="D454" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D454" s="4"/>
       <c r="E454" s="4"/>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -14667,9 +14183,7 @@
       </c>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
-      <c r="D455" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D455" s="4"/>
       <c r="E455" s="4"/>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -14678,9 +14192,7 @@
       </c>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
-      <c r="D456" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D456" s="4"/>
       <c r="E456" s="4"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -14689,9 +14201,7 @@
       </c>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
-      <c r="D457" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D457" s="4"/>
       <c r="E457" s="4"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -14700,9 +14210,7 @@
       </c>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
-      <c r="D458" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D458" s="4"/>
       <c r="E458" s="4"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -14711,9 +14219,7 @@
       </c>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
-      <c r="D459" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D459" s="4"/>
       <c r="E459" s="4"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -14722,9 +14228,7 @@
       </c>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
-      <c r="D460" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D460" s="4"/>
       <c r="E460" s="4"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -14733,9 +14237,7 @@
       </c>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
-      <c r="D461" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D461" s="4"/>
       <c r="E461" s="4"/>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -14744,9 +14246,7 @@
       </c>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
-      <c r="D462" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D462" s="4"/>
       <c r="E462" s="4"/>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -14755,9 +14255,7 @@
       </c>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
-      <c r="D463" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D463" s="4"/>
       <c r="E463" s="4"/>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -14766,9 +14264,7 @@
       </c>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
-      <c r="D464" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D464" s="4"/>
       <c r="E464" s="4"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -14777,9 +14273,7 @@
       </c>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
-      <c r="D465" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D465" s="4"/>
       <c r="E465" s="4"/>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -14788,9 +14282,7 @@
       </c>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
-      <c r="D466" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D466" s="4"/>
       <c r="E466" s="4"/>
     </row>
     <row r="467" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14799,9 +14291,7 @@
       </c>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
-      <c r="D467" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D467" s="4"/>
       <c r="E467" s="4"/>
     </row>
     <row r="468" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14810,9 +14300,7 @@
       </c>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
-      <c r="D468" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D468" s="4"/>
       <c r="E468" s="4"/>
     </row>
     <row r="469" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14821,9 +14309,7 @@
       </c>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
-      <c r="D469" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D469" s="4"/>
       <c r="E469" s="4"/>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -14832,9 +14318,7 @@
       </c>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
-      <c r="D470" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D470" s="4"/>
       <c r="E470" s="4"/>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -14843,9 +14327,7 @@
       </c>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
-      <c r="D471" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D471" s="4"/>
       <c r="E471" s="4"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -14854,9 +14336,7 @@
       </c>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
-      <c r="D472" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D472" s="4"/>
       <c r="E472" s="4"/>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -14865,9 +14345,7 @@
       </c>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
-      <c r="D473" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D473" s="4"/>
       <c r="E473" s="4"/>
     </row>
     <row r="474" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14876,9 +14354,7 @@
       </c>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
-      <c r="D474" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D474" s="4"/>
       <c r="E474" s="4"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -14887,9 +14363,7 @@
       </c>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
-      <c r="D475" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D475" s="4"/>
       <c r="E475" s="4"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -14898,9 +14372,7 @@
       </c>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
-      <c r="D476" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D476" s="4"/>
       <c r="E476" s="4"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -14909,9 +14381,7 @@
       </c>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
-      <c r="D477" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D477" s="4"/>
       <c r="E477" s="4"/>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -14920,9 +14390,7 @@
       </c>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
-      <c r="D478" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D478" s="4"/>
       <c r="E478" s="4"/>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -14931,9 +14399,7 @@
       </c>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
-      <c r="D479" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D479" s="4"/>
       <c r="E479" s="4"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -14942,9 +14408,7 @@
       </c>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
-      <c r="D480" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D480" s="4"/>
       <c r="E480" s="4"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -14953,9 +14417,7 @@
       </c>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
-      <c r="D481" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D481" s="4"/>
       <c r="E481" s="4"/>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -14964,9 +14426,7 @@
       </c>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
-      <c r="D482" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D482" s="4"/>
       <c r="E482" s="4"/>
     </row>
     <row r="483" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -14975,9 +14435,7 @@
       </c>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
-      <c r="D483" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D483" s="4"/>
       <c r="E483" s="4"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -14986,9 +14444,7 @@
       </c>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
-      <c r="D484" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D484" s="4"/>
       <c r="E484" s="4"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -14997,9 +14453,7 @@
       </c>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
-      <c r="D485" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D485" s="4"/>
       <c r="E485" s="4"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -15008,9 +14462,7 @@
       </c>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
-      <c r="D486" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D486" s="4"/>
       <c r="E486" s="4"/>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -15019,9 +14471,7 @@
       </c>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
-      <c r="D487" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D487" s="4"/>
       <c r="E487" s="4"/>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -15030,9 +14480,7 @@
       </c>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
-      <c r="D488" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D488" s="4"/>
       <c r="E488" s="4"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -15041,9 +14489,7 @@
       </c>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
-      <c r="D489" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D489" s="4"/>
       <c r="E489" s="4"/>
     </row>
     <row r="490" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15052,9 +14498,7 @@
       </c>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
-      <c r="D490" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D490" s="4"/>
       <c r="E490" s="4"/>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -15063,9 +14507,7 @@
       </c>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
-      <c r="D491" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D491" s="4"/>
       <c r="E491" s="4"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -15074,9 +14516,7 @@
       </c>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
-      <c r="D492" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D492" s="4"/>
       <c r="E492" s="4"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -15085,9 +14525,7 @@
       </c>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
-      <c r="D493" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D493" s="4"/>
       <c r="E493" s="4"/>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -15096,9 +14534,7 @@
       </c>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
-      <c r="D494" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D494" s="4"/>
       <c r="E494" s="4"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -15107,9 +14543,7 @@
       </c>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
-      <c r="D495" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D495" s="4"/>
       <c r="E495" s="4"/>
     </row>
     <row r="496" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15118,9 +14552,7 @@
       </c>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
-      <c r="D496" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D496" s="4"/>
       <c r="E496" s="4"/>
     </row>
     <row r="497" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15129,9 +14561,7 @@
       </c>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
-      <c r="D497" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D497" s="4"/>
       <c r="E497" s="4"/>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -15140,9 +14570,7 @@
       </c>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
-      <c r="D498" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D498" s="4"/>
       <c r="E498" s="4"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -15151,9 +14579,7 @@
       </c>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
-      <c r="D499" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D499" s="4"/>
       <c r="E499" s="4"/>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -15162,9 +14588,7 @@
       </c>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
-      <c r="D500" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D500" s="4"/>
       <c r="E500" s="4"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -15173,9 +14597,7 @@
       </c>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
-      <c r="D501" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D501" s="4"/>
       <c r="E501" s="4"/>
     </row>
     <row r="502" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15184,9 +14606,7 @@
       </c>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
-      <c r="D502" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D502" s="4"/>
       <c r="E502" s="4"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -15195,9 +14615,7 @@
       </c>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
-      <c r="D503" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D503" s="4"/>
       <c r="E503" s="4"/>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -15206,9 +14624,7 @@
       </c>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
-      <c r="D504" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D504" s="4"/>
       <c r="E504" s="4"/>
     </row>
     <row r="505" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15217,9 +14633,7 @@
       </c>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
-      <c r="D505" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D505" s="4"/>
       <c r="E505" s="4"/>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -15228,9 +14642,7 @@
       </c>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
-      <c r="D506" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D506" s="4"/>
       <c r="E506" s="4"/>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -15239,9 +14651,7 @@
       </c>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
-      <c r="D507" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D507" s="4"/>
       <c r="E507" s="4"/>
     </row>
     <row r="508" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15250,9 +14660,7 @@
       </c>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
-      <c r="D508" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D508" s="4"/>
       <c r="E508" s="4"/>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -15261,9 +14669,7 @@
       </c>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
-      <c r="D509" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D509" s="4"/>
       <c r="E509" s="4"/>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -15272,9 +14678,7 @@
       </c>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
-      <c r="D510" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D510" s="4"/>
       <c r="E510" s="4"/>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -15283,9 +14687,7 @@
       </c>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
-      <c r="D511" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D511" s="4"/>
       <c r="E511" s="4"/>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -15294,9 +14696,7 @@
       </c>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
-      <c r="D512" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D512" s="4"/>
       <c r="E512" s="4"/>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -15305,9 +14705,7 @@
       </c>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
-      <c r="D513" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D513" s="4"/>
       <c r="E513" s="4"/>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -15316,9 +14714,7 @@
       </c>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
-      <c r="D514" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D514" s="4"/>
       <c r="E514" s="4"/>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -15327,9 +14723,7 @@
       </c>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
-      <c r="D515" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D515" s="4"/>
       <c r="E515" s="4"/>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -15338,9 +14732,7 @@
       </c>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
-      <c r="D516" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D516" s="4"/>
       <c r="E516" s="4"/>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -15349,9 +14741,7 @@
       </c>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
-      <c r="D517" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D517" s="4"/>
       <c r="E517" s="4"/>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -15360,9 +14750,7 @@
       </c>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
-      <c r="D518" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D518" s="4"/>
       <c r="E518" s="4"/>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -15371,9 +14759,7 @@
       </c>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
-      <c r="D519" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D519" s="4"/>
       <c r="E519" s="4"/>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -15382,9 +14768,7 @@
       </c>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
-      <c r="D520" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D520" s="4"/>
       <c r="E520" s="4"/>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -15393,9 +14777,7 @@
       </c>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
-      <c r="D521" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D521" s="4"/>
       <c r="E521" s="4"/>
     </row>
     <row r="522" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15404,9 +14786,7 @@
       </c>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
-      <c r="D522" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D522" s="4"/>
       <c r="E522" s="4"/>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
@@ -15415,9 +14795,7 @@
       </c>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
-      <c r="D523" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D523" s="4"/>
       <c r="E523" s="4"/>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -15426,9 +14804,7 @@
       </c>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
-      <c r="D524" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D524" s="4"/>
       <c r="E524" s="4"/>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -15437,9 +14813,7 @@
       </c>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
-      <c r="D525" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D525" s="4"/>
       <c r="E525" s="4"/>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -15448,9 +14822,7 @@
       </c>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
-      <c r="D526" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D526" s="4"/>
       <c r="E526" s="4"/>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -15459,9 +14831,7 @@
       </c>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
-      <c r="D527" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D527" s="4"/>
       <c r="E527" s="4"/>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -15470,9 +14840,7 @@
       </c>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
-      <c r="D528" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D528" s="4"/>
       <c r="E528" s="4"/>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -15481,9 +14849,7 @@
       </c>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
-      <c r="D529" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D529" s="4"/>
       <c r="E529" s="4"/>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -15492,9 +14858,7 @@
       </c>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
-      <c r="D530" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D530" s="4"/>
       <c r="E530" s="4"/>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -15503,9 +14867,7 @@
       </c>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
-      <c r="D531" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D531" s="4"/>
       <c r="E531" s="4"/>
     </row>
     <row r="532" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15514,9 +14876,7 @@
       </c>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
-      <c r="D532" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D532" s="4"/>
       <c r="E532" s="4"/>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -15525,9 +14885,7 @@
       </c>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
-      <c r="D533" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D533" s="4"/>
       <c r="E533" s="4"/>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -15536,9 +14894,7 @@
       </c>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
-      <c r="D534" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D534" s="4"/>
       <c r="E534" s="4"/>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -15547,9 +14903,7 @@
       </c>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
-      <c r="D535" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D535" s="4"/>
       <c r="E535" s="4"/>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -15558,9 +14912,7 @@
       </c>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
-      <c r="D536" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D536" s="4"/>
       <c r="E536" s="4"/>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
@@ -15569,9 +14921,7 @@
       </c>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
-      <c r="D537" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D537" s="4"/>
       <c r="E537" s="4"/>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -15580,9 +14930,7 @@
       </c>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
-      <c r="D538" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D538" s="4"/>
       <c r="E538" s="4"/>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -15591,9 +14939,7 @@
       </c>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
-      <c r="D539" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D539" s="4"/>
       <c r="E539" s="4"/>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -15602,9 +14948,7 @@
       </c>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
-      <c r="D540" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D540" s="4"/>
       <c r="E540" s="4"/>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -15613,9 +14957,7 @@
       </c>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
-      <c r="D541" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D541" s="4"/>
       <c r="E541" s="4"/>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -15624,9 +14966,7 @@
       </c>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
-      <c r="D542" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D542" s="4"/>
       <c r="E542" s="4"/>
     </row>
     <row r="543" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15635,9 +14975,7 @@
       </c>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
-      <c r="D543" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D543" s="4"/>
       <c r="E543" s="4"/>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -15646,9 +14984,7 @@
       </c>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
-      <c r="D544" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D544" s="4"/>
       <c r="E544" s="4"/>
     </row>
     <row r="545" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15657,9 +14993,7 @@
       </c>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
-      <c r="D545" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D545" s="4"/>
       <c r="E545" s="4"/>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
@@ -15668,9 +15002,7 @@
       </c>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
-      <c r="D546" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D546" s="4"/>
       <c r="E546" s="4"/>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -15679,9 +15011,7 @@
       </c>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
-      <c r="D547" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D547" s="4"/>
       <c r="E547" s="4"/>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
@@ -15690,9 +15020,7 @@
       </c>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
-      <c r="D548" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D548" s="4"/>
       <c r="E548" s="4"/>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -15701,9 +15029,7 @@
       </c>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
-      <c r="D549" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D549" s="4"/>
       <c r="E549" s="4"/>
     </row>
     <row r="550" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15712,9 +15038,7 @@
       </c>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
-      <c r="D550" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D550" s="4"/>
       <c r="E550" s="4"/>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -15723,9 +15047,7 @@
       </c>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
-      <c r="D551" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D551" s="4"/>
       <c r="E551" s="4"/>
     </row>
     <row r="552" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15734,9 +15056,7 @@
       </c>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
-      <c r="D552" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D552" s="4"/>
       <c r="E552" s="4"/>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -15745,9 +15065,7 @@
       </c>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
-      <c r="D553" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D553" s="4"/>
       <c r="E553" s="4"/>
     </row>
     <row r="554" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15756,9 +15074,7 @@
       </c>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
-      <c r="D554" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D554" s="4"/>
       <c r="E554" s="4"/>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -15767,9 +15083,7 @@
       </c>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
-      <c r="D555" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D555" s="4"/>
       <c r="E555" s="4"/>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
@@ -15778,9 +15092,7 @@
       </c>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
-      <c r="D556" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D556" s="4"/>
       <c r="E556" s="4"/>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
@@ -15789,9 +15101,7 @@
       </c>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
-      <c r="D557" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D557" s="4"/>
       <c r="E557" s="4"/>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
@@ -15800,9 +15110,7 @@
       </c>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
-      <c r="D558" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D558" s="4"/>
       <c r="E558" s="4"/>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -15811,9 +15119,7 @@
       </c>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
-      <c r="D559" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D559" s="4"/>
       <c r="E559" s="4"/>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
@@ -15822,9 +15128,7 @@
       </c>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
-      <c r="D560" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D560" s="4"/>
       <c r="E560" s="4"/>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
@@ -15833,9 +15137,7 @@
       </c>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
-      <c r="D561" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D561" s="4"/>
       <c r="E561" s="4"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
@@ -15844,9 +15146,7 @@
       </c>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
-      <c r="D562" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D562" s="4"/>
       <c r="E562" s="4"/>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
@@ -15855,9 +15155,7 @@
       </c>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
-      <c r="D563" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D563" s="4"/>
       <c r="E563" s="4"/>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
@@ -15866,9 +15164,7 @@
       </c>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
-      <c r="D564" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D564" s="4"/>
       <c r="E564" s="4"/>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -15877,9 +15173,7 @@
       </c>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
-      <c r="D565" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D565" s="4"/>
       <c r="E565" s="4"/>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -15888,9 +15182,7 @@
       </c>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
-      <c r="D566" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D566" s="4"/>
       <c r="E566" s="4"/>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
@@ -15899,9 +15191,7 @@
       </c>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
-      <c r="D567" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D567" s="4"/>
       <c r="E567" s="4"/>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
@@ -15910,9 +15200,7 @@
       </c>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
-      <c r="D568" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D568" s="4"/>
       <c r="E568" s="4"/>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
@@ -15921,9 +15209,7 @@
       </c>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
-      <c r="D569" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D569" s="4"/>
       <c r="E569" s="4"/>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
@@ -15932,9 +15218,7 @@
       </c>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
-      <c r="D570" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D570" s="4"/>
       <c r="E570" s="4"/>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -15943,9 +15227,7 @@
       </c>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
-      <c r="D571" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D571" s="4"/>
       <c r="E571" s="4"/>
     </row>
     <row r="572" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15954,9 +15236,7 @@
       </c>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
-      <c r="D572" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D572" s="4"/>
       <c r="E572" s="4"/>
     </row>
     <row r="573" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15965,9 +15245,7 @@
       </c>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
-      <c r="D573" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D573" s="4"/>
       <c r="E573" s="4"/>
     </row>
     <row r="574" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -15976,9 +15254,7 @@
       </c>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
-      <c r="D574" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D574" s="4"/>
       <c r="E574" s="4"/>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -15987,9 +15263,7 @@
       </c>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
-      <c r="D575" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D575" s="4"/>
       <c r="E575" s="4"/>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -15998,9 +15272,7 @@
       </c>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
-      <c r="D576" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D576" s="4"/>
       <c r="E576" s="4"/>
     </row>
     <row r="577" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16009,9 +15281,7 @@
       </c>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
-      <c r="D577" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D577" s="4"/>
       <c r="E577" s="4"/>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -16020,9 +15290,7 @@
       </c>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
-      <c r="D578" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D578" s="4"/>
       <c r="E578" s="4"/>
     </row>
     <row r="579" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16031,9 +15299,7 @@
       </c>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
-      <c r="D579" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D579" s="4"/>
       <c r="E579" s="4"/>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -16042,9 +15308,7 @@
       </c>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
-      <c r="D580" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D580" s="4"/>
       <c r="E580" s="4"/>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -16053,9 +15317,7 @@
       </c>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
-      <c r="D581" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D581" s="4"/>
       <c r="E581" s="4"/>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
@@ -16064,9 +15326,7 @@
       </c>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
-      <c r="D582" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D582" s="4"/>
       <c r="E582" s="4"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
@@ -16075,9 +15335,7 @@
       </c>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
-      <c r="D583" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D583" s="4"/>
       <c r="E583" s="4"/>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -16086,9 +15344,7 @@
       </c>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
-      <c r="D584" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D584" s="4"/>
       <c r="E584" s="4"/>
     </row>
     <row r="585" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16097,9 +15353,7 @@
       </c>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
-      <c r="D585" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D585" s="4"/>
       <c r="E585" s="4"/>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
@@ -16108,9 +15362,7 @@
       </c>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
-      <c r="D586" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D586" s="4"/>
       <c r="E586" s="4"/>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -16119,9 +15371,7 @@
       </c>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
-      <c r="D587" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D587" s="4"/>
       <c r="E587" s="4"/>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -16130,9 +15380,7 @@
       </c>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
-      <c r="D588" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D588" s="4"/>
       <c r="E588" s="4"/>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -16141,9 +15389,7 @@
       </c>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
-      <c r="D589" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D589" s="4"/>
       <c r="E589" s="4"/>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
@@ -16152,9 +15398,7 @@
       </c>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
-      <c r="D590" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D590" s="4"/>
       <c r="E590" s="4"/>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -16163,9 +15407,7 @@
       </c>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
-      <c r="D591" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D591" s="4"/>
       <c r="E591" s="4"/>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -16174,9 +15416,7 @@
       </c>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
-      <c r="D592" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D592" s="4"/>
       <c r="E592" s="4"/>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -16185,9 +15425,7 @@
       </c>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
-      <c r="D593" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D593" s="4"/>
       <c r="E593" s="4"/>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -16196,9 +15434,7 @@
       </c>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
-      <c r="D594" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D594" s="4"/>
       <c r="E594" s="4"/>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -16207,9 +15443,7 @@
       </c>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
-      <c r="D595" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D595" s="4"/>
       <c r="E595" s="4"/>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
@@ -16218,9 +15452,7 @@
       </c>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
-      <c r="D596" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D596" s="4"/>
       <c r="E596" s="4"/>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -16229,9 +15461,7 @@
       </c>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
-      <c r="D597" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D597" s="4"/>
       <c r="E597" s="4"/>
     </row>
     <row r="598" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16240,9 +15470,7 @@
       </c>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
-      <c r="D598" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D598" s="4"/>
       <c r="E598" s="4"/>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -16251,9 +15479,7 @@
       </c>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
-      <c r="D599" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D599" s="4"/>
       <c r="E599" s="4"/>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -16262,9 +15488,7 @@
       </c>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
-      <c r="D600" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D600" s="4"/>
       <c r="E600" s="4"/>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -16273,9 +15497,7 @@
       </c>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
-      <c r="D601" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D601" s="4"/>
       <c r="E601" s="4"/>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -16284,9 +15506,7 @@
       </c>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
-      <c r="D602" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D602" s="4"/>
       <c r="E602" s="4"/>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -16295,9 +15515,7 @@
       </c>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
-      <c r="D603" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D603" s="4"/>
       <c r="E603" s="4"/>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -16306,9 +15524,7 @@
       </c>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
-      <c r="D604" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D604" s="4"/>
       <c r="E604" s="4"/>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -16317,9 +15533,7 @@
       </c>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
-      <c r="D605" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D605" s="4"/>
       <c r="E605" s="4"/>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -16328,9 +15542,7 @@
       </c>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
-      <c r="D606" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D606" s="4"/>
       <c r="E606" s="4"/>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -16339,9 +15551,7 @@
       </c>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
-      <c r="D607" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D607" s="4"/>
       <c r="E607" s="4"/>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -16350,9 +15560,7 @@
       </c>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
-      <c r="D608" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D608" s="4"/>
       <c r="E608" s="4"/>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -16361,9 +15569,7 @@
       </c>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
-      <c r="D609" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D609" s="4"/>
       <c r="E609" s="4"/>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
@@ -16372,9 +15578,7 @@
       </c>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
-      <c r="D610" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D610" s="4"/>
       <c r="E610" s="4"/>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -16383,9 +15587,7 @@
       </c>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
-      <c r="D611" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D611" s="4"/>
       <c r="E611" s="4"/>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -16394,9 +15596,7 @@
       </c>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
-      <c r="D612" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D612" s="4"/>
       <c r="E612" s="4"/>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -16405,9 +15605,7 @@
       </c>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
-      <c r="D613" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D613" s="4"/>
       <c r="E613" s="4"/>
     </row>
     <row r="614" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16416,9 +15614,7 @@
       </c>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
-      <c r="D614" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D614" s="4"/>
       <c r="E614" s="4"/>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -16427,9 +15623,7 @@
       </c>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
-      <c r="D615" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D615" s="4"/>
       <c r="E615" s="4"/>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
@@ -16438,9 +15632,7 @@
       </c>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
-      <c r="D616" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D616" s="4"/>
       <c r="E616" s="4"/>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -16449,9 +15641,7 @@
       </c>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
-      <c r="D617" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D617" s="4"/>
       <c r="E617" s="4"/>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -16460,9 +15650,7 @@
       </c>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
-      <c r="D618" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D618" s="4"/>
       <c r="E618" s="4"/>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -16471,9 +15659,7 @@
       </c>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
-      <c r="D619" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D619" s="4"/>
       <c r="E619" s="4"/>
     </row>
     <row r="620" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16482,9 +15668,7 @@
       </c>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
-      <c r="D620" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D620" s="4"/>
       <c r="E620" s="4"/>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
@@ -16493,9 +15677,7 @@
       </c>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
-      <c r="D621" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D621" s="4"/>
       <c r="E621" s="4"/>
     </row>
     <row r="622" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16504,9 +15686,7 @@
       </c>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
-      <c r="D622" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D622" s="4"/>
       <c r="E622" s="4"/>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -16515,9 +15695,7 @@
       </c>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
-      <c r="D623" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D623" s="4"/>
       <c r="E623" s="4"/>
     </row>
     <row r="624" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16526,9 +15704,7 @@
       </c>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
-      <c r="D624" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D624" s="4"/>
       <c r="E624" s="4"/>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -16537,9 +15713,7 @@
       </c>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
-      <c r="D625" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D625" s="4"/>
       <c r="E625" s="4"/>
     </row>
     <row r="626" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16548,9 +15722,7 @@
       </c>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
-      <c r="D626" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D626" s="4"/>
       <c r="E626" s="4"/>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -16559,9 +15731,7 @@
       </c>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
-      <c r="D627" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D627" s="4"/>
       <c r="E627" s="4"/>
     </row>
     <row r="628" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16570,9 +15740,7 @@
       </c>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
-      <c r="D628" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D628" s="4"/>
       <c r="E628" s="4"/>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -16581,9 +15749,7 @@
       </c>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
-      <c r="D629" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D629" s="4"/>
       <c r="E629" s="4"/>
     </row>
     <row r="630" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16592,9 +15758,7 @@
       </c>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
-      <c r="D630" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D630" s="4"/>
       <c r="E630" s="4"/>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -16603,9 +15767,7 @@
       </c>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
-      <c r="D631" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D631" s="4"/>
       <c r="E631" s="4"/>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -16614,9 +15776,7 @@
       </c>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
-      <c r="D632" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D632" s="4"/>
       <c r="E632" s="4"/>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -16625,9 +15785,7 @@
       </c>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
-      <c r="D633" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D633" s="4"/>
       <c r="E633" s="4"/>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
@@ -16636,9 +15794,7 @@
       </c>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
-      <c r="D634" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D634" s="4"/>
       <c r="E634" s="4"/>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
@@ -16647,9 +15803,7 @@
       </c>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
-      <c r="D635" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D635" s="4"/>
       <c r="E635" s="4"/>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
@@ -16658,9 +15812,7 @@
       </c>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
-      <c r="D636" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D636" s="4"/>
       <c r="E636" s="4"/>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
@@ -16669,9 +15821,7 @@
       </c>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
-      <c r="D637" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D637" s="4"/>
       <c r="E637" s="4"/>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -16680,9 +15830,7 @@
       </c>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
-      <c r="D638" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D638" s="4"/>
       <c r="E638" s="4"/>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -16691,9 +15839,7 @@
       </c>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
-      <c r="D639" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D639" s="4"/>
       <c r="E639" s="4"/>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -16702,9 +15848,7 @@
       </c>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
-      <c r="D640" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D640" s="4"/>
       <c r="E640" s="4"/>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -16713,9 +15857,7 @@
       </c>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
-      <c r="D641" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D641" s="4"/>
       <c r="E641" s="4"/>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
@@ -16724,9 +15866,7 @@
       </c>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
-      <c r="D642" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D642" s="4"/>
       <c r="E642" s="4"/>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
@@ -16735,9 +15875,7 @@
       </c>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
-      <c r="D643" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D643" s="4"/>
       <c r="E643" s="4"/>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
@@ -16746,9 +15884,7 @@
       </c>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
-      <c r="D644" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D644" s="4"/>
       <c r="E644" s="4"/>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
@@ -16757,9 +15893,7 @@
       </c>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
-      <c r="D645" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D645" s="4"/>
       <c r="E645" s="4"/>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -16768,9 +15902,7 @@
       </c>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
-      <c r="D646" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D646" s="4"/>
       <c r="E646" s="4"/>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
@@ -16779,9 +15911,7 @@
       </c>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
-      <c r="D647" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D647" s="4"/>
       <c r="E647" s="4"/>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -16790,9 +15920,7 @@
       </c>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
-      <c r="D648" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D648" s="4"/>
       <c r="E648" s="4"/>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
@@ -16801,9 +15929,7 @@
       </c>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
-      <c r="D649" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D649" s="4"/>
       <c r="E649" s="4"/>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
@@ -16812,9 +15938,7 @@
       </c>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
-      <c r="D650" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D650" s="4"/>
       <c r="E650" s="4"/>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
@@ -16823,9 +15947,7 @@
       </c>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
-      <c r="D651" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D651" s="4"/>
       <c r="E651" s="4"/>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
@@ -16834,9 +15956,7 @@
       </c>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
-      <c r="D652" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D652" s="4"/>
       <c r="E652" s="4"/>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
@@ -16845,9 +15965,7 @@
       </c>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
-      <c r="D653" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D653" s="4"/>
       <c r="E653" s="4"/>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -16856,9 +15974,7 @@
       </c>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
-      <c r="D654" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D654" s="4"/>
       <c r="E654" s="4"/>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -16867,9 +15983,7 @@
       </c>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
-      <c r="D655" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D655" s="4"/>
       <c r="E655" s="4"/>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
@@ -16878,9 +15992,7 @@
       </c>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
-      <c r="D656" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D656" s="4"/>
       <c r="E656" s="4"/>
     </row>
     <row r="657" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16889,9 +16001,7 @@
       </c>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
-      <c r="D657" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D657" s="4"/>
       <c r="E657" s="4"/>
     </row>
     <row r="658" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16900,9 +16010,7 @@
       </c>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
-      <c r="D658" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D658" s="4"/>
       <c r="E658" s="4"/>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
@@ -16911,9 +16019,7 @@
       </c>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
-      <c r="D659" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D659" s="4"/>
       <c r="E659" s="4"/>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -16922,9 +16028,7 @@
       </c>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
-      <c r="D660" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D660" s="4"/>
       <c r="E660" s="4"/>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
@@ -16933,9 +16037,7 @@
       </c>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
-      <c r="D661" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D661" s="4"/>
       <c r="E661" s="4"/>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
@@ -16944,9 +16046,7 @@
       </c>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
-      <c r="D662" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D662" s="4"/>
       <c r="E662" s="4"/>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
@@ -16955,9 +16055,7 @@
       </c>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
-      <c r="D663" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D663" s="4"/>
       <c r="E663" s="4"/>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
@@ -16966,9 +16064,7 @@
       </c>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
-      <c r="D664" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D664" s="4"/>
       <c r="E664" s="4"/>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -16977,9 +16073,7 @@
       </c>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
-      <c r="D665" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D665" s="4"/>
       <c r="E665" s="4"/>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
@@ -16988,9 +16082,7 @@
       </c>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
-      <c r="D666" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D666" s="4"/>
       <c r="E666" s="4"/>
     </row>
     <row r="667" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -16999,9 +16091,7 @@
       </c>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
-      <c r="D667" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D667" s="4"/>
       <c r="E667" s="4"/>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
@@ -17010,9 +16100,7 @@
       </c>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
-      <c r="D668" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D668" s="4"/>
       <c r="E668" s="4"/>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
@@ -17021,9 +16109,7 @@
       </c>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
-      <c r="D669" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D669" s="4"/>
       <c r="E669" s="4"/>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
@@ -17032,9 +16118,7 @@
       </c>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
-      <c r="D670" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D670" s="4"/>
       <c r="E670" s="4"/>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
@@ -17043,9 +16127,7 @@
       </c>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
-      <c r="D671" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D671" s="4"/>
       <c r="E671" s="4"/>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -17054,9 +16136,7 @@
       </c>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
-      <c r="D672" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D672" s="4"/>
       <c r="E672" s="4"/>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -17065,9 +16145,7 @@
       </c>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
-      <c r="D673" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D673" s="4"/>
       <c r="E673" s="4"/>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
@@ -17076,9 +16154,7 @@
       </c>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
-      <c r="D674" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D674" s="4"/>
       <c r="E674" s="4"/>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
@@ -17087,9 +16163,7 @@
       </c>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
-      <c r="D675" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D675" s="4"/>
       <c r="E675" s="4"/>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
@@ -17098,9 +16172,7 @@
       </c>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
-      <c r="D676" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D676" s="4"/>
       <c r="E676" s="4"/>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
@@ -17109,9 +16181,7 @@
       </c>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
-      <c r="D677" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D677" s="4"/>
       <c r="E677" s="4"/>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
@@ -17120,9 +16190,7 @@
       </c>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
-      <c r="D678" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D678" s="4"/>
       <c r="E678" s="4"/>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
@@ -17131,9 +16199,7 @@
       </c>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
-      <c r="D679" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D679" s="4"/>
       <c r="E679" s="4"/>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
@@ -17142,9 +16208,7 @@
       </c>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
-      <c r="D680" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D680" s="4"/>
       <c r="E680" s="4"/>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
@@ -17153,9 +16217,7 @@
       </c>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
-      <c r="D681" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D681" s="4"/>
       <c r="E681" s="4"/>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
@@ -17164,9 +16226,7 @@
       </c>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
-      <c r="D682" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D682" s="4"/>
       <c r="E682" s="4"/>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
@@ -17175,9 +16235,7 @@
       </c>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
-      <c r="D683" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D683" s="4"/>
       <c r="E683" s="4"/>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
@@ -17186,9 +16244,7 @@
       </c>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
-      <c r="D684" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D684" s="4"/>
       <c r="E684" s="4"/>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
@@ -17197,9 +16253,7 @@
       </c>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
-      <c r="D685" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D685" s="4"/>
       <c r="E685" s="4"/>
     </row>
     <row r="686" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17208,9 +16262,7 @@
       </c>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
-      <c r="D686" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D686" s="4"/>
       <c r="E686" s="4"/>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
@@ -17219,9 +16271,7 @@
       </c>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
-      <c r="D687" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D687" s="4"/>
       <c r="E687" s="4"/>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
@@ -17230,9 +16280,7 @@
       </c>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
-      <c r="D688" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D688" s="4"/>
       <c r="E688" s="4"/>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
@@ -17241,9 +16289,7 @@
       </c>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
-      <c r="D689" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D689" s="4"/>
       <c r="E689" s="4"/>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
@@ -17252,9 +16298,7 @@
       </c>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
-      <c r="D690" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D690" s="4"/>
       <c r="E690" s="4"/>
     </row>
     <row r="691" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17263,9 +16307,7 @@
       </c>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
-      <c r="D691" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D691" s="4"/>
       <c r="E691" s="4"/>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
@@ -17274,9 +16316,7 @@
       </c>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
-      <c r="D692" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D692" s="4"/>
       <c r="E692" s="4"/>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
@@ -17285,9 +16325,7 @@
       </c>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
-      <c r="D693" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D693" s="4"/>
       <c r="E693" s="4"/>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
@@ -17296,9 +16334,7 @@
       </c>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
-      <c r="D694" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D694" s="4"/>
       <c r="E694" s="4"/>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
@@ -17307,9 +16343,7 @@
       </c>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
-      <c r="D695" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D695" s="4"/>
       <c r="E695" s="4"/>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
@@ -17318,9 +16352,7 @@
       </c>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
-      <c r="D696" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D696" s="4"/>
       <c r="E696" s="4"/>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
@@ -17329,9 +16361,7 @@
       </c>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
-      <c r="D697" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D697" s="4"/>
       <c r="E697" s="4"/>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
@@ -17340,9 +16370,7 @@
       </c>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
-      <c r="D698" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D698" s="4"/>
       <c r="E698" s="4"/>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
@@ -17351,9 +16379,7 @@
       </c>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
-      <c r="D699" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D699" s="4"/>
       <c r="E699" s="4"/>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
@@ -17362,9 +16388,7 @@
       </c>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
-      <c r="D700" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D700" s="4"/>
       <c r="E700" s="4"/>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
@@ -17373,9 +16397,7 @@
       </c>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
-      <c r="D701" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D701" s="4"/>
       <c r="E701" s="4"/>
     </row>
     <row r="702" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17384,9 +16406,7 @@
       </c>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
-      <c r="D702" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D702" s="4"/>
       <c r="E702" s="4"/>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
@@ -17395,9 +16415,7 @@
       </c>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
-      <c r="D703" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D703" s="4"/>
       <c r="E703" s="4"/>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
@@ -17406,9 +16424,7 @@
       </c>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
-      <c r="D704" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D704" s="4"/>
       <c r="E704" s="4"/>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
@@ -17417,9 +16433,7 @@
       </c>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
-      <c r="D705" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D705" s="4"/>
       <c r="E705" s="4"/>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
@@ -17428,9 +16442,7 @@
       </c>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
-      <c r="D706" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D706" s="4"/>
       <c r="E706" s="4"/>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
@@ -17439,9 +16451,7 @@
       </c>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
-      <c r="D707" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D707" s="4"/>
       <c r="E707" s="4"/>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
@@ -17450,9 +16460,7 @@
       </c>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
-      <c r="D708" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D708" s="4"/>
       <c r="E708" s="4"/>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
@@ -17461,9 +16469,7 @@
       </c>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
-      <c r="D709" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D709" s="4"/>
       <c r="E709" s="4"/>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
@@ -17472,9 +16478,7 @@
       </c>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
-      <c r="D710" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D710" s="4"/>
       <c r="E710" s="4"/>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
@@ -17483,9 +16487,7 @@
       </c>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
-      <c r="D711" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D711" s="4"/>
       <c r="E711" s="4"/>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
@@ -17494,9 +16496,7 @@
       </c>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
-      <c r="D712" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D712" s="4"/>
       <c r="E712" s="4"/>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
@@ -17505,9 +16505,7 @@
       </c>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
-      <c r="D713" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D713" s="4"/>
       <c r="E713" s="4"/>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
@@ -17516,9 +16514,7 @@
       </c>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
-      <c r="D714" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D714" s="4"/>
       <c r="E714" s="4"/>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
@@ -17527,9 +16523,7 @@
       </c>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
-      <c r="D715" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D715" s="4"/>
       <c r="E715" s="4"/>
     </row>
     <row r="716" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17538,9 +16532,7 @@
       </c>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
-      <c r="D716" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D716" s="4"/>
       <c r="E716" s="4"/>
     </row>
     <row r="717" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17549,9 +16541,7 @@
       </c>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
-      <c r="D717" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D717" s="4"/>
       <c r="E717" s="4"/>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
@@ -17560,9 +16550,7 @@
       </c>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
-      <c r="D718" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D718" s="4"/>
       <c r="E718" s="4"/>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
@@ -17571,9 +16559,7 @@
       </c>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
-      <c r="D719" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D719" s="4"/>
       <c r="E719" s="4"/>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
@@ -17582,9 +16568,7 @@
       </c>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
-      <c r="D720" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D720" s="4"/>
       <c r="E720" s="4"/>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
@@ -17593,9 +16577,7 @@
       </c>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
-      <c r="D721" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D721" s="4"/>
       <c r="E721" s="4"/>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
@@ -17604,9 +16586,7 @@
       </c>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
-      <c r="D722" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D722" s="4"/>
       <c r="E722" s="4"/>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
@@ -17615,9 +16595,7 @@
       </c>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
-      <c r="D723" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D723" s="4"/>
       <c r="E723" s="4"/>
     </row>
     <row r="724" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -17626,9 +16604,7 @@
       </c>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
-      <c r="D724" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D724" s="4"/>
       <c r="E724" s="4"/>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
@@ -17637,9 +16613,7 @@
       </c>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
-      <c r="D725" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D725" s="4"/>
       <c r="E725" s="4"/>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
@@ -17648,9 +16622,7 @@
       </c>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
-      <c r="D726" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D726" s="4"/>
       <c r="E726" s="4"/>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
@@ -17659,9 +16631,7 @@
       </c>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
-      <c r="D727" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D727" s="4"/>
       <c r="E727" s="4"/>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
@@ -17670,9 +16640,7 @@
       </c>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
-      <c r="D728" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D728" s="4"/>
       <c r="E728" s="4"/>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
@@ -17681,9 +16649,7 @@
       </c>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
-      <c r="D729" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D729" s="4"/>
       <c r="E729" s="4"/>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
@@ -17692,9 +16658,7 @@
       </c>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
-      <c r="D730" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D730" s="4"/>
       <c r="E730" s="4"/>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
@@ -17703,9 +16667,7 @@
       </c>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
-      <c r="D731" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D731" s="4"/>
       <c r="E731" s="4"/>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
@@ -17714,9 +16676,7 @@
       </c>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
-      <c r="D732" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D732" s="4"/>
       <c r="E732" s="4"/>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
@@ -17725,9 +16685,7 @@
       </c>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
-      <c r="D733" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D733" s="4"/>
       <c r="E733" s="4"/>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
@@ -17736,9 +16694,7 @@
       </c>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
-      <c r="D734" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D734" s="4"/>
       <c r="E734" s="4"/>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
@@ -17747,9 +16703,7 @@
       </c>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
-      <c r="D735" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D735" s="4"/>
       <c r="E735" s="4"/>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
@@ -17758,9 +16712,7 @@
       </c>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
-      <c r="D736" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D736" s="4"/>
       <c r="E736" s="4"/>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
@@ -17769,9 +16721,7 @@
       </c>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
-      <c r="D737" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D737" s="4"/>
       <c r="E737" s="4"/>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
@@ -17780,9 +16730,7 @@
       </c>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
-      <c r="D738" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D738" s="4"/>
       <c r="E738" s="4"/>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
@@ -17791,9 +16739,7 @@
       </c>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
-      <c r="D739" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D739" s="4"/>
       <c r="E739" s="4"/>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
@@ -17802,9 +16748,7 @@
       </c>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
-      <c r="D740" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D740" s="4"/>
       <c r="E740" s="4"/>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
@@ -17813,9 +16757,7 @@
       </c>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
-      <c r="D741" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D741" s="4"/>
       <c r="E741" s="4"/>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
@@ -17824,9 +16766,7 @@
       </c>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
-      <c r="D742" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D742" s="4"/>
       <c r="E742" s="4"/>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
@@ -17835,9 +16775,7 @@
       </c>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
-      <c r="D743" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D743" s="4"/>
       <c r="E743" s="4"/>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
@@ -17846,9 +16784,7 @@
       </c>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
-      <c r="D744" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D744" s="4"/>
       <c r="E744" s="4"/>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
@@ -17857,9 +16793,7 @@
       </c>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
-      <c r="D745" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D745" s="4"/>
       <c r="E745" s="4"/>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
@@ -17868,9 +16802,7 @@
       </c>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
-      <c r="D746" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D746" s="4"/>
       <c r="E746" s="4"/>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
@@ -17879,9 +16811,7 @@
       </c>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
-      <c r="D747" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D747" s="4"/>
       <c r="E747" s="4"/>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
@@ -17890,9 +16820,7 @@
       </c>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
-      <c r="D748" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D748" s="4"/>
       <c r="E748" s="4"/>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
@@ -17901,9 +16829,7 @@
       </c>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
-      <c r="D749" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D749" s="4"/>
       <c r="E749" s="4"/>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
@@ -17912,9 +16838,7 @@
       </c>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
-      <c r="D750" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D750" s="4"/>
       <c r="E750" s="4"/>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
@@ -17923,9 +16847,7 @@
       </c>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
-      <c r="D751" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D751" s="4"/>
       <c r="E751" s="4"/>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
@@ -17934,9 +16856,7 @@
       </c>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
-      <c r="D752" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D752" s="4"/>
       <c r="E752" s="4"/>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
@@ -17945,9 +16865,7 @@
       </c>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
-      <c r="D753" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D753" s="4"/>
       <c r="E753" s="4"/>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
@@ -17956,9 +16874,7 @@
       </c>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
-      <c r="D754" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D754" s="4"/>
       <c r="E754" s="4"/>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
@@ -17967,9 +16883,7 @@
       </c>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
-      <c r="D755" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D755" s="4"/>
       <c r="E755" s="4"/>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
@@ -17978,9 +16892,7 @@
       </c>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
-      <c r="D756" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D756" s="4"/>
       <c r="E756" s="4"/>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
@@ -17989,9 +16901,7 @@
       </c>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
-      <c r="D757" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D757" s="4"/>
       <c r="E757" s="4"/>
     </row>
     <row r="758" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18000,9 +16910,7 @@
       </c>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
-      <c r="D758" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D758" s="4"/>
       <c r="E758" s="4"/>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
@@ -18011,9 +16919,7 @@
       </c>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
-      <c r="D759" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D759" s="4"/>
       <c r="E759" s="4"/>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
@@ -18022,9 +16928,7 @@
       </c>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
-      <c r="D760" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D760" s="4"/>
       <c r="E760" s="4"/>
     </row>
     <row r="761" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18033,9 +16937,7 @@
       </c>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
-      <c r="D761" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D761" s="4"/>
       <c r="E761" s="4"/>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
@@ -18044,9 +16946,7 @@
       </c>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
-      <c r="D762" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D762" s="4"/>
       <c r="E762" s="4"/>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
@@ -18055,9 +16955,7 @@
       </c>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
-      <c r="D763" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D763" s="4"/>
       <c r="E763" s="4"/>
     </row>
     <row r="764" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18066,9 +16964,7 @@
       </c>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
-      <c r="D764" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D764" s="4"/>
       <c r="E764" s="4"/>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
@@ -18077,9 +16973,7 @@
       </c>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
-      <c r="D765" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D765" s="4"/>
       <c r="E765" s="4"/>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
@@ -18088,9 +16982,7 @@
       </c>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
-      <c r="D766" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D766" s="4"/>
       <c r="E766" s="4"/>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
@@ -18099,9 +16991,7 @@
       </c>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
-      <c r="D767" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D767" s="4"/>
       <c r="E767" s="4"/>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
@@ -18110,9 +17000,7 @@
       </c>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
-      <c r="D768" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D768" s="4"/>
       <c r="E768" s="4"/>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
@@ -18121,9 +17009,7 @@
       </c>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
-      <c r="D769" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D769" s="4"/>
       <c r="E769" s="4"/>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
@@ -18132,9 +17018,7 @@
       </c>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
-      <c r="D770" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D770" s="4"/>
       <c r="E770" s="4"/>
     </row>
     <row r="771" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18143,9 +17027,7 @@
       </c>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
-      <c r="D771" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D771" s="4"/>
       <c r="E771" s="4"/>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
@@ -18154,9 +17036,7 @@
       </c>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
-      <c r="D772" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D772" s="4"/>
       <c r="E772" s="4"/>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
@@ -18165,9 +17045,7 @@
       </c>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
-      <c r="D773" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D773" s="4"/>
       <c r="E773" s="4"/>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
@@ -18176,9 +17054,7 @@
       </c>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
-      <c r="D774" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D774" s="4"/>
       <c r="E774" s="4"/>
     </row>
     <row r="775" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18187,9 +17063,7 @@
       </c>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
-      <c r="D775" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D775" s="4"/>
       <c r="E775" s="4"/>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
@@ -18198,9 +17072,7 @@
       </c>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
-      <c r="D776" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D776" s="4"/>
       <c r="E776" s="4"/>
     </row>
     <row r="777" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18209,9 +17081,7 @@
       </c>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
-      <c r="D777" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D777" s="4"/>
       <c r="E777" s="4"/>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
@@ -18220,9 +17090,7 @@
       </c>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
-      <c r="D778" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D778" s="4"/>
       <c r="E778" s="4"/>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
@@ -18231,9 +17099,7 @@
       </c>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
-      <c r="D779" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D779" s="4"/>
       <c r="E779" s="4"/>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
@@ -18242,9 +17108,7 @@
       </c>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
-      <c r="D780" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D780" s="4"/>
       <c r="E780" s="4"/>
     </row>
     <row r="781" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18253,9 +17117,7 @@
       </c>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
-      <c r="D781" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D781" s="4"/>
       <c r="E781" s="4"/>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
@@ -18264,9 +17126,7 @@
       </c>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
-      <c r="D782" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D782" s="4"/>
       <c r="E782" s="4"/>
     </row>
     <row r="783" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18275,9 +17135,7 @@
       </c>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
-      <c r="D783" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D783" s="4"/>
       <c r="E783" s="4"/>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
@@ -18286,9 +17144,7 @@
       </c>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
-      <c r="D784" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D784" s="4"/>
       <c r="E784" s="4"/>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
@@ -18297,9 +17153,7 @@
       </c>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
-      <c r="D785" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D785" s="4"/>
       <c r="E785" s="4"/>
     </row>
     <row r="786" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -18308,9 +17162,7 @@
       </c>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
-      <c r="D786" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D786" s="4"/>
       <c r="E786" s="4"/>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
@@ -18319,9 +17171,7 @@
       </c>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
-      <c r="D787" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D787" s="4"/>
       <c r="E787" s="4"/>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
@@ -18330,9 +17180,7 @@
       </c>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
-      <c r="D788" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D788" s="4"/>
       <c r="E788" s="4"/>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
@@ -18341,9 +17189,7 @@
       </c>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
-      <c r="D789" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D789" s="4"/>
       <c r="E789" s="4"/>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
@@ -18352,9 +17198,7 @@
       </c>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
-      <c r="D790" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D790" s="4"/>
       <c r="E790" s="4"/>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
@@ -18363,9 +17207,7 @@
       </c>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
-      <c r="D791" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D791" s="4"/>
       <c r="E791" s="4"/>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
@@ -18374,9 +17216,7 @@
       </c>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
-      <c r="D792" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D792" s="4"/>
       <c r="E792" s="4"/>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
@@ -18385,9 +17225,7 @@
       </c>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
-      <c r="D793" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D793" s="4"/>
       <c r="E793" s="4"/>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
@@ -18396,9 +17234,7 @@
       </c>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
-      <c r="D794" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D794" s="4"/>
       <c r="E794" s="4"/>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
@@ -18407,9 +17243,7 @@
       </c>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
-      <c r="D795" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D795" s="4"/>
       <c r="E795" s="4"/>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
@@ -18418,9 +17252,7 @@
       </c>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
-      <c r="D796" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D796" s="4"/>
       <c r="E796" s="4"/>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
@@ -18429,9 +17261,7 @@
       </c>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
-      <c r="D797" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D797" s="4"/>
       <c r="E797" s="4"/>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
@@ -18440,9 +17270,7 @@
       </c>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
-      <c r="D798" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D798" s="4"/>
       <c r="E798" s="4"/>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
@@ -18451,9 +17279,7 @@
       </c>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
-      <c r="D799" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D799" s="4"/>
       <c r="E799" s="4"/>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
@@ -19243,9 +18069,7 @@
       </c>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
-      <c r="D871" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D871" s="4"/>
       <c r="E871" s="4"/>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
@@ -19254,9 +18078,7 @@
       </c>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
-      <c r="D872" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D872" s="4"/>
       <c r="E872" s="4"/>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
@@ -19265,9 +18087,7 @@
       </c>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
-      <c r="D873" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D873" s="4"/>
       <c r="E873" s="4"/>
     </row>
     <row r="874" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19276,9 +18096,7 @@
       </c>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
-      <c r="D874" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D874" s="4"/>
       <c r="E874" s="4"/>
     </row>
     <row r="875" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19287,9 +18105,7 @@
       </c>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
-      <c r="D875" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D875" s="4"/>
       <c r="E875" s="4"/>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
@@ -19298,9 +18114,7 @@
       </c>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
-      <c r="D876" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D876" s="4"/>
       <c r="E876" s="4"/>
     </row>
     <row r="877" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19309,9 +18123,7 @@
       </c>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
-      <c r="D877" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D877" s="4"/>
       <c r="E877" s="4"/>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
@@ -19320,9 +18132,7 @@
       </c>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
-      <c r="D878" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D878" s="4"/>
       <c r="E878" s="4"/>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
@@ -19331,9 +18141,7 @@
       </c>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
-      <c r="D879" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D879" s="4"/>
       <c r="E879" s="4"/>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
@@ -19342,9 +18150,7 @@
       </c>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
-      <c r="D880" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D880" s="4"/>
       <c r="E880" s="4"/>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
@@ -19353,9 +18159,7 @@
       </c>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
-      <c r="D881" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D881" s="4"/>
       <c r="E881" s="4"/>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
@@ -19364,9 +18168,7 @@
       </c>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
-      <c r="D882" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D882" s="4"/>
       <c r="E882" s="4"/>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
@@ -19375,9 +18177,7 @@
       </c>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
-      <c r="D883" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D883" s="4"/>
       <c r="E883" s="4"/>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
@@ -19386,9 +18186,7 @@
       </c>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
-      <c r="D884" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D884" s="4"/>
       <c r="E884" s="4"/>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
@@ -19397,9 +18195,7 @@
       </c>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
-      <c r="D885" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D885" s="4"/>
       <c r="E885" s="4"/>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
@@ -19408,9 +18204,7 @@
       </c>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
-      <c r="D886" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D886" s="4"/>
       <c r="E886" s="4"/>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
@@ -19419,9 +18213,7 @@
       </c>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
-      <c r="D887" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D887" s="4"/>
       <c r="E887" s="4"/>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
@@ -19430,9 +18222,7 @@
       </c>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
-      <c r="D888" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D888" s="4"/>
       <c r="E888" s="4"/>
     </row>
     <row r="889" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19441,9 +18231,7 @@
       </c>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
-      <c r="D889" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D889" s="4"/>
       <c r="E889" s="4"/>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
@@ -19452,9 +18240,7 @@
       </c>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
-      <c r="D890" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D890" s="4"/>
       <c r="E890" s="4"/>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
@@ -19463,9 +18249,7 @@
       </c>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
-      <c r="D891" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D891" s="4"/>
       <c r="E891" s="4"/>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.25">
@@ -19474,9 +18258,7 @@
       </c>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
-      <c r="D892" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D892" s="4"/>
       <c r="E892" s="4"/>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
@@ -19485,9 +18267,7 @@
       </c>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
-      <c r="D893" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D893" s="4"/>
       <c r="E893" s="4"/>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
@@ -19496,9 +18276,7 @@
       </c>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
-      <c r="D894" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D894" s="4"/>
       <c r="E894" s="4"/>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
@@ -19507,9 +18285,7 @@
       </c>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
-      <c r="D895" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D895" s="4"/>
       <c r="E895" s="4"/>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
@@ -19518,9 +18294,7 @@
       </c>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
-      <c r="D896" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D896" s="4"/>
       <c r="E896" s="4"/>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
@@ -19529,9 +18303,7 @@
       </c>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
-      <c r="D897" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D897" s="4"/>
       <c r="E897" s="4"/>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
@@ -19540,9 +18312,7 @@
       </c>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
-      <c r="D898" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D898" s="4"/>
       <c r="E898" s="4"/>
     </row>
     <row r="899" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19551,9 +18321,7 @@
       </c>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
-      <c r="D899" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D899" s="4"/>
       <c r="E899" s="4"/>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
@@ -19562,9 +18330,7 @@
       </c>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
-      <c r="D900" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D900" s="4"/>
       <c r="E900" s="4"/>
     </row>
     <row r="901" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19573,9 +18339,7 @@
       </c>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
-      <c r="D901" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D901" s="4"/>
       <c r="E901" s="4"/>
     </row>
     <row r="902" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19584,9 +18348,7 @@
       </c>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
-      <c r="D902" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D902" s="4"/>
       <c r="E902" s="4"/>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
@@ -19595,9 +18357,7 @@
       </c>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
-      <c r="D903" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D903" s="4"/>
       <c r="E903" s="4"/>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
@@ -19606,9 +18366,7 @@
       </c>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
-      <c r="D904" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D904" s="4"/>
       <c r="E904" s="4"/>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
@@ -19617,9 +18375,7 @@
       </c>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
-      <c r="D905" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D905" s="4"/>
       <c r="E905" s="4"/>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
@@ -19628,9 +18384,7 @@
       </c>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
-      <c r="D906" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D906" s="4"/>
       <c r="E906" s="4"/>
     </row>
     <row r="907" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19639,9 +18393,7 @@
       </c>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
-      <c r="D907" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D907" s="4"/>
       <c r="E907" s="4"/>
     </row>
     <row r="908" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19650,9 +18402,7 @@
       </c>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
-      <c r="D908" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D908" s="4"/>
       <c r="E908" s="4"/>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
@@ -19661,9 +18411,7 @@
       </c>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
-      <c r="D909" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D909" s="4"/>
       <c r="E909" s="4"/>
     </row>
     <row r="910" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19672,9 +18420,7 @@
       </c>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
-      <c r="D910" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D910" s="4"/>
       <c r="E910" s="4"/>
     </row>
     <row r="911" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19683,9 +18429,7 @@
       </c>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
-      <c r="D911" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D911" s="4"/>
       <c r="E911" s="4"/>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
@@ -19694,9 +18438,7 @@
       </c>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
-      <c r="D912" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D912" s="4"/>
       <c r="E912" s="4"/>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
@@ -19705,9 +18447,7 @@
       </c>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
-      <c r="D913" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D913" s="4"/>
       <c r="E913" s="4"/>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
@@ -19716,9 +18456,7 @@
       </c>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
-      <c r="D914" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D914" s="4"/>
       <c r="E914" s="4"/>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
@@ -19727,9 +18465,7 @@
       </c>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
-      <c r="D915" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D915" s="4"/>
       <c r="E915" s="4"/>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
@@ -19738,9 +18474,7 @@
       </c>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
-      <c r="D916" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D916" s="4"/>
       <c r="E916" s="4"/>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
@@ -19749,9 +18483,7 @@
       </c>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
-      <c r="D917" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D917" s="4"/>
       <c r="E917" s="4"/>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
@@ -19760,9 +18492,7 @@
       </c>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
-      <c r="D918" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D918" s="4"/>
       <c r="E918" s="4"/>
     </row>
     <row r="919" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19771,9 +18501,7 @@
       </c>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
-      <c r="D919" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D919" s="4"/>
       <c r="E919" s="4"/>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
@@ -19782,9 +18510,7 @@
       </c>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
-      <c r="D920" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D920" s="4"/>
       <c r="E920" s="4"/>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
@@ -19793,9 +18519,7 @@
       </c>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
-      <c r="D921" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D921" s="4"/>
       <c r="E921" s="4"/>
     </row>
     <row r="922" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19804,9 +18528,7 @@
       </c>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
-      <c r="D922" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D922" s="4"/>
       <c r="E922" s="4"/>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
@@ -19815,9 +18537,7 @@
       </c>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
-      <c r="D923" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D923" s="4"/>
       <c r="E923" s="4"/>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
@@ -19826,9 +18546,7 @@
       </c>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
-      <c r="D924" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D924" s="4"/>
       <c r="E924" s="4"/>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
@@ -19837,9 +18555,7 @@
       </c>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
-      <c r="D925" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D925" s="4"/>
       <c r="E925" s="4"/>
     </row>
     <row r="926" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19848,9 +18564,7 @@
       </c>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
-      <c r="D926" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D926" s="4"/>
       <c r="E926" s="4"/>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
@@ -19859,9 +18573,7 @@
       </c>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
-      <c r="D927" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D927" s="4"/>
       <c r="E927" s="4"/>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.25">
@@ -19870,9 +18582,7 @@
       </c>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
-      <c r="D928" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D928" s="4"/>
       <c r="E928" s="4"/>
     </row>
     <row r="929" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19881,9 +18591,7 @@
       </c>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
-      <c r="D929" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D929" s="4"/>
       <c r="E929" s="4"/>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
@@ -19892,9 +18600,7 @@
       </c>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
-      <c r="D930" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D930" s="4"/>
       <c r="E930" s="4"/>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
@@ -19903,9 +18609,7 @@
       </c>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
-      <c r="D931" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D931" s="4"/>
       <c r="E931" s="4"/>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
@@ -19914,9 +18618,7 @@
       </c>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
-      <c r="D932" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D932" s="4"/>
       <c r="E932" s="4"/>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
@@ -19925,9 +18627,7 @@
       </c>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
-      <c r="D933" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D933" s="4"/>
       <c r="E933" s="4"/>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
@@ -19936,9 +18636,7 @@
       </c>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
-      <c r="D934" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D934" s="4"/>
       <c r="E934" s="4"/>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
@@ -19947,9 +18645,7 @@
       </c>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
-      <c r="D935" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D935" s="4"/>
       <c r="E935" s="4"/>
     </row>
     <row r="936" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -19958,9 +18654,7 @@
       </c>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
-      <c r="D936" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D936" s="4"/>
       <c r="E936" s="4"/>
     </row>
     <row r="937" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19969,9 +18663,7 @@
       </c>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
-      <c r="D937" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D937" s="4"/>
       <c r="E937" s="4"/>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
@@ -19980,9 +18672,7 @@
       </c>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
-      <c r="D938" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D938" s="4"/>
       <c r="E938" s="4"/>
     </row>
     <row r="939" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -19991,9 +18681,7 @@
       </c>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
-      <c r="D939" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D939" s="4"/>
       <c r="E939" s="4"/>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
@@ -20002,9 +18690,7 @@
       </c>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
-      <c r="D940" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D940" s="4"/>
       <c r="E940" s="4"/>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
@@ -20013,9 +18699,7 @@
       </c>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
-      <c r="D941" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D941" s="4"/>
       <c r="E941" s="4"/>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
@@ -20024,9 +18708,7 @@
       </c>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
-      <c r="D942" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D942" s="4"/>
       <c r="E942" s="4"/>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
@@ -20035,9 +18717,7 @@
       </c>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
-      <c r="D943" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D943" s="4"/>
       <c r="E943" s="4"/>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
@@ -20046,9 +18726,7 @@
       </c>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
-      <c r="D944" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D944" s="4"/>
       <c r="E944" s="4"/>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
@@ -20057,9 +18735,7 @@
       </c>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
-      <c r="D945" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D945" s="4"/>
       <c r="E945" s="4"/>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
@@ -20068,9 +18744,7 @@
       </c>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
-      <c r="D946" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D946" s="4"/>
       <c r="E946" s="4"/>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
@@ -20079,9 +18753,7 @@
       </c>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
-      <c r="D947" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D947" s="4"/>
       <c r="E947" s="4"/>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
@@ -20090,9 +18762,7 @@
       </c>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
-      <c r="D948" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D948" s="4"/>
       <c r="E948" s="4"/>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
@@ -20101,9 +18771,7 @@
       </c>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
-      <c r="D949" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D949" s="4"/>
       <c r="E949" s="4"/>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
@@ -20112,9 +18780,7 @@
       </c>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
-      <c r="D950" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D950" s="4"/>
       <c r="E950" s="4"/>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
@@ -20123,9 +18789,7 @@
       </c>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
-      <c r="D951" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D951" s="4"/>
       <c r="E951" s="4"/>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
@@ -20134,9 +18798,7 @@
       </c>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
-      <c r="D952" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D952" s="4"/>
       <c r="E952" s="4"/>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
@@ -20145,9 +18807,7 @@
       </c>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
-      <c r="D953" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D953" s="4"/>
       <c r="E953" s="4"/>
     </row>
     <row r="954" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20156,9 +18816,7 @@
       </c>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
-      <c r="D954" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D954" s="4"/>
       <c r="E954" s="4"/>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
@@ -20167,9 +18825,7 @@
       </c>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
-      <c r="D955" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D955" s="4"/>
       <c r="E955" s="4"/>
     </row>
     <row r="956" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -20178,9 +18834,7 @@
       </c>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
-      <c r="D956" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D956" s="4"/>
       <c r="E956" s="4"/>
     </row>
     <row r="957" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20189,9 +18843,7 @@
       </c>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
-      <c r="D957" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D957" s="4"/>
       <c r="E957" s="4"/>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.25">
@@ -20200,9 +18852,7 @@
       </c>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
-      <c r="D958" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D958" s="4"/>
       <c r="E958" s="4"/>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.25">
@@ -20211,9 +18861,7 @@
       </c>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
-      <c r="D959" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D959" s="4"/>
       <c r="E959" s="4"/>
     </row>
     <row r="960" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20222,9 +18870,7 @@
       </c>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
-      <c r="D960" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D960" s="4"/>
       <c r="E960" s="4"/>
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.25">
@@ -20233,9 +18879,7 @@
       </c>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
-      <c r="D961" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D961" s="4"/>
       <c r="E961" s="4"/>
     </row>
     <row r="962" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20244,9 +18888,7 @@
       </c>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
-      <c r="D962" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D962" s="4"/>
       <c r="E962" s="4"/>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
@@ -20255,9 +18897,7 @@
       </c>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
-      <c r="D963" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D963" s="4"/>
       <c r="E963" s="4"/>
     </row>
     <row r="964" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20266,9 +18906,7 @@
       </c>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
-      <c r="D964" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D964" s="4"/>
       <c r="E964" s="4"/>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
@@ -20277,9 +18915,7 @@
       </c>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
-      <c r="D965" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D965" s="4"/>
       <c r="E965" s="4"/>
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.25">
@@ -20288,9 +18924,7 @@
       </c>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
-      <c r="D966" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D966" s="4"/>
       <c r="E966" s="4"/>
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.25">
@@ -20299,9 +18933,7 @@
       </c>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
-      <c r="D967" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D967" s="4"/>
       <c r="E967" s="4"/>
     </row>
     <row r="968" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20310,9 +18942,7 @@
       </c>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
-      <c r="D968" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D968" s="4"/>
       <c r="E968" s="4"/>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.25">
@@ -20321,9 +18951,7 @@
       </c>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
-      <c r="D969" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D969" s="4"/>
       <c r="E969" s="4"/>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
@@ -20332,9 +18960,7 @@
       </c>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
-      <c r="D970" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D970" s="4"/>
       <c r="E970" s="4"/>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
@@ -20343,9 +18969,7 @@
       </c>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
-      <c r="D971" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D971" s="4"/>
       <c r="E971" s="4"/>
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.25">
@@ -20354,9 +18978,7 @@
       </c>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
-      <c r="D972" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D972" s="4"/>
       <c r="E972" s="4"/>
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.25">
@@ -20365,9 +18987,7 @@
       </c>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
-      <c r="D973" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D973" s="4"/>
       <c r="E973" s="4"/>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
@@ -20376,9 +18996,7 @@
       </c>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
-      <c r="D974" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D974" s="4"/>
       <c r="E974" s="4"/>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
@@ -20387,9 +19005,7 @@
       </c>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
-      <c r="D975" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D975" s="4"/>
       <c r="E975" s="4"/>
     </row>
     <row r="976" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20398,9 +19014,7 @@
       </c>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
-      <c r="D976" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D976" s="4"/>
       <c r="E976" s="4"/>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
@@ -20409,9 +19023,7 @@
       </c>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
-      <c r="D977" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D977" s="4"/>
       <c r="E977" s="4"/>
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
@@ -20420,9 +19032,7 @@
       </c>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
-      <c r="D978" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D978" s="4"/>
       <c r="E978" s="4"/>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
@@ -20431,9 +19041,7 @@
       </c>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
-      <c r="D979" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D979" s="4"/>
       <c r="E979" s="4"/>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
@@ -20442,9 +19050,7 @@
       </c>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
-      <c r="D980" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D980" s="4"/>
       <c r="E980" s="4"/>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
@@ -20453,9 +19059,7 @@
       </c>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
-      <c r="D981" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D981" s="4"/>
       <c r="E981" s="4"/>
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
@@ -20464,9 +19068,7 @@
       </c>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
-      <c r="D982" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D982" s="4"/>
       <c r="E982" s="4"/>
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
@@ -20475,9 +19077,7 @@
       </c>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
-      <c r="D983" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D983" s="4"/>
       <c r="E983" s="4"/>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
@@ -20486,9 +19086,7 @@
       </c>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
-      <c r="D984" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D984" s="4"/>
       <c r="E984" s="4"/>
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
@@ -20497,9 +19095,7 @@
       </c>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
-      <c r="D985" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D985" s="4"/>
       <c r="E985" s="4"/>
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
@@ -20508,9 +19104,7 @@
       </c>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
-      <c r="D986" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D986" s="4"/>
       <c r="E986" s="4"/>
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
@@ -20519,9 +19113,7 @@
       </c>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
-      <c r="D987" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D987" s="4"/>
       <c r="E987" s="4"/>
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
@@ -20530,9 +19122,7 @@
       </c>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
-      <c r="D988" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D988" s="4"/>
       <c r="E988" s="4"/>
     </row>
     <row r="989" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20541,9 +19131,7 @@
       </c>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
-      <c r="D989" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D989" s="4"/>
       <c r="E989" s="4"/>
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
@@ -20552,9 +19140,7 @@
       </c>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
-      <c r="D990" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D990" s="4"/>
       <c r="E990" s="4"/>
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
@@ -20563,9 +19149,7 @@
       </c>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
-      <c r="D991" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D991" s="4"/>
       <c r="E991" s="4"/>
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
@@ -20574,9 +19158,7 @@
       </c>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
-      <c r="D992" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D992" s="4"/>
       <c r="E992" s="4"/>
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
@@ -20585,9 +19167,7 @@
       </c>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
-      <c r="D993" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D993" s="4"/>
       <c r="E993" s="4"/>
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
@@ -20596,9 +19176,7 @@
       </c>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
-      <c r="D994" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D994" s="4"/>
       <c r="E994" s="4"/>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
@@ -20607,9 +19185,7 @@
       </c>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
-      <c r="D995" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D995" s="4"/>
       <c r="E995" s="4"/>
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
@@ -20618,9 +19194,7 @@
       </c>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
-      <c r="D996" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D996" s="4"/>
       <c r="E996" s="4"/>
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
@@ -20629,9 +19203,7 @@
       </c>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
-      <c r="D997" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D997" s="4"/>
       <c r="E997" s="4"/>
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
@@ -20640,9 +19212,7 @@
       </c>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
-      <c r="D998" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D998" s="4"/>
       <c r="E998" s="4"/>
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.25">
@@ -20651,9 +19221,7 @@
       </c>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
-      <c r="D999" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D999" s="4"/>
       <c r="E999" s="4"/>
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
@@ -20662,9 +19230,7 @@
       </c>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
-      <c r="D1000" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1000" s="4"/>
       <c r="E1000" s="4"/>
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
@@ -20673,9 +19239,7 @@
       </c>
       <c r="B1001" s="4"/>
       <c r="C1001" s="4"/>
-      <c r="D1001" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1001" s="4"/>
       <c r="E1001" s="4"/>
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
@@ -20684,9 +19248,7 @@
       </c>
       <c r="B1002" s="4"/>
       <c r="C1002" s="4"/>
-      <c r="D1002" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1002" s="4"/>
       <c r="E1002" s="4"/>
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
@@ -20695,9 +19257,7 @@
       </c>
       <c r="B1003" s="4"/>
       <c r="C1003" s="4"/>
-      <c r="D1003" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1003" s="4"/>
       <c r="E1003" s="4"/>
     </row>
     <row r="1004" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20706,9 +19266,7 @@
       </c>
       <c r="B1004" s="4"/>
       <c r="C1004" s="4"/>
-      <c r="D1004" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1004" s="4"/>
       <c r="E1004" s="4"/>
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
@@ -20717,9 +19275,7 @@
       </c>
       <c r="B1005" s="4"/>
       <c r="C1005" s="4"/>
-      <c r="D1005" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1005" s="4"/>
       <c r="E1005" s="4"/>
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
@@ -20728,9 +19284,7 @@
       </c>
       <c r="B1006" s="4"/>
       <c r="C1006" s="4"/>
-      <c r="D1006" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D1006" s="4"/>
       <c r="E1006" s="4"/>
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
@@ -20739,9 +19293,7 @@
       </c>
       <c r="B1007" s="4"/>
       <c r="C1007" s="4"/>
-      <c r="D1007" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1007" s="4"/>
       <c r="E1007" s="4"/>
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
@@ -20750,9 +19302,7 @@
       </c>
       <c r="B1008" s="4"/>
       <c r="C1008" s="4"/>
-      <c r="D1008" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1008" s="4"/>
       <c r="E1008" s="4"/>
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
@@ -20761,9 +19311,7 @@
       </c>
       <c r="B1009" s="4"/>
       <c r="C1009" s="4"/>
-      <c r="D1009" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1009" s="4"/>
       <c r="E1009" s="4"/>
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
@@ -20772,9 +19320,7 @@
       </c>
       <c r="B1010" s="4"/>
       <c r="C1010" s="4"/>
-      <c r="D1010" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1010" s="4"/>
       <c r="E1010" s="4"/>
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
@@ -20783,9 +19329,7 @@
       </c>
       <c r="B1011" s="4"/>
       <c r="C1011" s="4"/>
-      <c r="D1011" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1011" s="4"/>
       <c r="E1011" s="4"/>
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
@@ -20794,9 +19338,7 @@
       </c>
       <c r="B1012" s="4"/>
       <c r="C1012" s="4"/>
-      <c r="D1012" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1012" s="4"/>
       <c r="E1012" s="4"/>
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
@@ -20805,9 +19347,7 @@
       </c>
       <c r="B1013" s="4"/>
       <c r="C1013" s="4"/>
-      <c r="D1013" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1013" s="4"/>
       <c r="E1013" s="4"/>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
@@ -20816,9 +19356,7 @@
       </c>
       <c r="B1014" s="4"/>
       <c r="C1014" s="4"/>
-      <c r="D1014" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1014" s="4"/>
       <c r="E1014" s="4"/>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
@@ -20827,9 +19365,7 @@
       </c>
       <c r="B1015" s="4"/>
       <c r="C1015" s="4"/>
-      <c r="D1015" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D1015" s="4"/>
       <c r="E1015" s="4"/>
     </row>
     <row r="1016" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20838,9 +19374,7 @@
       </c>
       <c r="B1016" s="4"/>
       <c r="C1016" s="4"/>
-      <c r="D1016" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1016" s="4"/>
       <c r="E1016" s="4"/>
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
@@ -20849,9 +19383,7 @@
       </c>
       <c r="B1017" s="4"/>
       <c r="C1017" s="4"/>
-      <c r="D1017" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1017" s="4"/>
       <c r="E1017" s="4"/>
     </row>
     <row r="1018" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20860,9 +19392,7 @@
       </c>
       <c r="B1018" s="4"/>
       <c r="C1018" s="4"/>
-      <c r="D1018" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1018" s="4"/>
       <c r="E1018" s="4"/>
     </row>
     <row r="1019" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20871,9 +19401,7 @@
       </c>
       <c r="B1019" s="4"/>
       <c r="C1019" s="4"/>
-      <c r="D1019" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1019" s="4"/>
       <c r="E1019" s="4"/>
     </row>
     <row r="1020" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20882,9 +19410,7 @@
       </c>
       <c r="B1020" s="4"/>
       <c r="C1020" s="4"/>
-      <c r="D1020" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1020" s="4"/>
       <c r="E1020" s="4"/>
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
@@ -20893,9 +19419,7 @@
       </c>
       <c r="B1021" s="4"/>
       <c r="C1021" s="4"/>
-      <c r="D1021" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1021" s="4"/>
       <c r="E1021" s="4"/>
     </row>
     <row r="1022" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20904,9 +19428,7 @@
       </c>
       <c r="B1022" s="4"/>
       <c r="C1022" s="4"/>
-      <c r="D1022" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1022" s="4"/>
       <c r="E1022" s="4"/>
     </row>
     <row r="1023" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -20915,9 +19437,7 @@
       </c>
       <c r="B1023" s="4"/>
       <c r="C1023" s="4"/>
-      <c r="D1023" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1023" s="4"/>
       <c r="E1023" s="4"/>
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
@@ -20926,9 +19446,7 @@
       </c>
       <c r="B1024" s="4"/>
       <c r="C1024" s="4"/>
-      <c r="D1024" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1024" s="4"/>
       <c r="E1024" s="4"/>
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
@@ -20937,9 +19455,7 @@
       </c>
       <c r="B1025" s="4"/>
       <c r="C1025" s="4"/>
-      <c r="D1025" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1025" s="4"/>
       <c r="E1025" s="4"/>
     </row>
     <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
@@ -20948,9 +19464,7 @@
       </c>
       <c r="B1026" s="4"/>
       <c r="C1026" s="4"/>
-      <c r="D1026" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1026" s="4"/>
       <c r="E1026" s="4"/>
     </row>
     <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
@@ -20959,9 +19473,7 @@
       </c>
       <c r="B1027" s="4"/>
       <c r="C1027" s="4"/>
-      <c r="D1027" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D1027" s="4"/>
       <c r="E1027" s="4"/>
     </row>
     <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
@@ -20970,9 +19482,7 @@
       </c>
       <c r="B1028" s="4"/>
       <c r="C1028" s="4"/>
-      <c r="D1028" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1028" s="4"/>
       <c r="E1028" s="4"/>
     </row>
     <row r="1029" spans="1:5" x14ac:dyDescent="0.25">
@@ -20981,9 +19491,7 @@
       </c>
       <c r="B1029" s="4"/>
       <c r="C1029" s="4"/>
-      <c r="D1029" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1029" s="4"/>
       <c r="E1029" s="4"/>
     </row>
     <row r="1030" spans="1:5" x14ac:dyDescent="0.25">
@@ -20992,9 +19500,7 @@
       </c>
       <c r="B1030" s="4"/>
       <c r="C1030" s="4"/>
-      <c r="D1030" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1030" s="4"/>
       <c r="E1030" s="4"/>
     </row>
     <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
@@ -21003,9 +19509,7 @@
       </c>
       <c r="B1031" s="4"/>
       <c r="C1031" s="4"/>
-      <c r="D1031" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1031" s="4"/>
       <c r="E1031" s="4"/>
     </row>
     <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
@@ -21014,9 +19518,7 @@
       </c>
       <c r="B1032" s="4"/>
       <c r="C1032" s="4"/>
-      <c r="D1032" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1032" s="4"/>
       <c r="E1032" s="4"/>
     </row>
     <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
@@ -21025,9 +19527,7 @@
       </c>
       <c r="B1033" s="4"/>
       <c r="C1033" s="4"/>
-      <c r="D1033" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1033" s="4"/>
       <c r="E1033" s="4"/>
     </row>
     <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
@@ -21036,9 +19536,7 @@
       </c>
       <c r="B1034" s="4"/>
       <c r="C1034" s="4"/>
-      <c r="D1034" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1034" s="4"/>
       <c r="E1034" s="4"/>
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
@@ -21047,9 +19545,7 @@
       </c>
       <c r="B1035" s="4"/>
       <c r="C1035" s="4"/>
-      <c r="D1035" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1035" s="4"/>
       <c r="E1035" s="4"/>
     </row>
     <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
@@ -21058,9 +19554,7 @@
       </c>
       <c r="B1036" s="4"/>
       <c r="C1036" s="4"/>
-      <c r="D1036" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1036" s="4"/>
       <c r="E1036" s="4"/>
     </row>
     <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
@@ -21069,9 +19563,7 @@
       </c>
       <c r="B1037" s="4"/>
       <c r="C1037" s="4"/>
-      <c r="D1037" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1037" s="4"/>
       <c r="E1037" s="4"/>
     </row>
     <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
@@ -21080,9 +19572,7 @@
       </c>
       <c r="B1038" s="4"/>
       <c r="C1038" s="4"/>
-      <c r="D1038" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1038" s="4"/>
       <c r="E1038" s="4"/>
     </row>
     <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
@@ -21091,9 +19581,7 @@
       </c>
       <c r="B1039" s="4"/>
       <c r="C1039" s="4"/>
-      <c r="D1039" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1039" s="4"/>
       <c r="E1039" s="4"/>
     </row>
     <row r="1040" spans="1:5" x14ac:dyDescent="0.25">
@@ -21102,9 +19590,7 @@
       </c>
       <c r="B1040" s="4"/>
       <c r="C1040" s="4"/>
-      <c r="D1040" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1040" s="4"/>
       <c r="E1040" s="4"/>
     </row>
     <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
@@ -21113,9 +19599,7 @@
       </c>
       <c r="B1041" s="4"/>
       <c r="C1041" s="4"/>
-      <c r="D1041" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1041" s="4"/>
       <c r="E1041" s="4"/>
     </row>
     <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
@@ -21124,9 +19608,7 @@
       </c>
       <c r="B1042" s="4"/>
       <c r="C1042" s="4"/>
-      <c r="D1042" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1042" s="4"/>
       <c r="E1042" s="4"/>
     </row>
     <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
@@ -21135,9 +19617,7 @@
       </c>
       <c r="B1043" s="4"/>
       <c r="C1043" s="4"/>
-      <c r="D1043" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1043" s="4"/>
       <c r="E1043" s="4"/>
     </row>
     <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
@@ -21146,9 +19626,7 @@
       </c>
       <c r="B1044" s="4"/>
       <c r="C1044" s="4"/>
-      <c r="D1044" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1044" s="4"/>
       <c r="E1044" s="4"/>
     </row>
     <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
@@ -21157,9 +19635,7 @@
       </c>
       <c r="B1045" s="4"/>
       <c r="C1045" s="4"/>
-      <c r="D1045" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1045" s="4"/>
       <c r="E1045" s="4"/>
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
@@ -21168,9 +19644,7 @@
       </c>
       <c r="B1046" s="4"/>
       <c r="C1046" s="4"/>
-      <c r="D1046" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1046" s="4"/>
       <c r="E1046" s="4"/>
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
@@ -21179,9 +19653,7 @@
       </c>
       <c r="B1047" s="4"/>
       <c r="C1047" s="4"/>
-      <c r="D1047" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1047" s="4"/>
       <c r="E1047" s="4"/>
     </row>
     <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
@@ -21190,9 +19662,7 @@
       </c>
       <c r="B1048" s="4"/>
       <c r="C1048" s="4"/>
-      <c r="D1048" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1048" s="4"/>
       <c r="E1048" s="4"/>
     </row>
     <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
@@ -21201,9 +19671,7 @@
       </c>
       <c r="B1049" s="4"/>
       <c r="C1049" s="4"/>
-      <c r="D1049" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1049" s="4"/>
       <c r="E1049" s="4"/>
     </row>
     <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
@@ -21212,9 +19680,7 @@
       </c>
       <c r="B1050" s="4"/>
       <c r="C1050" s="4"/>
-      <c r="D1050" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1050" s="4"/>
       <c r="E1050" s="4"/>
     </row>
     <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
@@ -21223,9 +19689,7 @@
       </c>
       <c r="B1051" s="4"/>
       <c r="C1051" s="4"/>
-      <c r="D1051" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1051" s="4"/>
       <c r="E1051" s="4"/>
     </row>
     <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
@@ -21234,9 +19698,7 @@
       </c>
       <c r="B1052" s="4"/>
       <c r="C1052" s="4"/>
-      <c r="D1052" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D1052" s="4"/>
       <c r="E1052" s="4"/>
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
@@ -21245,9 +19707,7 @@
       </c>
       <c r="B1053" s="4"/>
       <c r="C1053" s="4"/>
-      <c r="D1053" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1053" s="4"/>
       <c r="E1053" s="4"/>
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
@@ -21256,9 +19716,7 @@
       </c>
       <c r="B1054" s="4"/>
       <c r="C1054" s="4"/>
-      <c r="D1054" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1054" s="4"/>
       <c r="E1054" s="4"/>
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
@@ -21267,9 +19725,7 @@
       </c>
       <c r="B1055" s="4"/>
       <c r="C1055" s="4"/>
-      <c r="D1055" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1055" s="4"/>
       <c r="E1055" s="4"/>
     </row>
     <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
@@ -21278,9 +19734,7 @@
       </c>
       <c r="B1056" s="4"/>
       <c r="C1056" s="4"/>
-      <c r="D1056" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1056" s="4"/>
       <c r="E1056" s="4"/>
     </row>
     <row r="1057" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -21289,9 +19743,7 @@
       </c>
       <c r="B1057" s="4"/>
       <c r="C1057" s="4"/>
-      <c r="D1057" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1057" s="4"/>
       <c r="E1057" s="4"/>
     </row>
     <row r="1058" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -21300,9 +19752,7 @@
       </c>
       <c r="B1058" s="4"/>
       <c r="C1058" s="4"/>
-      <c r="D1058" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1058" s="4"/>
       <c r="E1058" s="4"/>
     </row>
     <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
@@ -21311,9 +19761,7 @@
       </c>
       <c r="B1059" s="4"/>
       <c r="C1059" s="4"/>
-      <c r="D1059" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1059" s="4"/>
       <c r="E1059" s="4"/>
     </row>
     <row r="1060" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -21322,9 +19770,7 @@
       </c>
       <c r="B1060" s="4"/>
       <c r="C1060" s="4"/>
-      <c r="D1060" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1060" s="4"/>
       <c r="E1060" s="4"/>
     </row>
     <row r="1061" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -21333,9 +19779,7 @@
       </c>
       <c r="B1061" s="4"/>
       <c r="C1061" s="4"/>
-      <c r="D1061" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1061" s="4"/>
       <c r="E1061" s="4"/>
     </row>
     <row r="1062" spans="1:5" x14ac:dyDescent="0.25">
@@ -21344,9 +19788,7 @@
       </c>
       <c r="B1062" s="4"/>
       <c r="C1062" s="4"/>
-      <c r="D1062" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1062" s="4"/>
       <c r="E1062" s="4"/>
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
@@ -21355,9 +19797,7 @@
       </c>
       <c r="B1063" s="4"/>
       <c r="C1063" s="4"/>
-      <c r="D1063" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1063" s="4"/>
       <c r="E1063" s="4"/>
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
@@ -21366,9 +19806,7 @@
       </c>
       <c r="B1064" s="4"/>
       <c r="C1064" s="4"/>
-      <c r="D1064" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1064" s="4"/>
       <c r="E1064" s="4"/>
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
@@ -21377,9 +19815,7 @@
       </c>
       <c r="B1065" s="4"/>
       <c r="C1065" s="4"/>
-      <c r="D1065" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1065" s="4"/>
       <c r="E1065" s="4"/>
     </row>
     <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
@@ -21388,9 +19824,7 @@
       </c>
       <c r="B1066" s="4"/>
       <c r="C1066" s="4"/>
-      <c r="D1066" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1066" s="4"/>
       <c r="E1066" s="4"/>
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
@@ -21399,9 +19833,7 @@
       </c>
       <c r="B1067" s="4"/>
       <c r="C1067" s="4"/>
-      <c r="D1067" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1067" s="4"/>
       <c r="E1067" s="4"/>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
@@ -21410,9 +19842,7 @@
       </c>
       <c r="B1068" s="4"/>
       <c r="C1068" s="4"/>
-      <c r="D1068" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1068" s="4"/>
       <c r="E1068" s="4"/>
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
@@ -21421,9 +19851,7 @@
       </c>
       <c r="B1069" s="4"/>
       <c r="C1069" s="4"/>
-      <c r="D1069" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1069" s="4"/>
       <c r="E1069" s="4"/>
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
@@ -21432,9 +19860,7 @@
       </c>
       <c r="B1070" s="4"/>
       <c r="C1070" s="4"/>
-      <c r="D1070" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1070" s="4"/>
       <c r="E1070" s="4"/>
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
@@ -21443,9 +19869,7 @@
       </c>
       <c r="B1071" s="4"/>
       <c r="C1071" s="4"/>
-      <c r="D1071" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1071" s="4"/>
       <c r="E1071" s="4"/>
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
@@ -21454,9 +19878,7 @@
       </c>
       <c r="B1072" s="4"/>
       <c r="C1072" s="4"/>
-      <c r="D1072" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1072" s="4"/>
       <c r="E1072" s="4"/>
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
@@ -21465,9 +19887,7 @@
       </c>
       <c r="B1073" s="4"/>
       <c r="C1073" s="4"/>
-      <c r="D1073" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1073" s="4"/>
       <c r="E1073" s="4"/>
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
@@ -21476,9 +19896,7 @@
       </c>
       <c r="B1074" s="4"/>
       <c r="C1074" s="4"/>
-      <c r="D1074" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1074" s="4"/>
       <c r="E1074" s="4"/>
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
@@ -21487,9 +19905,7 @@
       </c>
       <c r="B1075" s="4"/>
       <c r="C1075" s="4"/>
-      <c r="D1075" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1075" s="4"/>
       <c r="E1075" s="4"/>
     </row>
     <row r="1076" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -21498,9 +19914,7 @@
       </c>
       <c r="B1076" s="4"/>
       <c r="C1076" s="4"/>
-      <c r="D1076" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1076" s="4"/>
       <c r="E1076" s="4"/>
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
@@ -21509,9 +19923,7 @@
       </c>
       <c r="B1077" s="4"/>
       <c r="C1077" s="4"/>
-      <c r="D1077" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1077" s="4"/>
       <c r="E1077" s="4"/>
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
@@ -21520,9 +19932,7 @@
       </c>
       <c r="B1078" s="4"/>
       <c r="C1078" s="4"/>
-      <c r="D1078" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1078" s="4"/>
       <c r="E1078" s="4"/>
     </row>
     <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
@@ -21531,9 +19941,7 @@
       </c>
       <c r="B1079" s="4"/>
       <c r="C1079" s="4"/>
-      <c r="D1079" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1079" s="4"/>
       <c r="E1079" s="4"/>
     </row>
     <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
@@ -21542,9 +19950,7 @@
       </c>
       <c r="B1080" s="4"/>
       <c r="C1080" s="4"/>
-      <c r="D1080" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1080" s="4"/>
       <c r="E1080" s="4"/>
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
@@ -21553,9 +19959,7 @@
       </c>
       <c r="B1081" s="4"/>
       <c r="C1081" s="4"/>
-      <c r="D1081" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1081" s="4"/>
       <c r="E1081" s="4"/>
     </row>
     <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
@@ -21564,9 +19968,7 @@
       </c>
       <c r="B1082" s="4"/>
       <c r="C1082" s="4"/>
-      <c r="D1082" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1082" s="4"/>
       <c r="E1082" s="4"/>
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
@@ -21575,9 +19977,7 @@
       </c>
       <c r="B1083" s="4"/>
       <c r="C1083" s="4"/>
-      <c r="D1083" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1083" s="4"/>
       <c r="E1083" s="4"/>
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
@@ -21586,9 +19986,7 @@
       </c>
       <c r="B1084" s="4"/>
       <c r="C1084" s="4"/>
-      <c r="D1084" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1084" s="4"/>
       <c r="E1084" s="4"/>
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
@@ -21597,9 +19995,7 @@
       </c>
       <c r="B1085" s="4"/>
       <c r="C1085" s="4"/>
-      <c r="D1085" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1085" s="4"/>
       <c r="E1085" s="4"/>
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
@@ -21608,9 +20004,7 @@
       </c>
       <c r="B1086" s="4"/>
       <c r="C1086" s="4"/>
-      <c r="D1086" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1086" s="4"/>
       <c r="E1086" s="4"/>
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
@@ -21619,9 +20013,7 @@
       </c>
       <c r="B1087" s="4"/>
       <c r="C1087" s="4"/>
-      <c r="D1087" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1087" s="4"/>
       <c r="E1087" s="4"/>
     </row>
     <row r="1088" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -21630,9 +20022,7 @@
       </c>
       <c r="B1088" s="4"/>
       <c r="C1088" s="4"/>
-      <c r="D1088" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1088" s="4"/>
       <c r="E1088" s="4"/>
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
@@ -21641,9 +20031,7 @@
       </c>
       <c r="B1089" s="4"/>
       <c r="C1089" s="4"/>
-      <c r="D1089" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1089" s="4"/>
       <c r="E1089" s="4"/>
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
@@ -21652,9 +20040,7 @@
       </c>
       <c r="B1090" s="4"/>
       <c r="C1090" s="4"/>
-      <c r="D1090" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1090" s="4"/>
       <c r="E1090" s="4"/>
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
@@ -21663,9 +20049,7 @@
       </c>
       <c r="B1091" s="4"/>
       <c r="C1091" s="4"/>
-      <c r="D1091" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1091" s="4"/>
       <c r="E1091" s="4"/>
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.25">
@@ -21674,9 +20058,7 @@
       </c>
       <c r="B1092" s="4"/>
       <c r="C1092" s="4"/>
-      <c r="D1092" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1092" s="4"/>
       <c r="E1092" s="4"/>
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
@@ -21685,9 +20067,7 @@
       </c>
       <c r="B1093" s="4"/>
       <c r="C1093" s="4"/>
-      <c r="D1093" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1093" s="4"/>
       <c r="E1093" s="4"/>
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
@@ -21696,9 +20076,7 @@
       </c>
       <c r="B1094" s="4"/>
       <c r="C1094" s="4"/>
-      <c r="D1094" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1094" s="4"/>
       <c r="E1094" s="4"/>
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
@@ -21707,9 +20085,7 @@
       </c>
       <c r="B1095" s="4"/>
       <c r="C1095" s="4"/>
-      <c r="D1095" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1095" s="4"/>
       <c r="E1095" s="4"/>
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
@@ -21718,9 +20094,7 @@
       </c>
       <c r="B1096" s="4"/>
       <c r="C1096" s="4"/>
-      <c r="D1096" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1096" s="4"/>
       <c r="E1096" s="4"/>
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
@@ -21729,9 +20103,7 @@
       </c>
       <c r="B1097" s="4"/>
       <c r="C1097" s="4"/>
-      <c r="D1097" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1097" s="4"/>
       <c r="E1097" s="4"/>
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
@@ -21740,9 +20112,7 @@
       </c>
       <c r="B1098" s="4"/>
       <c r="C1098" s="4"/>
-      <c r="D1098" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1098" s="4"/>
       <c r="E1098" s="4"/>
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
@@ -21751,9 +20121,7 @@
       </c>
       <c r="B1099" s="4"/>
       <c r="C1099" s="4"/>
-      <c r="D1099" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1099" s="4"/>
       <c r="E1099" s="4"/>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
@@ -21762,9 +20130,7 @@
       </c>
       <c r="B1100" s="4"/>
       <c r="C1100" s="4"/>
-      <c r="D1100" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1100" s="4"/>
       <c r="E1100" s="4"/>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
@@ -21773,9 +20139,7 @@
       </c>
       <c r="B1101" s="4"/>
       <c r="C1101" s="4"/>
-      <c r="D1101" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1101" s="4"/>
       <c r="E1101" s="4"/>
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
@@ -21784,9 +20148,7 @@
       </c>
       <c r="B1102" s="4"/>
       <c r="C1102" s="4"/>
-      <c r="D1102" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1102" s="4"/>
       <c r="E1102" s="4"/>
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
@@ -21795,9 +20157,7 @@
       </c>
       <c r="B1103" s="4"/>
       <c r="C1103" s="4"/>
-      <c r="D1103" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1103" s="4"/>
       <c r="E1103" s="4"/>
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
@@ -21806,9 +20166,7 @@
       </c>
       <c r="B1104" s="4"/>
       <c r="C1104" s="4"/>
-      <c r="D1104" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1104" s="4"/>
       <c r="E1104" s="4"/>
     </row>
     <row r="1105" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -21817,9 +20175,7 @@
       </c>
       <c r="B1105" s="4"/>
       <c r="C1105" s="4"/>
-      <c r="D1105" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1105" s="4"/>
       <c r="E1105" s="4"/>
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.25">
@@ -21828,9 +20184,7 @@
       </c>
       <c r="B1106" s="4"/>
       <c r="C1106" s="4"/>
-      <c r="D1106" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1106" s="4"/>
       <c r="E1106" s="4"/>
     </row>
     <row r="1107" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -21839,9 +20193,7 @@
       </c>
       <c r="B1107" s="4"/>
       <c r="C1107" s="4"/>
-      <c r="D1107" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1107" s="4"/>
       <c r="E1107" s="4"/>
     </row>
     <row r="1108" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -21850,9 +20202,7 @@
       </c>
       <c r="B1108" s="4"/>
       <c r="C1108" s="4"/>
-      <c r="D1108" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1108" s="4"/>
       <c r="E1108" s="4"/>
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
@@ -21861,9 +20211,7 @@
       </c>
       <c r="B1109" s="4"/>
       <c r="C1109" s="4"/>
-      <c r="D1109" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1109" s="4"/>
       <c r="E1109" s="4"/>
     </row>
     <row r="1110" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -21872,9 +20220,7 @@
       </c>
       <c r="B1110" s="4"/>
       <c r="C1110" s="4"/>
-      <c r="D1110" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1110" s="4"/>
       <c r="E1110" s="4"/>
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
@@ -21883,9 +20229,7 @@
       </c>
       <c r="B1111" s="4"/>
       <c r="C1111" s="4"/>
-      <c r="D1111" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1111" s="4"/>
       <c r="E1111" s="4"/>
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.25">
@@ -21894,9 +20238,7 @@
       </c>
       <c r="B1112" s="4"/>
       <c r="C1112" s="4"/>
-      <c r="D1112" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1112" s="4"/>
       <c r="E1112" s="4"/>
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.25">
@@ -21905,9 +20247,7 @@
       </c>
       <c r="B1113" s="4"/>
       <c r="C1113" s="4"/>
-      <c r="D1113" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1113" s="4"/>
       <c r="E1113" s="4"/>
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.25">
@@ -21916,9 +20256,7 @@
       </c>
       <c r="B1114" s="4"/>
       <c r="C1114" s="4"/>
-      <c r="D1114" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1114" s="4"/>
       <c r="E1114" s="4"/>
     </row>
     <row r="1115" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -21927,9 +20265,7 @@
       </c>
       <c r="B1115" s="4"/>
       <c r="C1115" s="4"/>
-      <c r="D1115" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1115" s="4"/>
       <c r="E1115" s="4"/>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.25">
@@ -21938,9 +20274,7 @@
       </c>
       <c r="B1116" s="4"/>
       <c r="C1116" s="4"/>
-      <c r="D1116" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1116" s="4"/>
       <c r="E1116" s="4"/>
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.25">
@@ -21949,9 +20283,7 @@
       </c>
       <c r="B1117" s="4"/>
       <c r="C1117" s="4"/>
-      <c r="D1117" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1117" s="4"/>
       <c r="E1117" s="4"/>
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.25">
@@ -21960,9 +20292,7 @@
       </c>
       <c r="B1118" s="4"/>
       <c r="C1118" s="4"/>
-      <c r="D1118" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1118" s="4"/>
       <c r="E1118" s="4"/>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.25">
@@ -21971,9 +20301,7 @@
       </c>
       <c r="B1119" s="4"/>
       <c r="C1119" s="4"/>
-      <c r="D1119" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1119" s="4"/>
       <c r="E1119" s="4"/>
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.25">
@@ -21982,9 +20310,7 @@
       </c>
       <c r="B1120" s="4"/>
       <c r="C1120" s="4"/>
-      <c r="D1120" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1120" s="4"/>
       <c r="E1120" s="4"/>
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.25">
@@ -21993,9 +20319,7 @@
       </c>
       <c r="B1121" s="4"/>
       <c r="C1121" s="4"/>
-      <c r="D1121" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1121" s="4"/>
       <c r="E1121" s="4"/>
     </row>
     <row r="1122" spans="1:5" x14ac:dyDescent="0.25">
@@ -22004,9 +20328,7 @@
       </c>
       <c r="B1122" s="4"/>
       <c r="C1122" s="4"/>
-      <c r="D1122" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1122" s="4"/>
       <c r="E1122" s="4"/>
     </row>
     <row r="1123" spans="1:5" x14ac:dyDescent="0.25">
@@ -22015,9 +20337,7 @@
       </c>
       <c r="B1123" s="4"/>
       <c r="C1123" s="4"/>
-      <c r="D1123" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1123" s="4"/>
       <c r="E1123" s="4"/>
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.25">
@@ -22026,9 +20346,7 @@
       </c>
       <c r="B1124" s="4"/>
       <c r="C1124" s="4"/>
-      <c r="D1124" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1124" s="4"/>
       <c r="E1124" s="4"/>
     </row>
     <row r="1125" spans="1:5" x14ac:dyDescent="0.25">
@@ -22037,9 +20355,7 @@
       </c>
       <c r="B1125" s="4"/>
       <c r="C1125" s="4"/>
-      <c r="D1125" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1125" s="4"/>
       <c r="E1125" s="4"/>
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
@@ -22048,9 +20364,7 @@
       </c>
       <c r="B1126" s="4"/>
       <c r="C1126" s="4"/>
-      <c r="D1126" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1126" s="4"/>
       <c r="E1126" s="4"/>
     </row>
     <row r="1127" spans="1:5" x14ac:dyDescent="0.25">
@@ -22059,9 +20373,7 @@
       </c>
       <c r="B1127" s="4"/>
       <c r="C1127" s="4"/>
-      <c r="D1127" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1127" s="4"/>
       <c r="E1127" s="4"/>
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.25">
@@ -22070,9 +20382,7 @@
       </c>
       <c r="B1128" s="4"/>
       <c r="C1128" s="4"/>
-      <c r="D1128" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1128" s="4"/>
       <c r="E1128" s="4"/>
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
@@ -22081,9 +20391,7 @@
       </c>
       <c r="B1129" s="4"/>
       <c r="C1129" s="4"/>
-      <c r="D1129" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1129" s="4"/>
       <c r="E1129" s="4"/>
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.25">
@@ -22092,9 +20400,7 @@
       </c>
       <c r="B1130" s="4"/>
       <c r="C1130" s="4"/>
-      <c r="D1130" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1130" s="4"/>
       <c r="E1130" s="4"/>
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.25">
@@ -22103,9 +20409,7 @@
       </c>
       <c r="B1131" s="4"/>
       <c r="C1131" s="4"/>
-      <c r="D1131" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1131" s="4"/>
       <c r="E1131" s="4"/>
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.25">
@@ -22114,9 +20418,7 @@
       </c>
       <c r="B1132" s="4"/>
       <c r="C1132" s="4"/>
-      <c r="D1132" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1132" s="4"/>
       <c r="E1132" s="4"/>
     </row>
     <row r="1133" spans="1:5" x14ac:dyDescent="0.25">
@@ -22125,9 +20427,7 @@
       </c>
       <c r="B1133" s="4"/>
       <c r="C1133" s="4"/>
-      <c r="D1133" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1133" s="4"/>
       <c r="E1133" s="4"/>
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.25">
@@ -22136,9 +20436,7 @@
       </c>
       <c r="B1134" s="4"/>
       <c r="C1134" s="4"/>
-      <c r="D1134" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1134" s="4"/>
       <c r="E1134" s="4"/>
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.25">
@@ -22147,9 +20445,7 @@
       </c>
       <c r="B1135" s="4"/>
       <c r="C1135" s="4"/>
-      <c r="D1135" s="9" t="s">
-        <v>3074</v>
-      </c>
+      <c r="D1135" s="4"/>
       <c r="E1135" s="4"/>
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.25">
@@ -22158,9 +20454,7 @@
       </c>
       <c r="B1136" s="4"/>
       <c r="C1136" s="4"/>
-      <c r="D1136" s="9" t="s">
-        <v>3074</v>
-      </c>
+      <c r="D1136" s="4"/>
       <c r="E1136" s="4"/>
     </row>
     <row r="1137" spans="1:5" x14ac:dyDescent="0.25">
@@ -22169,9 +20463,7 @@
       </c>
       <c r="B1137" s="4"/>
       <c r="C1137" s="4"/>
-      <c r="D1137" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1137" s="4"/>
       <c r="E1137" s="4"/>
     </row>
     <row r="1138" spans="1:5" x14ac:dyDescent="0.25">
@@ -22180,9 +20472,7 @@
       </c>
       <c r="B1138" s="4"/>
       <c r="C1138" s="4"/>
-      <c r="D1138" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1138" s="4"/>
       <c r="E1138" s="4"/>
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.25">
@@ -22191,9 +20481,7 @@
       </c>
       <c r="B1139" s="4"/>
       <c r="C1139" s="4"/>
-      <c r="D1139" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1139" s="4"/>
       <c r="E1139" s="4"/>
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.25">
@@ -22202,9 +20490,7 @@
       </c>
       <c r="B1140" s="4"/>
       <c r="C1140" s="4"/>
-      <c r="D1140" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1140" s="4"/>
       <c r="E1140" s="4"/>
     </row>
     <row r="1141" spans="1:5" x14ac:dyDescent="0.25">
@@ -22213,9 +20499,7 @@
       </c>
       <c r="B1141" s="4"/>
       <c r="C1141" s="4"/>
-      <c r="D1141" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1141" s="4"/>
       <c r="E1141" s="4"/>
     </row>
     <row r="1142" spans="1:5" x14ac:dyDescent="0.25">
@@ -22224,9 +20508,7 @@
       </c>
       <c r="B1142" s="4"/>
       <c r="C1142" s="4"/>
-      <c r="D1142" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1142" s="4"/>
       <c r="E1142" s="4"/>
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.25">
@@ -22235,9 +20517,7 @@
       </c>
       <c r="B1143" s="4"/>
       <c r="C1143" s="4"/>
-      <c r="D1143" s="9" t="s">
-        <v>3067</v>
-      </c>
+      <c r="D1143" s="4"/>
       <c r="E1143" s="4"/>
     </row>
     <row r="1144" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -22246,9 +20526,7 @@
       </c>
       <c r="B1144" s="4"/>
       <c r="C1144" s="4"/>
-      <c r="D1144" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1144" s="4"/>
       <c r="E1144" s="4"/>
     </row>
     <row r="1145" spans="1:5" x14ac:dyDescent="0.25">
@@ -22257,9 +20535,7 @@
       </c>
       <c r="B1145" s="4"/>
       <c r="C1145" s="4"/>
-      <c r="D1145" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1145" s="4"/>
       <c r="E1145" s="4"/>
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.25">
@@ -22268,9 +20544,7 @@
       </c>
       <c r="B1146" s="4"/>
       <c r="C1146" s="4"/>
-      <c r="D1146" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1146" s="4"/>
       <c r="E1146" s="4"/>
     </row>
     <row r="1147" spans="1:5" x14ac:dyDescent="0.25">
@@ -22279,9 +20553,7 @@
       </c>
       <c r="B1147" s="4"/>
       <c r="C1147" s="4"/>
-      <c r="D1147" s="9" t="s">
-        <v>3068</v>
-      </c>
+      <c r="D1147" s="4"/>
       <c r="E1147" s="4"/>
     </row>
     <row r="1148" spans="1:5" x14ac:dyDescent="0.25">
@@ -22290,9 +20562,7 @@
       </c>
       <c r="B1148" s="4"/>
       <c r="C1148" s="4"/>
-      <c r="D1148" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1148" s="4"/>
       <c r="E1148" s="4"/>
     </row>
     <row r="1149" spans="1:5" x14ac:dyDescent="0.25">
@@ -22301,9 +20571,7 @@
       </c>
       <c r="B1149" s="4"/>
       <c r="C1149" s="4"/>
-      <c r="D1149" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1149" s="4"/>
       <c r="E1149" s="4"/>
     </row>
     <row r="1150" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -22312,9 +20580,7 @@
       </c>
       <c r="B1150" s="4"/>
       <c r="C1150" s="4"/>
-      <c r="D1150" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1150" s="4"/>
       <c r="E1150" s="4"/>
     </row>
     <row r="1151" spans="1:5" x14ac:dyDescent="0.25">
@@ -22323,9 +20589,7 @@
       </c>
       <c r="B1151" s="4"/>
       <c r="C1151" s="4"/>
-      <c r="D1151" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1151" s="4"/>
       <c r="E1151" s="4"/>
     </row>
     <row r="1152" spans="1:5" x14ac:dyDescent="0.25">
@@ -22334,9 +20598,7 @@
       </c>
       <c r="B1152" s="4"/>
       <c r="C1152" s="4"/>
-      <c r="D1152" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1152" s="4"/>
       <c r="E1152" s="4"/>
     </row>
     <row r="1153" spans="1:5" x14ac:dyDescent="0.25">
@@ -22345,9 +20607,7 @@
       </c>
       <c r="B1153" s="4"/>
       <c r="C1153" s="4"/>
-      <c r="D1153" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1153" s="4"/>
       <c r="E1153" s="4"/>
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
@@ -22356,9 +20616,7 @@
       </c>
       <c r="B1154" s="4"/>
       <c r="C1154" s="4"/>
-      <c r="D1154" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1154" s="4"/>
       <c r="E1154" s="4"/>
     </row>
     <row r="1155" spans="1:5" x14ac:dyDescent="0.25">
@@ -22367,9 +20625,7 @@
       </c>
       <c r="B1155" s="4"/>
       <c r="C1155" s="4"/>
-      <c r="D1155" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1155" s="4"/>
       <c r="E1155" s="4"/>
     </row>
     <row r="1156" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -22378,9 +20634,7 @@
       </c>
       <c r="B1156" s="4"/>
       <c r="C1156" s="4"/>
-      <c r="D1156" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1156" s="4"/>
       <c r="E1156" s="4"/>
     </row>
     <row r="1157" spans="1:5" x14ac:dyDescent="0.25">
@@ -22389,9 +20643,7 @@
       </c>
       <c r="B1157" s="4"/>
       <c r="C1157" s="4"/>
-      <c r="D1157" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1157" s="4"/>
       <c r="E1157" s="4"/>
     </row>
     <row r="1158" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -22400,9 +20652,7 @@
       </c>
       <c r="B1158" s="4"/>
       <c r="C1158" s="4"/>
-      <c r="D1158" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1158" s="4"/>
       <c r="E1158" s="4"/>
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.25">
@@ -22411,9 +20661,7 @@
       </c>
       <c r="B1159" s="4"/>
       <c r="C1159" s="4"/>
-      <c r="D1159" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1159" s="4"/>
       <c r="E1159" s="4"/>
     </row>
     <row r="1160" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -22422,9 +20670,7 @@
       </c>
       <c r="B1160" s="4"/>
       <c r="C1160" s="4"/>
-      <c r="D1160" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1160" s="4"/>
       <c r="E1160" s="4"/>
     </row>
     <row r="1161" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -22433,9 +20679,7 @@
       </c>
       <c r="B1161" s="4"/>
       <c r="C1161" s="4"/>
-      <c r="D1161" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1161" s="4"/>
       <c r="E1161" s="4"/>
     </row>
     <row r="1162" spans="1:5" x14ac:dyDescent="0.25">
@@ -22444,9 +20688,7 @@
       </c>
       <c r="B1162" s="4"/>
       <c r="C1162" s="4"/>
-      <c r="D1162" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1162" s="4"/>
       <c r="E1162" s="4"/>
     </row>
     <row r="1163" spans="1:5" x14ac:dyDescent="0.25">
@@ -22455,9 +20697,7 @@
       </c>
       <c r="B1163" s="4"/>
       <c r="C1163" s="4"/>
-      <c r="D1163" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1163" s="4"/>
       <c r="E1163" s="4"/>
     </row>
     <row r="1164" spans="1:5" x14ac:dyDescent="0.25">
@@ -22466,9 +20706,7 @@
       </c>
       <c r="B1164" s="4"/>
       <c r="C1164" s="4"/>
-      <c r="D1164" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1164" s="4"/>
       <c r="E1164" s="4"/>
     </row>
     <row r="1165" spans="1:5" x14ac:dyDescent="0.25">
@@ -22477,9 +20715,7 @@
       </c>
       <c r="B1165" s="4"/>
       <c r="C1165" s="4"/>
-      <c r="D1165" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1165" s="4"/>
       <c r="E1165" s="4"/>
     </row>
     <row r="1166" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -22488,9 +20724,7 @@
       </c>
       <c r="B1166" s="4"/>
       <c r="C1166" s="4"/>
-      <c r="D1166" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1166" s="4"/>
       <c r="E1166" s="4"/>
     </row>
     <row r="1167" spans="1:5" x14ac:dyDescent="0.25">
@@ -22499,9 +20733,7 @@
       </c>
       <c r="B1167" s="4"/>
       <c r="C1167" s="4"/>
-      <c r="D1167" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1167" s="4"/>
       <c r="E1167" s="4"/>
     </row>
     <row r="1168" spans="1:5" x14ac:dyDescent="0.25">
@@ -22510,9 +20742,7 @@
       </c>
       <c r="B1168" s="4"/>
       <c r="C1168" s="4"/>
-      <c r="D1168" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1168" s="4"/>
       <c r="E1168" s="4"/>
     </row>
     <row r="1169" spans="1:5" x14ac:dyDescent="0.25">
@@ -22521,9 +20751,7 @@
       </c>
       <c r="B1169" s="4"/>
       <c r="C1169" s="4"/>
-      <c r="D1169" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1169" s="4"/>
       <c r="E1169" s="4"/>
     </row>
     <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
@@ -22532,9 +20760,7 @@
       </c>
       <c r="B1170" s="4"/>
       <c r="C1170" s="4"/>
-      <c r="D1170" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1170" s="4"/>
       <c r="E1170" s="4"/>
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
@@ -22543,9 +20769,7 @@
       </c>
       <c r="B1171" s="4"/>
       <c r="C1171" s="4"/>
-      <c r="D1171" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1171" s="4"/>
       <c r="E1171" s="4"/>
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.25">
@@ -22554,9 +20778,7 @@
       </c>
       <c r="B1172" s="4"/>
       <c r="C1172" s="4"/>
-      <c r="D1172" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1172" s="4"/>
       <c r="E1172" s="4"/>
     </row>
     <row r="1173" spans="1:5" x14ac:dyDescent="0.25">
@@ -22565,9 +20787,7 @@
       </c>
       <c r="B1173" s="4"/>
       <c r="C1173" s="4"/>
-      <c r="D1173" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1173" s="4"/>
       <c r="E1173" s="4"/>
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.25">
@@ -22576,9 +20796,7 @@
       </c>
       <c r="B1174" s="4"/>
       <c r="C1174" s="4"/>
-      <c r="D1174" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1174" s="4"/>
       <c r="E1174" s="4"/>
     </row>
     <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
@@ -22587,9 +20805,7 @@
       </c>
       <c r="B1175" s="4"/>
       <c r="C1175" s="4"/>
-      <c r="D1175" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1175" s="4"/>
       <c r="E1175" s="4"/>
     </row>
     <row r="1176" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -22598,9 +20814,7 @@
       </c>
       <c r="B1176" s="4"/>
       <c r="C1176" s="4"/>
-      <c r="D1176" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1176" s="4"/>
       <c r="E1176" s="4"/>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
@@ -22609,9 +20823,7 @@
       </c>
       <c r="B1177" s="4"/>
       <c r="C1177" s="4"/>
-      <c r="D1177" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1177" s="4"/>
       <c r="E1177" s="4"/>
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
@@ -22620,9 +20832,7 @@
       </c>
       <c r="B1178" s="4"/>
       <c r="C1178" s="4"/>
-      <c r="D1178" s="9" t="s">
-        <v>3070</v>
-      </c>
+      <c r="D1178" s="4"/>
       <c r="E1178" s="4"/>
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
@@ -22631,9 +20841,7 @@
       </c>
       <c r="B1179" s="4"/>
       <c r="C1179" s="4"/>
-      <c r="D1179" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1179" s="4"/>
       <c r="E1179" s="4"/>
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
@@ -22642,9 +20850,7 @@
       </c>
       <c r="B1180" s="4"/>
       <c r="C1180" s="4"/>
-      <c r="D1180" s="9" t="s">
-        <v>3069</v>
-      </c>
+      <c r="D1180" s="4"/>
       <c r="E1180" s="4"/>
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
